--- a/raw_data/IVM6311_Testing_scripts.xlsx
+++ b/raw_data/IVM6311_Testing_scripts.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\harkum\Documents\6311\Software\raw_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADA3F94A-029D-42D8-A158-8B96AC928716}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F67A20A-DCF4-4F60-8310-7CCBB285A1F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30612" yWindow="-108" windowWidth="30936" windowHeight="16776" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="30612" yWindow="-108" windowWidth="30936" windowHeight="16776" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Revision" sheetId="3" r:id="rId1"/>
@@ -18,8 +18,9 @@
     <sheet name="Reference" sheetId="1" r:id="rId3"/>
     <sheet name="Boost" sheetId="10" r:id="rId4"/>
     <sheet name="DAC+PA" sheetId="11" r:id="rId5"/>
-    <sheet name="Procedure" sheetId="4" r:id="rId6"/>
-    <sheet name="Keywords" sheetId="2" r:id="rId7"/>
+    <sheet name="AZ_COMP" sheetId="13" r:id="rId6"/>
+    <sheet name="Procedure" sheetId="4" r:id="rId7"/>
+    <sheet name="Keywords" sheetId="2" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -42,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="999" uniqueCount="321">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1170" uniqueCount="342">
   <si>
     <t>Revision</t>
   </si>
@@ -5688,406 +5689,6 @@
       </rPr>
       <t>0x1A_0x00
 0x19_0x01</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF3399"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Run_startup
-Boost_test_default
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF7030A0"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Wait__delay__0.1ms
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF3399"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF4472C4"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0xFE_0x00</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> "Select page 0"
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF4472C4"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0xB0[1]_0x01</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> "ocp en
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF4472C4"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0xB2[1]_0x01</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> "ls_sel on"
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF4472C4"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0xC0[2:0]_0x01</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> "OCP threshold set to 200mA"
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF4472C4"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">0xFE_0x01 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">"Select page 1"
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF4472C4"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0x1A_0x10</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> "TSW to OCP Sense"
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF3399"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF7030A0"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Wait__delay__0.1ms
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF4472C4"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-0xFE_0x00</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> "Select page 0"
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF4472C4"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0xB2[0]_0x01</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> "Power Force en"
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF4472C4"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0xFE_0x01</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> "Select page 1"
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF7030A0"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Wait__delay__0.1ms
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF4472C4"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0x15[2]_0x01</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> "Force ocp"
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF4472C4"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0x19[1]_0x01</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> "bst_test en"
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF7030A0"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-Wait__delay__0.1ms
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF70AD47"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Measure__Voltage__SDWN
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF9BC2E6"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">TrimSweep - </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFC65911"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0xB2[5]_0xB1[3:0]</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF9BC2E6"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFED7D31"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>trim in 2 different registers, what is the correct command</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">"
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF3399"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-Calculate__MinError
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF9BC2E6"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Trim - </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFC65911"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">0xB2[5]0xB1[3:0]
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF4472C4"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">0x1A_0x00
-0x19_0x00
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFC65911"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
     </r>
   </si>
   <si>
@@ -15783,12 +15384,1728 @@
 0x19_0x00</t>
     </r>
   </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Run_startup
+Boost_test_default
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Wait__delay__0.1ms
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF3399"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4472C4"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0xFE_0x00</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> "Select page 0"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4472C4"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0xB0[1]_0x01</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> "ocp en
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4472C4"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0xB2[1]_0x01</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> "ls_sel on"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4472C4"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0xC0[2:0]_0x01</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> "OCP threshold set to 200mA"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4472C4"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">0xFE_0x01 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">"Select page 1"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4472C4"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0x1A_0x10</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> "TSW to OCP Sense"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF3399"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Wait__delay__0.1ms
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4472C4"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+0xFE_0x00</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> "Select page 0"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4472C4"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0xB2[0]_0x01</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> "Power Force en"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4472C4"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0xFE_0x01</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> "Select page 1"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Wait__delay__0.1ms
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4472C4"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0x15[2]_0x01</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> "Force ocp"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4472C4"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0x19[1]_0x01</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> "bst_test en"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Wait__delay__0.1ms
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF70AD47"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Measure__Voltage__SDWN
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9BC2E6"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">TrimSweep - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC65911"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0xB2[5]0xB1[3:0]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9BC2E6"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFED7D31"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>trim in 2 different registers, what is the correct command</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF3399"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Calculate__MinError
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9BC2E6"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Trim - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC65911"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">0xB2[5]0xB1[3:0]
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4472C4"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">0x1A_0x00
+0x19_0x00
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC65911"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+  </si>
+  <si>
+    <t>AZ COMPARATOR WORKING</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3rd STG Current </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2nd STG Current </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1st STG Current </t>
+  </si>
+  <si>
+    <t>Ground AZCOMP</t>
+  </si>
+  <si>
+    <t>(NO ATE)</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FFFF33CC"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">DAC-PA ANALOG_IN_DC_COUPLED
+ForceANA__-6_0                                                  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF4472C4"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0x03_0x04</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> "Enable digital test FSYN"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FFFF33CC"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">                               </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF4472C4"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0x04_0x112</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> "Enable digital test ana_azcomp_out"                                                          </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF4472C4"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0x17_0x01</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> " force_dig_azcomp_en"                                 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF4472C4"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0x17_0x00</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> " force _dig_azcomp_az"  0xFE_0x00 "Return page 0"  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FFFF33CC"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">                                                                                                            </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">                                      </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FFFF33CC"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF92D050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Measure__Voltage__FSYN 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF4472C4"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FFFF3399"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Run_startup </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">                                                                 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">0x19_0x03 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">"Enable AZCOMP analog test"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">0x1A_0x00 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">"AZCOMP I1U_STG3"      
+ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">0x17_0x01 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">" force_dig_azcomp_en"   
+ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">0xFE_0x00 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">"Return page 0" 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF92D050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Measure__Current__SDWN  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">                                                                                                                                                        </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FFFF3399"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Run_startup  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">                                                                </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">0x19_0x03 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">"Enable AZCOMP analog test"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">0x1A_0x01 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">"AZCOMP I1U_STG3"                      </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">0x17_0x01 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">" force_dig_azcomp_en"        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">0xFE_0x00 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">"Return page 0"                  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF92D050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Measure__Current__SDWN </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FFFF3399"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Run_startup</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">                                                                  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">0x19_0x03 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">"Enable AZCOMP analog test"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">0x1A_0x02 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">"AZCOMP I1U_STG3"                 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">0x17_0x01 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">" force_dig_azcomp_en"    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">0xFE_0x00 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">"Return page 0"                         </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF92D050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Measure__Current__SDWN</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">  </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FFFF3399"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Run_startup </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">                                                                 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">0x19_0x03 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">"Enable AZCOMP analog test"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">0x1A_0x03 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">"Ground"                                        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF4472C4"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">0x17_0x01 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">" force_dig_azcomp_en"                                     </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">0xFE_0x00 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">"Return page 0"   </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF92D050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Measure__Voltage__SDWN</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">  </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FFFF3399"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">DAC-PA ANALOG_IN_DC_COUPLED BOOST_FORCE_VBSO19V           ForceANA__10_0  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">                                                          </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">0x19_0x03 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">"Enable AZCOMP analog test"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">0x1A_0x11 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">"OUTN_EXT_PRT"              </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF4472C4"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">0x17_0x01 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">" force_dig_azcomp_en"                                                  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">0xFE_0x00 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">"Return page 0"   </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF92D050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Measure__Voltage__SDWN</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FFFF3399"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">DAC-PA ANALOG_IN_DC_COUPLED  BOOST_FORCE_VBSO19V
+ForceANA__10_0 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">                                                         </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">0x19_0x03 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">"Enable AZCOMP analog test"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">0x1A_0x12 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">""OUTP_EXT_PRT""                             </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF4472C4"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">0x17_0x01 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">" force_dig_azcomp_en"                                     </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">0xFE_0x00 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">"Return page 0"   </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF92D050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Measure__Voltage__SDWN</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FFFF3399"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">DAC-PA ANALOG_IN_DC_COUPLED BOOST_FORCE_VBSO19V
+ForceANA__10_0                                                        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">0x19_0x03 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">"Enable AZCOMP analog test"                </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF4472C4"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0x0F_0x02</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> "Force Internal Feedback enable" 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">0x1A_0x13 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">""OUTN_INT_PRT""                      </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF4472C4"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">0x17_0x01 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">" force_dig_azcomp_en"                                                </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">0xFE_0x00 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">"Return page 0"   </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF92D050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Measure__Voltage__SDWN</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FFFF3399"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">DAC-PA ANALOG_IN_DC_COUPLED BOOST_FORCE_VBSO19V
+ForceANA__10_0   </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">                                                       </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">0x19_0x03 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">"Enable AZCOMP analog test" </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF4472C4"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0x0F_0x02</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> "Force Internal Feedback enable" </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF4472C4"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">0x17_0x01 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">" force_dig_azcomp_en"    
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">0x1A_0x14 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">""OUTP_INT_PRT""                                               </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">0xFE_0x00 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">"Return page 0"   </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF92D050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Measure__Voltage__SDWN</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FFFF3399"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Run_startup  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">                                                                              </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF4472C4"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0x19_0x03</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> "Enable AZCOMP analog test"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF4472C4"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0x1A_0x15</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> "VCM"                                       </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF4472C4"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">0x17_0x01 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">" force_dig_azcomp_en"                                             </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF4472C4"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">0xFE_0x00 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">"Return page 0"   </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF92D050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Measure__Voltage__SDWN </t>
+    </r>
+  </si>
+  <si>
+    <t>1u</t>
+  </si>
+  <si>
+    <t>800n</t>
+  </si>
+  <si>
+    <t>&lt;6.6</t>
+  </si>
+  <si>
+    <t>VBAT/2</t>
+  </si>
+  <si>
+    <t>Measure Current/Mid/Low</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="69" x14ac:knownFonts="1">
+  <fonts count="73" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -16210,6 +17527,34 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="16"/>
+      <color rgb="FF4472C4"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color rgb="FF92D050"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color rgb="FFFF3399"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color rgb="FFFF3399"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="11">
     <fill>
@@ -16545,7 +17890,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="115">
+  <cellXfs count="125">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -16786,6 +18131,15 @@
     <xf numFmtId="49" fontId="38" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="66" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="67" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="68" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -16810,15 +18164,24 @@
     <xf numFmtId="0" fontId="29" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="66" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="67" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="4" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="23" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="68" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -17227,10 +18590,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="21" x14ac:dyDescent="0.4">
-      <c r="A1" s="104" t="s">
+      <c r="A1" s="107" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="104"/>
+      <c r="B1" s="107"/>
       <c r="C1" s="17" t="s">
         <v>5</v>
       </c>
@@ -17255,10 +18618,10 @@
       </c>
     </row>
     <row r="3" spans="1:5" ht="21" x14ac:dyDescent="0.4">
-      <c r="A3" s="104" t="s">
+      <c r="A3" s="107" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="104"/>
+      <c r="B3" s="107"/>
       <c r="C3" s="15" t="s">
         <v>8</v>
       </c>
@@ -17270,10 +18633,10 @@
       </c>
     </row>
     <row r="4" spans="1:5" ht="21" x14ac:dyDescent="0.4">
-      <c r="A4" s="104" t="s">
+      <c r="A4" s="107" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="104"/>
+      <c r="B4" s="107"/>
       <c r="C4" s="9" t="s">
         <v>10</v>
       </c>
@@ -17285,20 +18648,20 @@
       </c>
     </row>
     <row r="5" spans="1:5" ht="273" x14ac:dyDescent="0.3">
-      <c r="A5" s="105"/>
-      <c r="B5" s="106"/>
+      <c r="A5" s="108"/>
+      <c r="B5" s="109"/>
       <c r="C5" s="37" t="s">
         <v>13</v>
       </c>
       <c r="D5" s="37" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="E5" s="56" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="22.2" x14ac:dyDescent="0.35">
-      <c r="A6" s="107" t="s">
+      <c r="A6" s="110" t="s">
         <v>15</v>
       </c>
       <c r="B6" s="13" t="s">
@@ -17315,7 +18678,7 @@
       </c>
     </row>
     <row r="7" spans="1:5" ht="22.2" x14ac:dyDescent="0.35">
-      <c r="A7" s="107"/>
+      <c r="A7" s="110"/>
       <c r="B7" s="14" t="s">
         <v>17</v>
       </c>
@@ -17330,7 +18693,7 @@
       </c>
     </row>
     <row r="8" spans="1:5" ht="22.2" x14ac:dyDescent="0.35">
-      <c r="A8" s="107"/>
+      <c r="A8" s="110"/>
       <c r="B8" s="10" t="s">
         <v>19</v>
       </c>
@@ -17345,7 +18708,7 @@
       </c>
     </row>
     <row r="9" spans="1:5" ht="22.2" x14ac:dyDescent="0.35">
-      <c r="A9" s="107"/>
+      <c r="A9" s="110"/>
       <c r="B9" s="12" t="s">
         <v>21</v>
       </c>
@@ -17360,7 +18723,7 @@
       </c>
     </row>
     <row r="10" spans="1:5" ht="22.2" x14ac:dyDescent="0.35">
-      <c r="A10" s="107"/>
+      <c r="A10" s="110"/>
       <c r="B10" s="14" t="s">
         <v>22</v>
       </c>
@@ -18011,8 +19374,8 @@
   </sheetPr>
   <dimension ref="A1:I104"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView topLeftCell="B1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -18025,10 +19388,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="21" x14ac:dyDescent="0.4">
-      <c r="A1" s="104" t="s">
+      <c r="A1" s="107" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="104"/>
+      <c r="B1" s="107"/>
       <c r="C1" s="17" t="s">
         <v>5</v>
       </c>
@@ -18075,10 +19438,10 @@
       </c>
     </row>
     <row r="3" spans="1:9" s="1" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="104" t="s">
+      <c r="A3" s="107" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="104"/>
+      <c r="B3" s="107"/>
       <c r="C3" s="15" t="s">
         <v>64</v>
       </c>
@@ -18102,10 +19465,10 @@
       </c>
     </row>
     <row r="4" spans="1:9" s="1" customFormat="1" ht="74.400000000000006" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="104" t="s">
+      <c r="A4" s="107" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="104"/>
+      <c r="B4" s="107"/>
       <c r="C4" s="9" t="s">
         <v>69</v>
       </c>
@@ -18129,10 +19492,10 @@
       </c>
     </row>
     <row r="5" spans="1:9" s="1" customFormat="1" ht="409.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="105"/>
-      <c r="B5" s="106"/>
+      <c r="A5" s="108"/>
+      <c r="B5" s="109"/>
       <c r="C5" s="37" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D5" s="37" t="s">
         <v>76</v>
@@ -18154,7 +19517,7 @@
       </c>
     </row>
     <row r="6" spans="1:9" ht="27.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="107" t="s">
+      <c r="A6" s="110" t="s">
         <v>15</v>
       </c>
       <c r="B6" s="13" t="s">
@@ -18175,7 +19538,7 @@
       </c>
     </row>
     <row r="7" spans="1:9" ht="27.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="107"/>
+      <c r="A7" s="110"/>
       <c r="B7" s="14" t="s">
         <v>17</v>
       </c>
@@ -18190,7 +19553,7 @@
       <c r="I7" s="8"/>
     </row>
     <row r="8" spans="1:9" ht="27.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="107"/>
+      <c r="A8" s="110"/>
       <c r="B8" s="10" t="s">
         <v>19</v>
       </c>
@@ -18217,7 +19580,7 @@
       </c>
     </row>
     <row r="9" spans="1:9" ht="27.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="107"/>
+      <c r="A9" s="110"/>
       <c r="B9" s="12" t="s">
         <v>21</v>
       </c>
@@ -18236,7 +19599,7 @@
       </c>
     </row>
     <row r="10" spans="1:9" ht="27.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="107"/>
+      <c r="A10" s="110"/>
       <c r="B10" s="14" t="s">
         <v>22</v>
       </c>
@@ -19472,8 +20835,8 @@
   </sheetPr>
   <dimension ref="A1:AB104"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="X5" sqref="X5"/>
+    <sheetView topLeftCell="R4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="T5" sqref="T5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -19487,10 +20850,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:28" ht="21" x14ac:dyDescent="0.4">
-      <c r="A1" s="108" t="s">
+      <c r="A1" s="111" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="108"/>
+      <c r="B1" s="111"/>
       <c r="C1" s="17" t="s">
         <v>95</v>
       </c>
@@ -19651,10 +21014,10 @@
       </c>
     </row>
     <row r="3" spans="1:28" s="1" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="108" t="s">
+      <c r="A3" s="111" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="108"/>
+      <c r="B3" s="111"/>
       <c r="C3" s="64" t="s">
         <v>64</v>
       </c>
@@ -19735,10 +21098,10 @@
       </c>
     </row>
     <row r="4" spans="1:28" s="1" customFormat="1" ht="74.400000000000006" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="108" t="s">
+      <c r="A4" s="111" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="108"/>
+      <c r="B4" s="111"/>
       <c r="C4" s="65" t="s">
         <v>115</v>
       </c>
@@ -19819,8 +21182,8 @@
       </c>
     </row>
     <row r="5" spans="1:28" s="1" customFormat="1" ht="409.6" x14ac:dyDescent="0.3">
-      <c r="A5" s="109"/>
-      <c r="B5" s="110"/>
+      <c r="A5" s="112"/>
+      <c r="B5" s="113"/>
       <c r="C5" s="102" t="s">
         <v>141</v>
       </c>
@@ -19828,25 +21191,25 @@
         <v>142</v>
       </c>
       <c r="E5" s="102" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="F5" s="102" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="G5" s="102" t="s">
         <v>143</v>
       </c>
       <c r="H5" s="95" t="s">
+        <v>307</v>
+      </c>
+      <c r="I5" s="95" t="s">
         <v>308</v>
       </c>
-      <c r="I5" s="95" t="s">
-        <v>309</v>
-      </c>
       <c r="J5" s="95" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="K5" s="95" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="L5" s="102" t="s">
         <v>144</v>
@@ -19870,38 +21233,38 @@
         <v>150</v>
       </c>
       <c r="S5" s="95" t="s">
+        <v>320</v>
+      </c>
+      <c r="T5" s="95" t="s">
         <v>151</v>
       </c>
-      <c r="T5" s="95" t="s">
+      <c r="U5" s="95" t="s">
         <v>152</v>
       </c>
-      <c r="U5" s="95" t="s">
+      <c r="V5" s="95" t="s">
         <v>153</v>
       </c>
-      <c r="V5" s="95" t="s">
+      <c r="W5" s="96" t="s">
+        <v>314</v>
+      </c>
+      <c r="X5" s="97" t="s">
         <v>154</v>
       </c>
-      <c r="W5" s="96" t="s">
+      <c r="Y5" s="97" t="s">
+        <v>155</v>
+      </c>
+      <c r="Z5" s="97" t="s">
+        <v>319</v>
+      </c>
+      <c r="AA5" s="106" t="s">
         <v>315</v>
       </c>
-      <c r="X5" s="97" t="s">
-        <v>155</v>
-      </c>
-      <c r="Y5" s="97" t="s">
-        <v>156</v>
-      </c>
-      <c r="Z5" s="97" t="s">
-        <v>320</v>
-      </c>
-      <c r="AA5" s="114" t="s">
+      <c r="AB5" s="106" t="s">
         <v>316</v>
       </c>
-      <c r="AB5" s="114" t="s">
-        <v>317</v>
-      </c>
     </row>
     <row r="6" spans="1:28" ht="27.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="111" t="s">
+      <c r="A6" s="114" t="s">
         <v>15</v>
       </c>
       <c r="B6" s="59" t="s">
@@ -19909,7 +21272,7 @@
       </c>
       <c r="C6" s="66"/>
       <c r="D6" s="67" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E6" s="67">
         <v>2</v>
@@ -19929,16 +21292,16 @@
       </c>
       <c r="K6" s="67"/>
       <c r="L6" s="67" t="s">
+        <v>157</v>
+      </c>
+      <c r="M6" s="67" t="s">
+        <v>157</v>
+      </c>
+      <c r="N6" s="67" t="s">
         <v>158</v>
       </c>
-      <c r="M6" s="67" t="s">
-        <v>158</v>
-      </c>
-      <c r="N6" s="67" t="s">
+      <c r="O6" s="67" t="s">
         <v>159</v>
-      </c>
-      <c r="O6" s="67" t="s">
-        <v>160</v>
       </c>
       <c r="P6" s="67">
         <v>0</v>
@@ -19947,7 +21310,7 @@
         <v>0</v>
       </c>
       <c r="R6" s="67" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="S6" s="67"/>
       <c r="T6" s="67">
@@ -19966,7 +21329,7 @@
         <v>9075</v>
       </c>
       <c r="Y6" s="67" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="Z6" s="67">
         <v>0</v>
@@ -19979,7 +21342,7 @@
       </c>
     </row>
     <row r="7" spans="1:28" ht="27.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="111"/>
+      <c r="A7" s="114"/>
       <c r="B7" s="60" t="s">
         <v>17</v>
       </c>
@@ -20011,41 +21374,41 @@
       <c r="AB7" s="68"/>
     </row>
     <row r="8" spans="1:28" ht="27.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="111"/>
+      <c r="A8" s="114"/>
       <c r="B8" s="61" t="s">
         <v>19</v>
       </c>
       <c r="C8" s="69" t="s">
+        <v>162</v>
+      </c>
+      <c r="D8" s="69" t="s">
         <v>163</v>
-      </c>
-      <c r="D8" s="69" t="s">
-        <v>164</v>
       </c>
       <c r="E8" s="69" t="s">
         <v>67</v>
       </c>
       <c r="F8" s="69"/>
       <c r="G8" s="69" t="s">
+        <v>164</v>
+      </c>
+      <c r="H8" s="69" t="s">
+        <v>164</v>
+      </c>
+      <c r="I8" s="69" t="s">
+        <v>164</v>
+      </c>
+      <c r="J8" s="69" t="s">
+        <v>164</v>
+      </c>
+      <c r="K8" s="69" t="s">
         <v>165</v>
-      </c>
-      <c r="H8" s="69" t="s">
-        <v>165</v>
-      </c>
-      <c r="I8" s="69" t="s">
-        <v>165</v>
-      </c>
-      <c r="J8" s="69" t="s">
-        <v>165</v>
-      </c>
-      <c r="K8" s="69" t="s">
-        <v>166</v>
       </c>
       <c r="L8" s="69"/>
       <c r="M8" s="69"/>
       <c r="N8" s="69"/>
       <c r="O8" s="69"/>
       <c r="P8" s="69" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="Q8" s="69"/>
       <c r="R8" s="69"/>
@@ -20061,29 +21424,29 @@
       <c r="AB8" s="69"/>
     </row>
     <row r="9" spans="1:28" ht="27.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="111"/>
+      <c r="A9" s="114"/>
       <c r="B9" s="62" t="s">
         <v>21</v>
       </c>
       <c r="C9" s="70"/>
       <c r="D9" s="71" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E9" s="71">
         <v>6</v>
       </c>
       <c r="F9" s="71"/>
       <c r="G9" s="71" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="H9" s="71" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="I9" s="71" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="J9" s="71" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="K9" s="71"/>
       <c r="L9" s="71">
@@ -20099,45 +21462,45 @@
         <v>4</v>
       </c>
       <c r="P9" s="71" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="Q9" s="71" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="R9" s="71" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="S9" s="71"/>
       <c r="T9" s="71" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="U9" s="71" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="V9" s="71" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="W9" s="71" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="X9" s="71">
         <v>20075</v>
       </c>
       <c r="Y9" s="71" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="Z9" s="71" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="AA9" s="39" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="AB9" s="39" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="10" spans="1:28" ht="27.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="111"/>
+      <c r="A10" s="114"/>
       <c r="B10" s="60" t="s">
         <v>22</v>
       </c>
@@ -20177,10 +21540,10 @@
         <v>90</v>
       </c>
       <c r="D11" s="72" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E11" s="72" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F11" s="72"/>
       <c r="G11" s="72" t="s">
@@ -20290,82 +21653,82 @@
         <v>30</v>
       </c>
       <c r="C13" s="84" t="s">
+        <v>170</v>
+      </c>
+      <c r="D13" s="85" t="s">
+        <v>170</v>
+      </c>
+      <c r="E13" s="85" t="s">
         <v>171</v>
       </c>
-      <c r="D13" s="85" t="s">
-        <v>171</v>
-      </c>
-      <c r="E13" s="85" t="s">
-        <v>172</v>
-      </c>
       <c r="F13" s="85" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="G13" s="85" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="H13" s="85" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="I13" s="85" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="J13" s="85" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="K13" s="85" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="L13" s="85" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="M13" s="85" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="N13" s="85" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="O13" s="85" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="P13" s="85" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="Q13" s="85" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="R13" s="85" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="S13" s="85" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="T13" s="85" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="U13" s="85" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="V13" s="85" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="W13" s="85" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="X13" s="85" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="Y13" s="85" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="Z13" s="85" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="AA13" s="85" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="AB13" s="85" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="14" spans="1:28" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.35">
@@ -20376,76 +21739,76 @@
         <v>33</v>
       </c>
       <c r="C14" s="84" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D14" s="86" t="s">
+        <v>172</v>
+      </c>
+      <c r="E14" s="86" t="s">
         <v>173</v>
       </c>
-      <c r="E14" s="86" t="s">
-        <v>174</v>
-      </c>
       <c r="F14" s="85" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="G14" s="85" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="H14" s="85" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="I14" s="85" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="J14" s="85" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="K14" s="85" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="L14" s="85" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="M14" s="85" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="N14" s="85" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="O14" s="85" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="P14" s="85" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="Q14" s="85" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="R14" s="85" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="S14" s="85" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="T14" s="85" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="U14" s="85" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="V14" s="85" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="W14" s="85"/>
       <c r="X14" s="85"/>
       <c r="Y14" s="85"/>
       <c r="Z14" s="84" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="AA14" s="84" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="AB14" s="84" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="15" spans="1:28" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -20542,82 +21905,82 @@
         <v>38</v>
       </c>
       <c r="C16" s="84" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D16" s="85" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E16" s="85" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F16" s="85" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="G16" s="85" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="H16" s="85" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="I16" s="85" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="J16" s="85" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="K16" s="85" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="L16" s="85" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="M16" s="85" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="N16" s="85" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="O16" s="85" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="P16" s="85" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="Q16" s="85" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="R16" s="85" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="S16" s="85" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="T16" s="85" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="U16" s="85" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="V16" s="85" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="W16" s="85" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="X16" s="85" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="Y16" s="85" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="Z16" s="85" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="AA16" s="85" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="AB16" s="85" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="17" spans="1:28" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -20631,57 +21994,57 @@
         <v>93</v>
       </c>
       <c r="D17" s="85" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E17" s="85" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F17" s="85" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="G17" s="85"/>
       <c r="H17" s="85"/>
       <c r="I17" s="85"/>
       <c r="J17" s="85"/>
       <c r="K17" s="85" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="L17" s="85" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="M17" s="85" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="N17" s="85" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="O17" s="85" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="P17" s="85"/>
       <c r="Q17" s="85" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="R17" s="85" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="S17" s="85" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="T17" s="85" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="U17" s="85" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="V17" s="85" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="W17" s="85"/>
       <c r="X17" s="85"/>
       <c r="Y17" s="85"/>
       <c r="Z17" s="85" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="AA17" s="85"/>
       <c r="AB17" s="85"/>
@@ -20766,16 +22129,16 @@
       <c r="E20" s="85"/>
       <c r="F20" s="85"/>
       <c r="G20" s="85" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="H20" s="85" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="I20" s="85" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="J20" s="85" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="K20" s="85"/>
       <c r="L20" s="85"/>
@@ -20783,7 +22146,7 @@
       <c r="N20" s="85"/>
       <c r="O20" s="85"/>
       <c r="P20" s="85" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="Q20" s="85"/>
       <c r="R20" s="85"/>
@@ -20792,18 +22155,18 @@
       <c r="U20" s="85"/>
       <c r="V20" s="85"/>
       <c r="W20" s="85" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="X20" s="85"/>
       <c r="Y20" s="85"/>
       <c r="Z20" s="85" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="AA20" s="85" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="AB20" s="85" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="21" spans="1:28" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -20819,13 +22182,13 @@
       <c r="F21" s="85"/>
       <c r="G21" s="85"/>
       <c r="H21" s="85" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="I21" s="85" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="J21" s="85" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="K21" s="85"/>
       <c r="L21" s="85"/>
@@ -20843,7 +22206,7 @@
       <c r="X21" s="85"/>
       <c r="Y21" s="85"/>
       <c r="Z21" s="85" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="AA21" s="85"/>
       <c r="AB21" s="85"/>
@@ -20890,80 +22253,80 @@
         <v>52</v>
       </c>
       <c r="C23" s="84" t="s">
+        <v>170</v>
+      </c>
+      <c r="D23" s="84" t="s">
+        <v>170</v>
+      </c>
+      <c r="E23" s="84" t="s">
         <v>171</v>
       </c>
-      <c r="D23" s="84" t="s">
-        <v>171</v>
-      </c>
-      <c r="E23" s="84" t="s">
-        <v>172</v>
-      </c>
       <c r="F23" s="100" t="s">
+        <v>178</v>
+      </c>
+      <c r="G23" s="84" t="s">
+        <v>170</v>
+      </c>
+      <c r="H23" s="84" t="s">
+        <v>170</v>
+      </c>
+      <c r="I23" s="84" t="s">
+        <v>170</v>
+      </c>
+      <c r="J23" s="84" t="s">
+        <v>170</v>
+      </c>
+      <c r="K23" s="84" t="s">
+        <v>170</v>
+      </c>
+      <c r="L23" s="84" t="s">
+        <v>170</v>
+      </c>
+      <c r="M23" s="84" t="s">
+        <v>170</v>
+      </c>
+      <c r="N23" s="84" t="s">
+        <v>170</v>
+      </c>
+      <c r="O23" s="84" t="s">
+        <v>170</v>
+      </c>
+      <c r="P23" s="84" t="s">
+        <v>170</v>
+      </c>
+      <c r="Q23" s="84" t="s">
+        <v>170</v>
+      </c>
+      <c r="R23" s="84" t="s">
+        <v>170</v>
+      </c>
+      <c r="S23" s="84" t="s">
+        <v>170</v>
+      </c>
+      <c r="T23" s="84" t="s">
         <v>179</v>
       </c>
-      <c r="G23" s="84" t="s">
-        <v>171</v>
-      </c>
-      <c r="H23" s="84" t="s">
-        <v>171</v>
-      </c>
-      <c r="I23" s="84" t="s">
-        <v>171</v>
-      </c>
-      <c r="J23" s="84" t="s">
-        <v>171</v>
-      </c>
-      <c r="K23" s="84" t="s">
-        <v>171</v>
-      </c>
-      <c r="L23" s="84" t="s">
-        <v>171</v>
-      </c>
-      <c r="M23" s="84" t="s">
-        <v>171</v>
-      </c>
-      <c r="N23" s="84" t="s">
-        <v>171</v>
-      </c>
-      <c r="O23" s="84" t="s">
-        <v>171</v>
-      </c>
-      <c r="P23" s="84" t="s">
-        <v>171</v>
-      </c>
-      <c r="Q23" s="84" t="s">
-        <v>171</v>
-      </c>
-      <c r="R23" s="84" t="s">
-        <v>171</v>
-      </c>
-      <c r="S23" s="84" t="s">
-        <v>171</v>
-      </c>
-      <c r="T23" s="84" t="s">
-        <v>180</v>
-      </c>
       <c r="U23" s="84" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="V23" s="84" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="W23" s="84" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="X23" s="84" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="Y23" s="101"/>
       <c r="Z23" s="101" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="AA23" s="101" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="AB23" s="101" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="24" spans="1:28" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -20974,80 +22337,80 @@
         <v>54</v>
       </c>
       <c r="C24" s="84" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D24" s="85" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E24" s="85" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="F24" s="85" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="G24" s="85" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="H24" s="85" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="I24" s="85" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="J24" s="85" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="K24" s="85" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="L24" s="85" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="M24" s="85" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="N24" s="85" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="O24" s="85" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="P24" s="85" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="Q24" s="85" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="R24" s="85" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="S24" s="85" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="T24" s="85" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="U24" s="85" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="V24" s="85" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="W24" s="85" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="X24" s="85"/>
       <c r="Y24" s="85" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="Z24" s="85" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="AA24" s="85" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="AB24" s="85" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="25" spans="1:28" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -21116,7 +22479,7 @@
       <c r="Y26" s="85"/>
       <c r="Z26" s="85"/>
       <c r="AA26" s="84" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="AB26" s="84"/>
     </row>
@@ -21152,7 +22515,7 @@
       <c r="Y27" s="85"/>
       <c r="Z27" s="85"/>
       <c r="AA27" s="84" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="AB27" s="85"/>
     </row>
@@ -23564,10 +24927,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="21" x14ac:dyDescent="0.4">
-      <c r="A1" s="108" t="s">
+      <c r="A1" s="111" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="108"/>
+      <c r="B1" s="111"/>
       <c r="C1" s="17" t="s">
         <v>5</v>
       </c>
@@ -23662,10 +25025,10 @@
       </c>
     </row>
     <row r="3" spans="1:17" s="1" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="108" t="s">
+      <c r="A3" s="111" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="108"/>
+      <c r="B3" s="111"/>
       <c r="C3" s="15" t="s">
         <v>68</v>
       </c>
@@ -23713,107 +25076,107 @@
       </c>
     </row>
     <row r="4" spans="1:17" s="1" customFormat="1" ht="97.2" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="108" t="s">
+      <c r="A4" s="111" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="108"/>
+      <c r="B4" s="111"/>
       <c r="C4" s="65" t="s">
+        <v>183</v>
+      </c>
+      <c r="D4" s="9" t="s">
         <v>184</v>
       </c>
-      <c r="D4" s="9" t="s">
+      <c r="E4" s="9" t="s">
         <v>185</v>
       </c>
-      <c r="E4" s="9" t="s">
+      <c r="F4" s="9" t="s">
         <v>186</v>
       </c>
-      <c r="F4" s="9" t="s">
+      <c r="G4" s="65" t="s">
         <v>187</v>
       </c>
-      <c r="G4" s="65" t="s">
+      <c r="H4" s="9" t="s">
         <v>188</v>
       </c>
-      <c r="H4" s="9" t="s">
+      <c r="I4" s="91" t="s">
         <v>189</v>
       </c>
-      <c r="I4" s="91" t="s">
+      <c r="J4" s="91" t="s">
         <v>190</v>
       </c>
-      <c r="J4" s="91" t="s">
+      <c r="K4" s="91" t="s">
         <v>191</v>
       </c>
-      <c r="K4" s="91" t="s">
+      <c r="L4" s="93" t="s">
         <v>192</v>
       </c>
-      <c r="L4" s="93" t="s">
+      <c r="M4" s="93" t="s">
         <v>193</v>
       </c>
-      <c r="M4" s="93" t="s">
+      <c r="N4" s="93" t="s">
         <v>194</v>
       </c>
-      <c r="N4" s="93" t="s">
+      <c r="O4" s="93" t="s">
         <v>195</v>
       </c>
-      <c r="O4" s="93" t="s">
+      <c r="P4" s="93" t="s">
         <v>196</v>
       </c>
-      <c r="P4" s="93" t="s">
+      <c r="Q4" s="93" t="s">
         <v>197</v>
       </c>
-      <c r="Q4" s="93" t="s">
+    </row>
+    <row r="5" spans="1:17" s="1" customFormat="1" ht="409.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="112"/>
+      <c r="B5" s="113"/>
+      <c r="C5" s="104" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="5" spans="1:17" s="1" customFormat="1" ht="409.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="109"/>
-      <c r="B5" s="110"/>
-      <c r="C5" s="112" t="s">
+      <c r="D5" s="37" t="s">
         <v>199</v>
       </c>
-      <c r="D5" s="37" t="s">
+      <c r="E5" s="88" t="s">
         <v>200</v>
       </c>
-      <c r="E5" s="88" t="s">
+      <c r="F5" s="88" t="s">
         <v>201</v>
       </c>
-      <c r="F5" s="88" t="s">
+      <c r="G5" s="88" t="s">
         <v>202</v>
       </c>
-      <c r="G5" s="88" t="s">
+      <c r="H5" s="88" t="s">
         <v>203</v>
       </c>
-      <c r="H5" s="88" t="s">
+      <c r="I5" s="88" t="s">
         <v>204</v>
       </c>
-      <c r="I5" s="88" t="s">
+      <c r="J5" s="88" t="s">
         <v>205</v>
       </c>
-      <c r="J5" s="88" t="s">
+      <c r="K5" s="88" t="s">
         <v>206</v>
       </c>
-      <c r="K5" s="88" t="s">
+      <c r="L5" s="88" t="s">
         <v>207</v>
       </c>
-      <c r="L5" s="88" t="s">
+      <c r="M5" s="56" t="s">
         <v>208</v>
       </c>
-      <c r="M5" s="56" t="s">
+      <c r="N5" s="56" t="s">
         <v>209</v>
       </c>
-      <c r="N5" s="56" t="s">
+      <c r="O5" s="56" t="s">
         <v>210</v>
       </c>
-      <c r="O5" s="56" t="s">
+      <c r="P5" s="56" t="s">
         <v>211</v>
       </c>
-      <c r="P5" s="56" t="s">
+      <c r="Q5" s="56" t="s">
         <v>212</v>
       </c>
-      <c r="Q5" s="56" t="s">
-        <v>213</v>
-      </c>
     </row>
     <row r="6" spans="1:17" ht="27.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="111" t="s">
+      <c r="A6" s="114" t="s">
         <v>15</v>
       </c>
       <c r="B6" s="59" t="s">
@@ -23836,7 +25199,7 @@
       <c r="Q6" s="38"/>
     </row>
     <row r="7" spans="1:17" ht="27.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="111"/>
+      <c r="A7" s="114"/>
       <c r="B7" s="60" t="s">
         <v>17</v>
       </c>
@@ -23857,52 +25220,52 @@
       <c r="Q7" s="8"/>
     </row>
     <row r="8" spans="1:17" ht="27.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="111"/>
+      <c r="A8" s="114"/>
       <c r="B8" s="61" t="s">
         <v>19</v>
       </c>
       <c r="C8" s="11"/>
       <c r="D8" s="11"/>
       <c r="E8" s="11" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F8" s="11" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="G8" s="11" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="H8" s="11" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="I8" s="11" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="J8" s="11" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="K8" s="11" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="L8" s="11"/>
       <c r="M8" s="11" t="s">
+        <v>214</v>
+      </c>
+      <c r="N8" s="11" t="s">
         <v>215</v>
       </c>
-      <c r="N8" s="11" t="s">
+      <c r="O8" s="11" t="s">
+        <v>215</v>
+      </c>
+      <c r="P8" s="11" t="s">
         <v>216</v>
       </c>
-      <c r="O8" s="11" t="s">
-        <v>216</v>
-      </c>
-      <c r="P8" s="11" t="s">
+      <c r="Q8" s="11" t="s">
         <v>217</v>
       </c>
-      <c r="Q8" s="11" t="s">
-        <v>218</v>
-      </c>
     </row>
     <row r="9" spans="1:17" ht="27.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="111"/>
+      <c r="A9" s="114"/>
       <c r="B9" s="62" t="s">
         <v>21</v>
       </c>
@@ -23910,7 +25273,7 @@
         <v>1</v>
       </c>
       <c r="D9" s="39" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E9" s="71"/>
       <c r="F9" s="71"/>
@@ -23927,7 +25290,7 @@
       <c r="Q9" s="39"/>
     </row>
     <row r="10" spans="1:17" ht="27.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="111"/>
+      <c r="A10" s="114"/>
       <c r="B10" s="60" t="s">
         <v>22</v>
       </c>
@@ -23953,47 +25316,47 @@
         <v>24</v>
       </c>
       <c r="C11" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="E11" s="5" t="s">
         <v>220</v>
       </c>
-      <c r="D11" s="5" t="s">
+      <c r="F11" s="5" t="s">
         <v>220</v>
       </c>
-      <c r="E11" s="5" t="s">
-        <v>221</v>
-      </c>
-      <c r="F11" s="5" t="s">
-        <v>221</v>
-      </c>
       <c r="G11" s="5" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="H11" s="5" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="I11" s="5" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="J11" s="5" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="K11" s="5" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="L11" s="5"/>
       <c r="M11" s="5" t="s">
+        <v>221</v>
+      </c>
+      <c r="N11" s="5" t="s">
         <v>222</v>
       </c>
-      <c r="N11" s="5" t="s">
-        <v>223</v>
-      </c>
       <c r="O11" s="5" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="P11" s="5" t="s">
         <v>25</v>
       </c>
       <c r="Q11" s="5" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="12" spans="1:17" ht="20.25" customHeight="1" x14ac:dyDescent="0.4">
@@ -24252,10 +25615,10 @@
         <v>93</v>
       </c>
       <c r="P17" s="50" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="Q17" s="50" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="18" spans="1:17" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
@@ -24313,13 +25676,13 @@
       </c>
       <c r="C20" s="50"/>
       <c r="D20" s="50" t="s">
+        <v>224</v>
+      </c>
+      <c r="E20" s="50" t="s">
         <v>225</v>
       </c>
-      <c r="E20" s="50" t="s">
-        <v>226</v>
-      </c>
       <c r="F20" s="50" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="G20" s="90"/>
       <c r="I20" s="76"/>
@@ -24340,29 +25703,29 @@
         <v>48</v>
       </c>
       <c r="C21" s="50" t="s">
+        <v>226</v>
+      </c>
+      <c r="D21" s="50" t="s">
         <v>227</v>
       </c>
-      <c r="D21" s="50" t="s">
+      <c r="E21" s="50" t="s">
         <v>228</v>
-      </c>
-      <c r="E21" s="50" t="s">
-        <v>229</v>
       </c>
       <c r="F21" s="50"/>
       <c r="G21" s="50" t="s">
+        <v>229</v>
+      </c>
+      <c r="H21" s="50" t="s">
         <v>230</v>
       </c>
-      <c r="H21" s="50" t="s">
+      <c r="I21" s="76" t="s">
         <v>231</v>
       </c>
-      <c r="I21" s="76" t="s">
-        <v>232</v>
-      </c>
       <c r="J21" s="76" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="K21" s="76" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="L21" s="76"/>
       <c r="M21" s="50"/>
@@ -24379,31 +25742,31 @@
         <v>50</v>
       </c>
       <c r="C22" s="50" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D22" s="50" t="s">
+        <v>232</v>
+      </c>
+      <c r="E22" s="50" t="s">
         <v>233</v>
       </c>
-      <c r="E22" s="50" t="s">
+      <c r="F22" s="50" t="s">
+        <v>233</v>
+      </c>
+      <c r="G22" s="50" t="s">
         <v>234</v>
       </c>
-      <c r="F22" s="50" t="s">
-        <v>234</v>
-      </c>
-      <c r="G22" s="50" t="s">
+      <c r="H22" s="50" t="s">
         <v>235</v>
       </c>
-      <c r="H22" s="50" t="s">
+      <c r="I22" s="76" t="s">
         <v>236</v>
       </c>
-      <c r="I22" s="76" t="s">
+      <c r="J22" s="76" t="s">
         <v>237</v>
       </c>
-      <c r="J22" s="76" t="s">
+      <c r="K22" s="76" t="s">
         <v>238</v>
-      </c>
-      <c r="K22" s="76" t="s">
-        <v>239</v>
       </c>
       <c r="L22" s="76"/>
       <c r="M22" s="50"/>
@@ -24489,31 +25852,31 @@
         <v>58</v>
       </c>
       <c r="C26" s="50" t="s">
+        <v>239</v>
+      </c>
+      <c r="D26" s="50" t="s">
+        <v>239</v>
+      </c>
+      <c r="E26" s="50" t="s">
         <v>240</v>
       </c>
-      <c r="D26" s="50" t="s">
+      <c r="F26" s="50" t="s">
         <v>240</v>
       </c>
-      <c r="E26" s="50" t="s">
-        <v>241</v>
-      </c>
-      <c r="F26" s="50" t="s">
-        <v>241</v>
-      </c>
       <c r="G26" s="50" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="H26" s="50" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="I26" s="50" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="J26" s="50" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="K26" s="50" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="L26" s="50"/>
       <c r="M26" s="50"/>
@@ -24530,31 +25893,31 @@
         <v>60</v>
       </c>
       <c r="C27" s="50" t="s">
+        <v>239</v>
+      </c>
+      <c r="D27" s="50" t="s">
+        <v>239</v>
+      </c>
+      <c r="E27" s="50" t="s">
         <v>240</v>
       </c>
-      <c r="D27" s="50" t="s">
+      <c r="F27" s="50" t="s">
         <v>240</v>
       </c>
-      <c r="E27" s="50" t="s">
-        <v>241</v>
-      </c>
-      <c r="F27" s="50" t="s">
-        <v>241</v>
-      </c>
       <c r="G27" s="50" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="H27" s="50" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="I27" s="50" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="J27" s="50" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="K27" s="50" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="L27" s="50"/>
       <c r="M27" s="50"/>
@@ -26072,6 +27435,1948 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA6E3E55-55E0-4CC9-880D-C0A0E32B07F0}">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
+  <dimension ref="A1:M106"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="41" style="2" customWidth="1"/>
+    <col min="2" max="2" width="37.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="129.5546875" style="3" customWidth="1"/>
+    <col min="5" max="10" width="59.109375" style="3" customWidth="1"/>
+    <col min="11" max="14" width="59.109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" ht="21" x14ac:dyDescent="0.4">
+      <c r="A1" s="107" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="107"/>
+      <c r="C1" s="17" t="s">
+        <v>95</v>
+      </c>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="J1" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="K1" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="L1" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="M1" s="17" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" ht="21" x14ac:dyDescent="0.4">
+      <c r="C2" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="I2" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="J2" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="K2" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="L2" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="M2" s="16" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" s="1" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A3" s="107" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="107"/>
+      <c r="C3" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="D3" s="15"/>
+      <c r="E3" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="F3" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="G3" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="H3" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="I3" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="J3" s="15" t="s">
+        <v>102</v>
+      </c>
+      <c r="K3" s="15" t="s">
+        <v>88</v>
+      </c>
+      <c r="L3" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="M3" s="15" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" s="1" customFormat="1" ht="74.400000000000006" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A4" s="107" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="107"/>
+      <c r="C4" s="9" t="s">
+        <v>321</v>
+      </c>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9" t="s">
+        <v>322</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>323</v>
+      </c>
+      <c r="G4" s="9" t="s">
+        <v>324</v>
+      </c>
+      <c r="H4" s="9" t="s">
+        <v>325</v>
+      </c>
+      <c r="I4" s="9" t="s">
+        <v>326</v>
+      </c>
+      <c r="J4" s="9"/>
+      <c r="K4" s="9"/>
+      <c r="L4" s="9"/>
+      <c r="M4" s="9"/>
+    </row>
+    <row r="5" spans="1:13" s="1" customFormat="1" ht="409.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="108"/>
+      <c r="B5" s="108"/>
+      <c r="C5" s="56" t="s">
+        <v>327</v>
+      </c>
+      <c r="D5" s="115" t="str">
+        <f>TRIM(SUBSTITUTE(C5,CHAR(32),""))</f>
+        <v xml:space="preserve">DAC-PAANALOG_IN_DC_COUPLED
+ForceANA__-6_00x03_0x04"EnabledigitaltestFSYN"0x04_0x112"Enabledigitaltestana_azcomp_out"0x17_0x01"force_dig_azcomp_en"0x17_0x00"force_dig_azcomp_az"0xFE_0x00"Returnpage0"Measure__Voltage__FSYN
+</v>
+      </c>
+      <c r="E5" s="56" t="s">
+        <v>328</v>
+      </c>
+      <c r="F5" s="56" t="s">
+        <v>329</v>
+      </c>
+      <c r="G5" s="56" t="s">
+        <v>330</v>
+      </c>
+      <c r="H5" s="56" t="s">
+        <v>331</v>
+      </c>
+      <c r="I5" s="56" t="s">
+        <v>332</v>
+      </c>
+      <c r="J5" s="56" t="s">
+        <v>333</v>
+      </c>
+      <c r="K5" s="56" t="s">
+        <v>334</v>
+      </c>
+      <c r="L5" s="56" t="s">
+        <v>335</v>
+      </c>
+      <c r="M5" s="56" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="27.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="110" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="38"/>
+      <c r="D6" s="38"/>
+      <c r="E6" s="38"/>
+      <c r="F6" s="38"/>
+      <c r="G6" s="38"/>
+      <c r="H6" s="38"/>
+      <c r="I6" s="38"/>
+      <c r="J6" s="38"/>
+      <c r="K6" s="38"/>
+      <c r="L6" s="38"/>
+      <c r="M6" s="38"/>
+    </row>
+    <row r="7" spans="1:13" ht="27.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="110"/>
+      <c r="B7" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="8"/>
+      <c r="J7" s="8"/>
+      <c r="K7" s="8"/>
+      <c r="L7" s="8"/>
+      <c r="M7" s="8"/>
+    </row>
+    <row r="8" spans="1:13" ht="27.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="110"/>
+      <c r="B8" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>164</v>
+      </c>
+      <c r="D8" s="11"/>
+      <c r="E8" s="11" t="s">
+        <v>337</v>
+      </c>
+      <c r="F8" s="11" t="s">
+        <v>338</v>
+      </c>
+      <c r="G8" s="11" t="s">
+        <v>338</v>
+      </c>
+      <c r="H8" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="I8" s="11" t="s">
+        <v>339</v>
+      </c>
+      <c r="J8" s="11" t="s">
+        <v>339</v>
+      </c>
+      <c r="K8" s="11" t="s">
+        <v>339</v>
+      </c>
+      <c r="L8" s="11" t="s">
+        <v>339</v>
+      </c>
+      <c r="M8" s="11" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" ht="27.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="110"/>
+      <c r="B9" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" s="116"/>
+      <c r="D9" s="116"/>
+      <c r="E9" s="39"/>
+      <c r="F9" s="39"/>
+      <c r="G9" s="39"/>
+      <c r="H9" s="39"/>
+      <c r="I9" s="39"/>
+      <c r="J9" s="39"/>
+      <c r="K9" s="39"/>
+      <c r="L9" s="39"/>
+      <c r="M9" s="39"/>
+    </row>
+    <row r="10" spans="1:13" ht="27.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="110"/>
+      <c r="B10" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="8"/>
+      <c r="I10" s="8"/>
+      <c r="J10" s="8"/>
+      <c r="K10" s="8"/>
+      <c r="L10" s="8"/>
+      <c r="M10" s="8"/>
+    </row>
+    <row r="11" spans="1:13" ht="27.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="4"/>
+      <c r="B11" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="H11" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="I11" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="J11" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="K11" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="L11" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="M11" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A12" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C12" s="7"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="7"/>
+      <c r="I12" s="7"/>
+      <c r="J12" s="7"/>
+      <c r="K12" s="7"/>
+      <c r="L12" s="7"/>
+      <c r="M12" s="7"/>
+    </row>
+    <row r="13" spans="1:13" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="B13" s="45" t="s">
+        <v>30</v>
+      </c>
+      <c r="C13" s="49" t="s">
+        <v>31</v>
+      </c>
+      <c r="D13" s="49"/>
+      <c r="E13" s="49" t="s">
+        <v>31</v>
+      </c>
+      <c r="F13" s="49" t="s">
+        <v>31</v>
+      </c>
+      <c r="G13" s="49" t="s">
+        <v>31</v>
+      </c>
+      <c r="H13" s="49" t="s">
+        <v>31</v>
+      </c>
+      <c r="I13" s="49" t="s">
+        <v>31</v>
+      </c>
+      <c r="J13" s="49" t="s">
+        <v>31</v>
+      </c>
+      <c r="K13" s="49" t="s">
+        <v>31</v>
+      </c>
+      <c r="L13" s="49" t="s">
+        <v>31</v>
+      </c>
+      <c r="M13" s="49" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+      <c r="A14" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="B14" s="45" t="s">
+        <v>33</v>
+      </c>
+      <c r="C14" s="50" t="s">
+        <v>31</v>
+      </c>
+      <c r="D14" s="50"/>
+      <c r="E14" s="50" t="s">
+        <v>31</v>
+      </c>
+      <c r="F14" s="50" t="s">
+        <v>31</v>
+      </c>
+      <c r="G14" s="50" t="s">
+        <v>31</v>
+      </c>
+      <c r="H14" s="50" t="s">
+        <v>31</v>
+      </c>
+      <c r="I14" s="50" t="s">
+        <v>31</v>
+      </c>
+      <c r="J14" s="50" t="s">
+        <v>31</v>
+      </c>
+      <c r="K14" s="50" t="s">
+        <v>31</v>
+      </c>
+      <c r="L14" s="50" t="s">
+        <v>31</v>
+      </c>
+      <c r="M14" s="50" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="B15" s="45" t="s">
+        <v>35</v>
+      </c>
+      <c r="C15" s="50" t="s">
+        <v>36</v>
+      </c>
+      <c r="D15" s="50"/>
+      <c r="E15" s="50" t="s">
+        <v>36</v>
+      </c>
+      <c r="F15" s="50" t="s">
+        <v>36</v>
+      </c>
+      <c r="G15" s="50" t="s">
+        <v>36</v>
+      </c>
+      <c r="H15" s="50" t="s">
+        <v>36</v>
+      </c>
+      <c r="I15" s="50" t="s">
+        <v>36</v>
+      </c>
+      <c r="J15" s="50" t="s">
+        <v>36</v>
+      </c>
+      <c r="K15" s="50" t="s">
+        <v>36</v>
+      </c>
+      <c r="L15" s="50" t="s">
+        <v>36</v>
+      </c>
+      <c r="M15" s="50" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="B16" s="45" t="s">
+        <v>38</v>
+      </c>
+      <c r="C16" s="50" t="s">
+        <v>36</v>
+      </c>
+      <c r="D16" s="50"/>
+      <c r="E16" s="50" t="s">
+        <v>36</v>
+      </c>
+      <c r="F16" s="50" t="s">
+        <v>36</v>
+      </c>
+      <c r="G16" s="50" t="s">
+        <v>36</v>
+      </c>
+      <c r="H16" s="50" t="s">
+        <v>36</v>
+      </c>
+      <c r="I16" s="50" t="s">
+        <v>36</v>
+      </c>
+      <c r="J16" s="50" t="s">
+        <v>36</v>
+      </c>
+      <c r="K16" s="50" t="s">
+        <v>36</v>
+      </c>
+      <c r="L16" s="50" t="s">
+        <v>36</v>
+      </c>
+      <c r="M16" s="50" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="B17" s="46" t="s">
+        <v>40</v>
+      </c>
+      <c r="C17" s="117" t="s">
+        <v>341</v>
+      </c>
+      <c r="D17" s="117"/>
+      <c r="E17" s="50" t="s">
+        <v>93</v>
+      </c>
+      <c r="F17" s="118" t="s">
+        <v>93</v>
+      </c>
+      <c r="G17" s="50" t="s">
+        <v>93</v>
+      </c>
+      <c r="H17" s="50" t="s">
+        <v>92</v>
+      </c>
+      <c r="I17" s="50" t="s">
+        <v>92</v>
+      </c>
+      <c r="J17" s="50" t="s">
+        <v>92</v>
+      </c>
+      <c r="K17" s="50" t="s">
+        <v>92</v>
+      </c>
+      <c r="L17" s="50" t="s">
+        <v>92</v>
+      </c>
+      <c r="M17" s="50" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="B18" s="45" t="s">
+        <v>42</v>
+      </c>
+      <c r="C18" s="50"/>
+      <c r="D18" s="50"/>
+      <c r="E18" s="50"/>
+      <c r="F18" s="50"/>
+      <c r="G18" s="50"/>
+      <c r="H18" s="50"/>
+      <c r="I18" s="50"/>
+      <c r="J18" s="50"/>
+      <c r="K18" s="50"/>
+      <c r="L18" s="50"/>
+      <c r="M18" s="50"/>
+    </row>
+    <row r="19" spans="1:13" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="B19" s="45" t="s">
+        <v>44</v>
+      </c>
+      <c r="C19" s="50"/>
+      <c r="D19" s="50"/>
+      <c r="E19" s="50"/>
+      <c r="F19" s="50"/>
+      <c r="G19" s="50"/>
+      <c r="H19" s="50"/>
+      <c r="I19" s="50"/>
+      <c r="J19" s="50"/>
+      <c r="K19" s="50"/>
+      <c r="L19" s="50"/>
+      <c r="M19" s="50"/>
+    </row>
+    <row r="20" spans="1:13" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="B20" s="45" t="s">
+        <v>46</v>
+      </c>
+      <c r="C20" s="50" t="s">
+        <v>92</v>
+      </c>
+      <c r="D20" s="50"/>
+      <c r="E20" s="50"/>
+      <c r="F20" s="50"/>
+      <c r="G20" s="50"/>
+      <c r="H20" s="50"/>
+      <c r="I20" s="50"/>
+      <c r="J20" s="50"/>
+      <c r="K20" s="50"/>
+      <c r="L20" s="50"/>
+      <c r="M20" s="50"/>
+    </row>
+    <row r="21" spans="1:13" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="B21" s="45" t="s">
+        <v>48</v>
+      </c>
+      <c r="C21" s="50"/>
+      <c r="D21" s="50"/>
+      <c r="E21" s="50"/>
+      <c r="F21" s="50"/>
+      <c r="G21" s="50"/>
+      <c r="H21" s="50"/>
+      <c r="I21" s="50"/>
+      <c r="J21" s="50"/>
+      <c r="K21" s="50"/>
+      <c r="L21" s="50"/>
+      <c r="M21" s="50"/>
+    </row>
+    <row r="22" spans="1:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="B22" s="45" t="s">
+        <v>50</v>
+      </c>
+      <c r="C22" s="50"/>
+      <c r="D22" s="50"/>
+      <c r="E22" s="50"/>
+      <c r="F22" s="50"/>
+      <c r="G22" s="50"/>
+      <c r="H22" s="50"/>
+      <c r="I22" s="50"/>
+      <c r="J22" s="50"/>
+      <c r="K22" s="50"/>
+      <c r="L22" s="50"/>
+      <c r="M22" s="50"/>
+    </row>
+    <row r="23" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="B23" s="45" t="s">
+        <v>52</v>
+      </c>
+      <c r="C23" s="49"/>
+      <c r="D23" s="49"/>
+      <c r="E23" s="49"/>
+      <c r="F23" s="49"/>
+      <c r="G23" s="49"/>
+      <c r="H23" s="49"/>
+      <c r="I23" s="49"/>
+      <c r="J23" s="49"/>
+      <c r="K23" s="49"/>
+      <c r="L23" s="49"/>
+      <c r="M23" s="49"/>
+    </row>
+    <row r="24" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="B24" s="45" t="s">
+        <v>54</v>
+      </c>
+      <c r="C24" s="50"/>
+      <c r="D24" s="50"/>
+      <c r="E24" s="50"/>
+      <c r="F24" s="50"/>
+      <c r="G24" s="50"/>
+      <c r="H24" s="50"/>
+      <c r="I24" s="50"/>
+      <c r="J24" s="50"/>
+      <c r="K24" s="50"/>
+      <c r="L24" s="50"/>
+      <c r="M24" s="50"/>
+    </row>
+    <row r="25" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="B25" s="45" t="s">
+        <v>56</v>
+      </c>
+      <c r="C25" s="50"/>
+      <c r="D25" s="50"/>
+      <c r="E25" s="50"/>
+      <c r="F25" s="50"/>
+      <c r="G25" s="50"/>
+      <c r="H25" s="50"/>
+      <c r="I25" s="50"/>
+      <c r="J25" s="50"/>
+      <c r="K25" s="50"/>
+      <c r="L25" s="50"/>
+      <c r="M25" s="50"/>
+    </row>
+    <row r="26" spans="1:13" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="B26" s="45" t="s">
+        <v>58</v>
+      </c>
+      <c r="C26" s="50"/>
+      <c r="D26" s="50"/>
+      <c r="E26" s="50"/>
+      <c r="F26" s="50"/>
+      <c r="G26" s="50"/>
+      <c r="H26" s="50"/>
+      <c r="I26" s="50"/>
+      <c r="J26" s="50"/>
+      <c r="K26" s="50"/>
+      <c r="L26" s="50"/>
+      <c r="M26" s="50"/>
+    </row>
+    <row r="27" spans="1:13" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="B27" s="45" t="s">
+        <v>60</v>
+      </c>
+      <c r="C27" s="50"/>
+      <c r="D27" s="50"/>
+      <c r="E27" s="50"/>
+      <c r="F27" s="50"/>
+      <c r="G27" s="50"/>
+      <c r="H27" s="50"/>
+      <c r="I27" s="50"/>
+      <c r="J27" s="50"/>
+      <c r="K27" s="50"/>
+      <c r="L27" s="50"/>
+      <c r="M27" s="50"/>
+    </row>
+    <row r="28" spans="1:13" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="B28" s="54" t="s">
+        <v>62</v>
+      </c>
+      <c r="C28" s="50" t="s">
+        <v>63</v>
+      </c>
+      <c r="D28" s="50"/>
+      <c r="E28" s="50" t="s">
+        <v>63</v>
+      </c>
+      <c r="F28" s="50" t="s">
+        <v>63</v>
+      </c>
+      <c r="G28" s="50" t="s">
+        <v>63</v>
+      </c>
+      <c r="H28" s="50" t="s">
+        <v>63</v>
+      </c>
+      <c r="I28" s="50" t="s">
+        <v>63</v>
+      </c>
+      <c r="J28" s="50" t="s">
+        <v>63</v>
+      </c>
+      <c r="K28" s="50" t="s">
+        <v>63</v>
+      </c>
+      <c r="L28" s="50" t="s">
+        <v>63</v>
+      </c>
+      <c r="M28" s="50" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="43"/>
+      <c r="B29" s="40"/>
+      <c r="C29" s="119"/>
+      <c r="D29" s="119"/>
+      <c r="E29" s="50"/>
+      <c r="F29" s="50"/>
+      <c r="G29" s="50"/>
+      <c r="H29" s="50"/>
+      <c r="I29" s="50"/>
+      <c r="J29" s="50"/>
+      <c r="K29" s="50"/>
+      <c r="L29" s="50"/>
+      <c r="M29" s="49"/>
+    </row>
+    <row r="30" spans="1:13" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="52"/>
+      <c r="B30" s="40"/>
+      <c r="C30" s="120"/>
+      <c r="D30" s="120"/>
+      <c r="E30" s="50"/>
+      <c r="F30" s="50"/>
+      <c r="G30" s="50"/>
+      <c r="H30" s="50"/>
+      <c r="I30" s="50"/>
+      <c r="J30" s="50"/>
+      <c r="K30" s="50"/>
+      <c r="L30" s="50"/>
+      <c r="M30" s="50"/>
+    </row>
+    <row r="31" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="53"/>
+      <c r="B31" s="42"/>
+      <c r="C31" s="121"/>
+      <c r="D31" s="122"/>
+      <c r="E31" s="51"/>
+      <c r="F31" s="51"/>
+      <c r="G31" s="51"/>
+      <c r="H31" s="51"/>
+      <c r="I31" s="51"/>
+      <c r="J31" s="51"/>
+      <c r="K31" s="50"/>
+      <c r="L31" s="50"/>
+      <c r="M31" s="50"/>
+    </row>
+    <row r="32" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="47"/>
+      <c r="B32" s="55"/>
+      <c r="C32" s="123"/>
+      <c r="D32" s="122"/>
+      <c r="E32" s="51"/>
+      <c r="F32" s="51"/>
+      <c r="G32" s="51"/>
+      <c r="H32" s="51"/>
+      <c r="I32" s="51"/>
+      <c r="J32" s="51"/>
+      <c r="K32" s="50"/>
+      <c r="L32" s="50"/>
+      <c r="M32" s="50"/>
+    </row>
+    <row r="33" spans="1:13" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="47"/>
+      <c r="B33" s="40"/>
+      <c r="C33" s="123"/>
+      <c r="D33" s="122"/>
+      <c r="E33" s="51"/>
+      <c r="F33" s="51"/>
+      <c r="G33" s="51"/>
+      <c r="H33" s="51"/>
+      <c r="I33" s="51"/>
+      <c r="J33" s="51"/>
+      <c r="K33" s="50"/>
+      <c r="L33" s="50"/>
+      <c r="M33" s="50"/>
+    </row>
+    <row r="34" spans="1:13" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="47"/>
+      <c r="B34" s="40"/>
+      <c r="C34" s="123"/>
+      <c r="D34" s="122"/>
+      <c r="E34" s="51"/>
+      <c r="F34" s="51"/>
+      <c r="G34" s="51"/>
+      <c r="H34" s="51"/>
+      <c r="I34" s="51"/>
+      <c r="J34" s="51"/>
+      <c r="K34" s="50"/>
+      <c r="L34" s="50"/>
+      <c r="M34" s="50"/>
+    </row>
+    <row r="35" spans="1:13" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="47"/>
+      <c r="B35" s="40"/>
+      <c r="C35" s="123"/>
+      <c r="D35" s="122"/>
+      <c r="E35" s="51"/>
+      <c r="F35" s="51"/>
+      <c r="G35" s="51"/>
+      <c r="H35" s="51"/>
+      <c r="I35" s="51"/>
+      <c r="J35" s="51"/>
+      <c r="K35" s="50"/>
+      <c r="L35" s="50"/>
+      <c r="M35" s="50"/>
+    </row>
+    <row r="36" spans="1:13" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="47"/>
+      <c r="B36" s="40"/>
+      <c r="C36" s="123"/>
+      <c r="D36" s="122"/>
+      <c r="E36" s="51"/>
+      <c r="F36" s="51"/>
+      <c r="G36" s="51"/>
+      <c r="H36" s="51"/>
+      <c r="I36" s="51"/>
+      <c r="J36" s="51"/>
+      <c r="K36" s="49"/>
+      <c r="L36" s="49"/>
+      <c r="M36" s="50"/>
+    </row>
+    <row r="37" spans="1:13" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="47"/>
+      <c r="B37" s="40"/>
+      <c r="C37" s="123"/>
+      <c r="D37" s="122"/>
+      <c r="E37" s="51"/>
+      <c r="F37" s="51"/>
+      <c r="G37" s="51"/>
+      <c r="H37" s="51"/>
+      <c r="I37" s="51"/>
+      <c r="J37" s="51"/>
+      <c r="K37" s="50"/>
+      <c r="L37" s="50"/>
+      <c r="M37" s="50"/>
+    </row>
+    <row r="38" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="47"/>
+      <c r="B38" s="42"/>
+      <c r="C38" s="123"/>
+      <c r="D38" s="122"/>
+      <c r="E38" s="51"/>
+      <c r="F38" s="51"/>
+      <c r="G38" s="51"/>
+      <c r="H38" s="51"/>
+      <c r="I38" s="51"/>
+      <c r="J38" s="51"/>
+      <c r="K38" s="50"/>
+      <c r="L38" s="50"/>
+      <c r="M38" s="50"/>
+    </row>
+    <row r="39" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="47"/>
+      <c r="B39" s="42"/>
+      <c r="C39" s="123"/>
+      <c r="D39" s="122"/>
+      <c r="E39" s="51"/>
+      <c r="F39" s="51"/>
+      <c r="G39" s="51"/>
+      <c r="H39" s="51"/>
+      <c r="I39" s="51"/>
+      <c r="J39" s="51"/>
+      <c r="K39" s="49"/>
+      <c r="L39" s="49"/>
+      <c r="M39" s="49"/>
+    </row>
+    <row r="40" spans="1:13" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="47"/>
+      <c r="B40" s="40"/>
+      <c r="C40" s="123"/>
+      <c r="D40" s="122"/>
+      <c r="E40" s="51"/>
+      <c r="F40" s="51"/>
+      <c r="G40" s="51"/>
+      <c r="H40" s="51"/>
+      <c r="I40" s="51"/>
+      <c r="J40" s="51"/>
+      <c r="K40" s="50"/>
+      <c r="L40" s="50"/>
+      <c r="M40" s="50"/>
+    </row>
+    <row r="41" spans="1:13" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="47"/>
+      <c r="B41" s="40"/>
+      <c r="C41" s="123"/>
+      <c r="D41" s="122"/>
+      <c r="E41" s="51"/>
+      <c r="F41" s="51"/>
+      <c r="G41" s="51"/>
+      <c r="H41" s="51"/>
+      <c r="I41" s="51"/>
+      <c r="J41" s="51"/>
+      <c r="K41" s="50"/>
+      <c r="L41" s="50"/>
+      <c r="M41" s="50"/>
+    </row>
+    <row r="42" spans="1:13" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="47"/>
+      <c r="B42" s="40"/>
+      <c r="C42" s="123"/>
+      <c r="D42" s="122"/>
+      <c r="E42" s="51"/>
+      <c r="F42" s="51"/>
+      <c r="G42" s="51"/>
+      <c r="H42" s="51"/>
+      <c r="I42" s="51"/>
+      <c r="J42" s="51"/>
+      <c r="K42" s="50"/>
+      <c r="L42" s="50"/>
+      <c r="M42" s="49"/>
+    </row>
+    <row r="43" spans="1:13" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="47"/>
+      <c r="B43" s="40"/>
+      <c r="C43" s="123"/>
+      <c r="D43" s="122"/>
+      <c r="E43" s="51"/>
+      <c r="F43" s="51"/>
+      <c r="G43" s="51"/>
+      <c r="H43" s="51"/>
+      <c r="I43" s="51"/>
+      <c r="J43" s="51"/>
+      <c r="K43" s="50"/>
+      <c r="L43" s="50"/>
+      <c r="M43" s="50"/>
+    </row>
+    <row r="44" spans="1:13" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="47"/>
+      <c r="B44" s="40"/>
+      <c r="C44" s="123"/>
+      <c r="D44" s="122"/>
+      <c r="E44" s="51"/>
+      <c r="F44" s="51"/>
+      <c r="G44" s="51"/>
+      <c r="H44" s="51"/>
+      <c r="I44" s="51"/>
+      <c r="J44" s="51"/>
+      <c r="K44" s="50"/>
+      <c r="L44" s="50"/>
+      <c r="M44" s="50"/>
+    </row>
+    <row r="45" spans="1:13" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="47"/>
+      <c r="B45" s="41"/>
+      <c r="C45" s="123"/>
+      <c r="D45" s="122"/>
+      <c r="E45" s="51"/>
+      <c r="F45" s="51"/>
+      <c r="G45" s="51"/>
+      <c r="H45" s="51"/>
+      <c r="I45" s="51"/>
+      <c r="J45" s="51"/>
+      <c r="K45" s="50"/>
+      <c r="L45" s="50"/>
+      <c r="M45" s="50"/>
+    </row>
+    <row r="46" spans="1:13" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A46" s="47"/>
+      <c r="B46" s="41"/>
+      <c r="C46" s="123"/>
+      <c r="D46" s="122"/>
+      <c r="E46" s="51"/>
+      <c r="F46" s="51"/>
+      <c r="G46" s="51"/>
+      <c r="H46" s="51"/>
+      <c r="I46" s="51"/>
+      <c r="J46" s="51"/>
+      <c r="K46" s="50"/>
+      <c r="L46" s="50"/>
+      <c r="M46" s="50"/>
+    </row>
+    <row r="47" spans="1:13" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A47" s="47"/>
+      <c r="B47" s="41"/>
+      <c r="C47" s="123"/>
+      <c r="D47" s="122"/>
+      <c r="E47" s="51"/>
+      <c r="F47" s="51"/>
+      <c r="G47" s="51"/>
+      <c r="H47" s="51"/>
+      <c r="I47" s="51"/>
+      <c r="J47" s="51"/>
+      <c r="K47" s="50"/>
+      <c r="L47" s="50"/>
+      <c r="M47" s="50"/>
+    </row>
+    <row r="48" spans="1:13" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A48" s="47"/>
+      <c r="B48" s="41"/>
+      <c r="C48" s="123"/>
+      <c r="D48" s="122"/>
+      <c r="E48" s="51"/>
+      <c r="F48" s="51"/>
+      <c r="G48" s="51"/>
+      <c r="H48" s="51"/>
+      <c r="I48" s="51"/>
+      <c r="J48" s="51"/>
+      <c r="K48" s="50"/>
+      <c r="L48" s="50"/>
+      <c r="M48" s="50"/>
+    </row>
+    <row r="49" spans="1:13" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A49" s="47"/>
+      <c r="B49" s="41"/>
+      <c r="C49" s="123"/>
+      <c r="D49" s="122"/>
+      <c r="E49" s="51"/>
+      <c r="F49" s="51"/>
+      <c r="G49" s="51"/>
+      <c r="H49" s="51"/>
+      <c r="I49" s="51"/>
+      <c r="J49" s="51"/>
+      <c r="K49" s="49"/>
+      <c r="L49" s="49"/>
+      <c r="M49" s="50"/>
+    </row>
+    <row r="50" spans="1:13" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A50" s="47"/>
+      <c r="B50" s="41"/>
+      <c r="C50" s="123"/>
+      <c r="D50" s="122"/>
+      <c r="E50" s="51"/>
+      <c r="F50" s="51"/>
+      <c r="G50" s="51"/>
+      <c r="H50" s="51"/>
+      <c r="I50" s="51"/>
+      <c r="J50" s="51"/>
+      <c r="K50" s="50"/>
+      <c r="L50" s="50"/>
+      <c r="M50" s="50"/>
+    </row>
+    <row r="51" spans="1:13" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A51" s="48"/>
+      <c r="B51" s="44"/>
+      <c r="C51" s="124"/>
+      <c r="D51" s="124"/>
+      <c r="E51" s="50"/>
+      <c r="F51" s="50"/>
+      <c r="G51" s="50"/>
+      <c r="H51" s="50"/>
+      <c r="I51" s="50"/>
+      <c r="J51" s="50"/>
+      <c r="K51" s="50"/>
+      <c r="L51" s="50"/>
+      <c r="M51" s="50"/>
+    </row>
+    <row r="52" spans="1:13" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A52" s="20"/>
+      <c r="B52" s="21"/>
+      <c r="C52" s="22"/>
+      <c r="D52" s="22"/>
+      <c r="E52" s="50"/>
+      <c r="F52" s="50"/>
+      <c r="G52" s="50"/>
+      <c r="H52" s="50"/>
+      <c r="I52" s="50"/>
+      <c r="J52" s="50"/>
+      <c r="K52" s="49"/>
+      <c r="L52" s="49"/>
+      <c r="M52" s="49"/>
+    </row>
+    <row r="53" spans="1:13" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A53" s="20"/>
+      <c r="B53" s="21"/>
+      <c r="C53" s="22"/>
+      <c r="D53" s="22"/>
+      <c r="E53" s="50"/>
+      <c r="F53" s="50"/>
+      <c r="G53" s="50"/>
+      <c r="H53" s="50"/>
+      <c r="I53" s="50"/>
+      <c r="J53" s="50"/>
+      <c r="K53" s="50"/>
+      <c r="L53" s="50"/>
+      <c r="M53" s="50"/>
+    </row>
+    <row r="54" spans="1:13" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A54" s="20"/>
+      <c r="B54" s="21"/>
+      <c r="C54" s="22"/>
+      <c r="D54" s="22"/>
+      <c r="E54" s="50"/>
+      <c r="F54" s="50"/>
+      <c r="G54" s="50"/>
+      <c r="H54" s="50"/>
+      <c r="I54" s="50"/>
+      <c r="J54" s="50"/>
+      <c r="K54" s="50"/>
+      <c r="L54" s="50"/>
+      <c r="M54" s="50"/>
+    </row>
+    <row r="55" spans="1:13" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A55" s="20"/>
+      <c r="B55" s="21"/>
+      <c r="C55" s="22"/>
+      <c r="D55" s="22"/>
+      <c r="E55" s="50"/>
+      <c r="F55" s="50"/>
+      <c r="G55" s="50"/>
+      <c r="H55" s="50"/>
+      <c r="I55" s="50"/>
+      <c r="J55" s="50"/>
+      <c r="K55" s="50"/>
+      <c r="L55" s="50"/>
+      <c r="M55" s="49"/>
+    </row>
+    <row r="56" spans="1:13" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A56" s="20"/>
+      <c r="B56" s="21"/>
+      <c r="C56" s="22"/>
+      <c r="D56" s="22"/>
+      <c r="E56" s="50"/>
+      <c r="F56" s="50"/>
+      <c r="G56" s="50"/>
+      <c r="H56" s="50"/>
+      <c r="I56" s="50"/>
+      <c r="J56" s="50"/>
+      <c r="K56" s="50"/>
+      <c r="L56" s="50"/>
+      <c r="M56" s="50"/>
+    </row>
+    <row r="57" spans="1:13" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A57" s="20"/>
+      <c r="B57" s="21"/>
+      <c r="C57" s="22"/>
+      <c r="D57" s="22"/>
+      <c r="E57" s="50"/>
+      <c r="F57" s="50"/>
+      <c r="G57" s="50"/>
+      <c r="H57" s="50"/>
+      <c r="I57" s="50"/>
+      <c r="J57" s="50"/>
+      <c r="K57" s="50"/>
+      <c r="L57" s="50"/>
+      <c r="M57" s="50"/>
+    </row>
+    <row r="58" spans="1:13" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A58" s="20"/>
+      <c r="B58" s="21"/>
+      <c r="C58" s="22"/>
+      <c r="D58" s="22"/>
+      <c r="E58" s="50"/>
+      <c r="F58" s="50"/>
+      <c r="G58" s="50"/>
+      <c r="H58" s="50"/>
+      <c r="I58" s="50"/>
+      <c r="J58" s="50"/>
+      <c r="K58" s="50"/>
+      <c r="L58" s="50"/>
+      <c r="M58" s="50"/>
+    </row>
+    <row r="59" spans="1:13" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A59" s="20"/>
+      <c r="B59" s="21"/>
+      <c r="C59" s="22"/>
+      <c r="D59" s="22"/>
+      <c r="E59" s="50"/>
+      <c r="F59" s="50"/>
+      <c r="G59" s="50"/>
+      <c r="H59" s="50"/>
+      <c r="I59" s="50"/>
+      <c r="J59" s="50"/>
+      <c r="K59" s="50"/>
+      <c r="L59" s="50"/>
+      <c r="M59" s="50"/>
+    </row>
+    <row r="60" spans="1:13" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A60" s="20"/>
+      <c r="B60" s="21"/>
+      <c r="C60" s="22"/>
+      <c r="D60" s="22"/>
+      <c r="E60" s="50"/>
+      <c r="F60" s="50"/>
+      <c r="G60" s="50"/>
+      <c r="H60" s="50"/>
+      <c r="I60" s="50"/>
+      <c r="J60" s="50"/>
+      <c r="K60" s="50"/>
+      <c r="L60" s="50"/>
+      <c r="M60" s="50"/>
+    </row>
+    <row r="61" spans="1:13" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A61" s="20"/>
+      <c r="B61" s="21"/>
+      <c r="C61" s="22"/>
+      <c r="D61" s="22"/>
+      <c r="E61" s="50"/>
+      <c r="F61" s="50"/>
+      <c r="G61" s="50"/>
+      <c r="H61" s="50"/>
+      <c r="I61" s="50"/>
+      <c r="J61" s="50"/>
+      <c r="K61" s="50"/>
+      <c r="L61" s="50"/>
+      <c r="M61" s="50"/>
+    </row>
+    <row r="62" spans="1:13" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A62" s="20"/>
+      <c r="B62" s="21"/>
+      <c r="C62" s="22"/>
+      <c r="D62" s="22"/>
+      <c r="E62" s="50"/>
+      <c r="F62" s="50"/>
+      <c r="G62" s="50"/>
+      <c r="H62" s="50"/>
+      <c r="I62" s="50"/>
+      <c r="J62" s="50"/>
+      <c r="K62" s="49"/>
+      <c r="L62" s="49"/>
+      <c r="M62" s="50"/>
+    </row>
+    <row r="63" spans="1:13" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A63" s="20"/>
+      <c r="B63" s="21"/>
+      <c r="C63" s="22"/>
+      <c r="D63" s="22"/>
+      <c r="E63" s="22"/>
+      <c r="F63" s="22"/>
+      <c r="G63" s="22"/>
+      <c r="H63" s="22"/>
+      <c r="I63" s="22"/>
+      <c r="J63" s="22"/>
+      <c r="K63" s="50"/>
+      <c r="L63" s="50"/>
+      <c r="M63" s="50"/>
+    </row>
+    <row r="64" spans="1:13" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A64" s="20"/>
+      <c r="B64" s="21"/>
+      <c r="C64" s="22"/>
+      <c r="D64" s="22"/>
+      <c r="E64" s="22"/>
+      <c r="F64" s="22"/>
+      <c r="G64" s="22"/>
+      <c r="H64" s="22"/>
+      <c r="I64" s="22"/>
+      <c r="J64" s="22"/>
+      <c r="K64" s="50"/>
+      <c r="L64" s="50"/>
+      <c r="M64" s="50"/>
+    </row>
+    <row r="65" spans="1:13" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A65" s="20"/>
+      <c r="B65" s="21"/>
+      <c r="C65" s="22"/>
+      <c r="D65" s="22"/>
+      <c r="E65" s="22"/>
+      <c r="F65" s="22"/>
+      <c r="G65" s="22"/>
+      <c r="H65" s="22"/>
+      <c r="I65" s="22"/>
+      <c r="J65" s="22"/>
+      <c r="K65" s="49"/>
+      <c r="M65" s="49"/>
+    </row>
+    <row r="66" spans="1:13" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A66" s="20"/>
+      <c r="B66" s="21"/>
+      <c r="C66" s="22"/>
+      <c r="D66" s="22"/>
+      <c r="E66" s="22"/>
+      <c r="F66" s="22"/>
+      <c r="G66" s="22"/>
+      <c r="H66" s="22"/>
+      <c r="I66" s="22"/>
+      <c r="J66" s="22"/>
+      <c r="K66" s="50"/>
+      <c r="L66" s="49"/>
+      <c r="M66" s="50"/>
+    </row>
+    <row r="67" spans="1:13" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A67" s="20"/>
+      <c r="B67" s="21"/>
+      <c r="C67" s="22"/>
+      <c r="D67" s="22"/>
+      <c r="E67" s="22"/>
+      <c r="F67" s="22"/>
+      <c r="G67" s="22"/>
+      <c r="H67" s="22"/>
+      <c r="I67" s="22"/>
+      <c r="J67" s="22"/>
+      <c r="K67" s="50"/>
+      <c r="L67" s="50"/>
+      <c r="M67" s="50"/>
+    </row>
+    <row r="68" spans="1:13" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A68" s="20"/>
+      <c r="B68" s="21"/>
+      <c r="C68" s="22"/>
+      <c r="D68" s="22"/>
+      <c r="E68" s="22"/>
+      <c r="F68" s="22"/>
+      <c r="G68" s="22"/>
+      <c r="H68" s="22"/>
+      <c r="I68" s="22"/>
+      <c r="J68" s="22"/>
+      <c r="K68" s="50"/>
+      <c r="L68" s="50"/>
+      <c r="M68" s="49"/>
+    </row>
+    <row r="69" spans="1:13" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A69" s="20"/>
+      <c r="B69" s="21"/>
+      <c r="C69" s="22"/>
+      <c r="D69" s="22"/>
+      <c r="E69" s="22"/>
+      <c r="F69" s="22"/>
+      <c r="G69" s="22"/>
+      <c r="H69" s="22"/>
+      <c r="I69" s="22"/>
+      <c r="J69" s="22"/>
+      <c r="K69" s="50"/>
+      <c r="L69" s="50"/>
+      <c r="M69" s="50"/>
+    </row>
+    <row r="70" spans="1:13" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A70" s="20"/>
+      <c r="B70" s="21"/>
+      <c r="C70" s="22"/>
+      <c r="D70" s="22"/>
+      <c r="E70" s="22"/>
+      <c r="F70" s="22"/>
+      <c r="G70" s="22"/>
+      <c r="H70" s="22"/>
+      <c r="I70" s="22"/>
+      <c r="J70" s="22"/>
+      <c r="K70" s="50"/>
+      <c r="L70" s="50"/>
+      <c r="M70" s="50"/>
+    </row>
+    <row r="71" spans="1:13" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A71" s="20"/>
+      <c r="B71" s="21"/>
+      <c r="C71" s="22"/>
+      <c r="D71" s="22"/>
+      <c r="E71" s="22"/>
+      <c r="F71" s="22"/>
+      <c r="G71" s="22"/>
+      <c r="H71" s="22"/>
+      <c r="I71" s="22"/>
+      <c r="J71" s="22"/>
+      <c r="K71" s="50"/>
+      <c r="L71" s="50"/>
+      <c r="M71" s="50"/>
+    </row>
+    <row r="72" spans="1:13" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A72" s="20"/>
+      <c r="B72" s="21"/>
+      <c r="C72" s="22"/>
+      <c r="D72" s="22"/>
+      <c r="E72" s="22"/>
+      <c r="F72" s="22"/>
+      <c r="G72" s="22"/>
+      <c r="H72" s="22"/>
+      <c r="I72" s="22"/>
+      <c r="J72" s="22"/>
+      <c r="K72" s="50"/>
+      <c r="L72" s="50"/>
+      <c r="M72" s="50"/>
+    </row>
+    <row r="73" spans="1:13" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A73" s="20"/>
+      <c r="B73" s="21"/>
+      <c r="C73" s="22"/>
+      <c r="D73" s="22"/>
+      <c r="E73" s="22"/>
+      <c r="F73" s="22"/>
+      <c r="G73" s="22"/>
+      <c r="H73" s="22"/>
+      <c r="I73" s="22"/>
+      <c r="J73" s="22"/>
+      <c r="K73" s="50"/>
+      <c r="L73" s="50"/>
+      <c r="M73" s="50"/>
+    </row>
+    <row r="74" spans="1:13" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A74" s="20"/>
+      <c r="B74" s="21"/>
+      <c r="C74" s="22"/>
+      <c r="D74" s="22"/>
+      <c r="E74" s="22"/>
+      <c r="F74" s="22"/>
+      <c r="G74" s="22"/>
+      <c r="H74" s="22"/>
+      <c r="I74" s="22"/>
+      <c r="J74" s="22"/>
+      <c r="K74" s="50"/>
+      <c r="L74" s="50"/>
+      <c r="M74" s="50"/>
+    </row>
+    <row r="75" spans="1:13" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A75" s="20"/>
+      <c r="B75" s="21"/>
+      <c r="C75" s="22"/>
+      <c r="D75" s="22"/>
+      <c r="E75" s="22"/>
+      <c r="F75" s="22"/>
+      <c r="G75" s="22"/>
+      <c r="H75" s="22"/>
+      <c r="I75" s="22"/>
+      <c r="J75" s="22"/>
+      <c r="K75" s="49"/>
+      <c r="L75" s="50"/>
+      <c r="M75" s="50"/>
+    </row>
+    <row r="76" spans="1:13" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A76" s="20"/>
+      <c r="B76" s="21"/>
+      <c r="C76" s="22"/>
+      <c r="D76" s="22"/>
+      <c r="E76" s="22"/>
+      <c r="F76" s="22"/>
+      <c r="G76" s="22"/>
+      <c r="H76" s="22"/>
+      <c r="I76" s="22"/>
+      <c r="J76" s="22"/>
+      <c r="K76" s="50"/>
+      <c r="L76" s="49"/>
+      <c r="M76" s="50"/>
+    </row>
+    <row r="77" spans="1:13" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A77" s="20"/>
+      <c r="B77" s="21"/>
+      <c r="C77" s="22"/>
+      <c r="D77" s="22"/>
+      <c r="E77" s="22"/>
+      <c r="F77" s="22"/>
+      <c r="G77" s="22"/>
+      <c r="H77" s="22"/>
+      <c r="I77" s="22"/>
+      <c r="J77" s="22"/>
+      <c r="K77" s="50"/>
+      <c r="L77" s="50"/>
+      <c r="M77" s="50"/>
+    </row>
+    <row r="78" spans="1:13" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A78" s="20"/>
+      <c r="B78" s="21"/>
+      <c r="C78" s="22"/>
+      <c r="D78" s="22"/>
+      <c r="E78" s="22"/>
+      <c r="F78" s="22"/>
+      <c r="G78" s="22"/>
+      <c r="H78" s="22"/>
+      <c r="I78" s="22"/>
+      <c r="J78" s="22"/>
+      <c r="K78" s="49"/>
+      <c r="L78" s="50"/>
+      <c r="M78" s="49"/>
+    </row>
+    <row r="79" spans="1:13" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A79" s="20"/>
+      <c r="B79" s="21"/>
+      <c r="C79" s="22"/>
+      <c r="D79" s="22"/>
+      <c r="E79" s="22"/>
+      <c r="F79" s="22"/>
+      <c r="G79" s="22"/>
+      <c r="H79" s="22"/>
+      <c r="I79" s="22"/>
+      <c r="J79" s="22"/>
+      <c r="K79" s="50"/>
+      <c r="L79" s="49"/>
+      <c r="M79" s="50"/>
+    </row>
+    <row r="80" spans="1:13" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A80" s="20"/>
+      <c r="B80" s="21"/>
+      <c r="C80" s="22"/>
+      <c r="D80" s="22"/>
+      <c r="E80" s="22"/>
+      <c r="F80" s="22"/>
+      <c r="G80" s="22"/>
+      <c r="H80" s="22"/>
+      <c r="I80" s="22"/>
+      <c r="J80" s="22"/>
+      <c r="K80" s="50"/>
+      <c r="L80" s="50"/>
+      <c r="M80" s="50"/>
+    </row>
+    <row r="81" spans="1:13" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A81" s="20"/>
+      <c r="B81" s="21"/>
+      <c r="C81" s="22"/>
+      <c r="D81" s="22"/>
+      <c r="E81" s="22"/>
+      <c r="F81" s="22"/>
+      <c r="G81" s="22"/>
+      <c r="H81" s="22"/>
+      <c r="I81" s="22"/>
+      <c r="J81" s="22"/>
+      <c r="K81" s="50"/>
+      <c r="L81" s="50"/>
+      <c r="M81" s="49"/>
+    </row>
+    <row r="82" spans="1:13" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A82" s="20"/>
+      <c r="B82" s="21"/>
+      <c r="C82" s="22"/>
+      <c r="D82" s="22"/>
+      <c r="E82" s="22"/>
+      <c r="F82" s="22"/>
+      <c r="G82" s="22"/>
+      <c r="H82" s="22"/>
+      <c r="I82" s="22"/>
+      <c r="J82" s="22"/>
+      <c r="K82" s="50"/>
+      <c r="L82" s="50"/>
+      <c r="M82" s="50"/>
+    </row>
+    <row r="83" spans="1:13" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A83" s="20"/>
+      <c r="B83" s="21"/>
+      <c r="C83" s="22"/>
+      <c r="D83" s="22"/>
+      <c r="E83" s="22"/>
+      <c r="F83" s="22"/>
+      <c r="G83" s="22"/>
+      <c r="H83" s="22"/>
+      <c r="I83" s="22"/>
+      <c r="J83" s="22"/>
+      <c r="K83" s="50"/>
+      <c r="L83" s="50"/>
+      <c r="M83" s="50"/>
+    </row>
+    <row r="84" spans="1:13" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A84" s="20"/>
+      <c r="B84" s="21"/>
+      <c r="C84" s="22"/>
+      <c r="D84" s="22"/>
+      <c r="E84" s="22"/>
+      <c r="F84" s="22"/>
+      <c r="G84" s="22"/>
+      <c r="H84" s="22"/>
+      <c r="I84" s="22"/>
+      <c r="J84" s="22"/>
+      <c r="K84" s="50"/>
+      <c r="L84" s="50"/>
+      <c r="M84" s="50"/>
+    </row>
+    <row r="85" spans="1:13" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A85" s="20"/>
+      <c r="B85" s="21"/>
+      <c r="C85" s="22"/>
+      <c r="D85" s="22"/>
+      <c r="E85" s="22"/>
+      <c r="F85" s="22"/>
+      <c r="G85" s="22"/>
+      <c r="H85" s="22"/>
+      <c r="I85" s="22"/>
+      <c r="J85" s="22"/>
+      <c r="K85" s="50"/>
+      <c r="L85" s="50"/>
+      <c r="M85" s="50"/>
+    </row>
+    <row r="86" spans="1:13" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A86" s="20"/>
+      <c r="B86" s="21"/>
+      <c r="C86" s="22"/>
+      <c r="D86" s="22"/>
+      <c r="E86" s="22"/>
+      <c r="F86" s="22"/>
+      <c r="G86" s="22"/>
+      <c r="H86" s="22"/>
+      <c r="I86" s="22"/>
+      <c r="J86" s="22"/>
+      <c r="K86" s="50"/>
+      <c r="L86" s="50"/>
+      <c r="M86" s="50"/>
+    </row>
+    <row r="87" spans="1:13" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A87" s="20"/>
+      <c r="B87" s="21"/>
+      <c r="C87" s="22"/>
+      <c r="D87" s="22"/>
+      <c r="E87" s="22"/>
+      <c r="F87" s="22"/>
+      <c r="G87" s="22"/>
+      <c r="H87" s="22"/>
+      <c r="I87" s="22"/>
+      <c r="J87" s="22"/>
+      <c r="K87" s="50"/>
+      <c r="L87" s="50"/>
+      <c r="M87" s="50"/>
+    </row>
+    <row r="88" spans="1:13" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A88" s="20"/>
+      <c r="B88" s="21"/>
+      <c r="C88" s="22"/>
+      <c r="D88" s="22"/>
+      <c r="E88" s="22"/>
+      <c r="F88" s="22"/>
+      <c r="G88" s="22"/>
+      <c r="H88" s="22"/>
+      <c r="I88" s="22"/>
+      <c r="J88" s="22"/>
+      <c r="K88" s="49"/>
+      <c r="L88" s="50"/>
+      <c r="M88" s="50"/>
+    </row>
+    <row r="89" spans="1:13" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A89" s="20"/>
+      <c r="B89" s="21"/>
+      <c r="C89" s="22"/>
+      <c r="D89" s="22"/>
+      <c r="E89" s="22"/>
+      <c r="F89" s="22"/>
+      <c r="G89" s="22"/>
+      <c r="H89" s="22"/>
+      <c r="I89" s="22"/>
+      <c r="J89" s="22"/>
+      <c r="K89" s="50"/>
+      <c r="L89" s="49"/>
+      <c r="M89" s="50"/>
+    </row>
+    <row r="90" spans="1:13" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A90" s="20"/>
+      <c r="B90" s="21"/>
+      <c r="C90" s="22"/>
+      <c r="D90" s="22"/>
+      <c r="E90" s="22"/>
+      <c r="F90" s="22"/>
+      <c r="G90" s="22"/>
+      <c r="H90" s="22"/>
+      <c r="I90" s="22"/>
+      <c r="J90" s="22"/>
+      <c r="K90" s="50"/>
+      <c r="L90" s="50"/>
+      <c r="M90" s="50"/>
+    </row>
+    <row r="91" spans="1:13" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A91" s="20"/>
+      <c r="B91" s="21"/>
+      <c r="C91" s="22"/>
+      <c r="D91" s="22"/>
+      <c r="E91" s="22"/>
+      <c r="F91" s="22"/>
+      <c r="G91" s="22"/>
+      <c r="H91" s="22"/>
+      <c r="I91" s="22"/>
+      <c r="J91" s="22"/>
+      <c r="L91" s="50"/>
+      <c r="M91" s="49"/>
+    </row>
+    <row r="92" spans="1:13" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A92" s="20"/>
+      <c r="B92" s="21"/>
+      <c r="C92" s="22"/>
+      <c r="D92" s="22"/>
+      <c r="E92" s="22"/>
+      <c r="F92" s="22"/>
+      <c r="G92" s="22"/>
+      <c r="H92" s="22"/>
+      <c r="I92" s="22"/>
+      <c r="J92" s="22"/>
+      <c r="K92" s="49"/>
+      <c r="M92" s="50"/>
+    </row>
+    <row r="93" spans="1:13" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A93" s="20"/>
+      <c r="B93" s="21"/>
+      <c r="C93" s="22"/>
+      <c r="D93" s="22"/>
+      <c r="E93" s="22"/>
+      <c r="F93" s="22"/>
+      <c r="G93" s="22"/>
+      <c r="H93" s="22"/>
+      <c r="I93" s="22"/>
+      <c r="J93" s="22"/>
+      <c r="K93" s="50"/>
+      <c r="L93" s="49"/>
+      <c r="M93" s="50"/>
+    </row>
+    <row r="94" spans="1:13" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A94" s="21"/>
+      <c r="B94" s="21"/>
+      <c r="C94" s="19"/>
+      <c r="D94" s="19"/>
+      <c r="E94" s="19"/>
+      <c r="F94" s="19"/>
+      <c r="G94" s="19"/>
+      <c r="H94" s="19"/>
+      <c r="I94" s="19"/>
+      <c r="J94" s="19"/>
+      <c r="K94" s="50"/>
+      <c r="L94" s="50"/>
+      <c r="M94" s="49"/>
+    </row>
+    <row r="95" spans="1:13" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A95" s="20"/>
+      <c r="B95" s="21"/>
+      <c r="C95" s="22"/>
+      <c r="D95" s="22"/>
+      <c r="E95" s="22"/>
+      <c r="F95" s="22"/>
+      <c r="G95" s="22"/>
+      <c r="H95" s="22"/>
+      <c r="I95" s="22"/>
+      <c r="J95" s="22"/>
+      <c r="K95" s="50"/>
+      <c r="L95" s="50"/>
+      <c r="M95" s="50"/>
+    </row>
+    <row r="96" spans="1:13" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A96" s="20"/>
+      <c r="B96" s="21"/>
+      <c r="C96" s="22"/>
+      <c r="D96" s="22"/>
+      <c r="E96" s="22"/>
+      <c r="F96" s="22"/>
+      <c r="G96" s="22"/>
+      <c r="H96" s="22"/>
+      <c r="I96" s="22"/>
+      <c r="J96" s="22"/>
+      <c r="K96" s="50"/>
+      <c r="L96" s="50"/>
+      <c r="M96" s="50"/>
+    </row>
+    <row r="97" spans="1:13" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A97" s="20"/>
+      <c r="B97" s="21"/>
+      <c r="C97" s="22"/>
+      <c r="D97" s="22"/>
+      <c r="E97" s="22"/>
+      <c r="F97" s="22"/>
+      <c r="G97" s="22"/>
+      <c r="H97" s="22"/>
+      <c r="I97" s="22"/>
+      <c r="J97" s="22"/>
+      <c r="K97" s="50"/>
+      <c r="L97" s="50"/>
+      <c r="M97" s="50"/>
+    </row>
+    <row r="98" spans="1:13" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A98" s="20"/>
+      <c r="B98" s="21"/>
+      <c r="C98" s="22"/>
+      <c r="D98" s="22"/>
+      <c r="E98" s="22"/>
+      <c r="F98" s="22"/>
+      <c r="G98" s="22"/>
+      <c r="H98" s="22"/>
+      <c r="I98" s="22"/>
+      <c r="J98" s="22"/>
+      <c r="K98" s="50"/>
+      <c r="L98" s="50"/>
+      <c r="M98" s="50"/>
+    </row>
+    <row r="99" spans="1:13" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A99" s="20"/>
+      <c r="B99" s="21"/>
+      <c r="C99" s="22"/>
+      <c r="D99" s="22"/>
+      <c r="E99" s="22"/>
+      <c r="F99" s="22"/>
+      <c r="G99" s="22"/>
+      <c r="H99" s="22"/>
+      <c r="I99" s="22"/>
+      <c r="J99" s="22"/>
+      <c r="K99" s="50"/>
+      <c r="L99" s="50"/>
+      <c r="M99" s="50"/>
+    </row>
+    <row r="100" spans="1:13" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A100" s="20"/>
+      <c r="B100" s="21"/>
+      <c r="C100" s="22"/>
+      <c r="D100" s="22"/>
+      <c r="E100" s="22"/>
+      <c r="F100" s="22"/>
+      <c r="G100" s="22"/>
+      <c r="H100" s="22"/>
+      <c r="I100" s="22"/>
+      <c r="J100" s="22"/>
+      <c r="K100" s="50"/>
+      <c r="L100" s="50"/>
+      <c r="M100" s="50"/>
+    </row>
+    <row r="101" spans="1:13" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A101" s="20"/>
+      <c r="B101" s="21"/>
+      <c r="C101" s="19"/>
+      <c r="D101" s="19"/>
+      <c r="E101" s="19"/>
+      <c r="F101" s="19"/>
+      <c r="G101" s="19"/>
+      <c r="H101" s="19"/>
+      <c r="I101" s="19"/>
+      <c r="J101" s="19"/>
+      <c r="K101" s="50"/>
+      <c r="L101" s="50"/>
+      <c r="M101" s="50"/>
+    </row>
+    <row r="102" spans="1:13" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A102" s="20"/>
+      <c r="B102" s="21"/>
+      <c r="C102" s="22"/>
+      <c r="D102" s="22"/>
+      <c r="E102" s="22"/>
+      <c r="F102" s="22"/>
+      <c r="G102" s="22"/>
+      <c r="H102" s="22"/>
+      <c r="I102" s="22"/>
+      <c r="J102" s="22"/>
+      <c r="K102" s="49"/>
+      <c r="L102" s="50"/>
+      <c r="M102" s="50"/>
+    </row>
+    <row r="103" spans="1:13" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A103" s="20"/>
+      <c r="B103" s="21"/>
+      <c r="C103" s="22"/>
+      <c r="D103" s="22"/>
+      <c r="E103" s="22"/>
+      <c r="F103" s="22"/>
+      <c r="G103" s="22"/>
+      <c r="H103" s="22"/>
+      <c r="I103" s="22"/>
+      <c r="J103" s="22"/>
+      <c r="K103" s="50"/>
+      <c r="L103" s="49"/>
+      <c r="M103" s="50"/>
+    </row>
+    <row r="104" spans="1:13" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A104" s="20"/>
+      <c r="B104" s="21"/>
+      <c r="C104" s="22"/>
+      <c r="D104" s="22"/>
+      <c r="E104" s="22"/>
+      <c r="F104" s="22"/>
+      <c r="G104" s="22"/>
+      <c r="H104" s="22"/>
+      <c r="I104" s="22"/>
+      <c r="J104" s="22"/>
+      <c r="K104" s="50"/>
+      <c r="L104" s="50"/>
+      <c r="M104" s="49"/>
+    </row>
+    <row r="105" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="L105" s="50"/>
+      <c r="M105" s="50"/>
+    </row>
+    <row r="106" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="M106" s="50"/>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A6:A10"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{853352DE-922C-4F00-B110-569410679C0C}">
   <dimension ref="A1:M2"/>
   <sheetViews>
@@ -26093,84 +29398,84 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" s="57" t="s">
+        <v>241</v>
+      </c>
+      <c r="B1" s="57" t="s">
         <v>242</v>
       </c>
-      <c r="B1" s="57" t="s">
+      <c r="C1" s="57" t="s">
         <v>243</v>
       </c>
-      <c r="C1" s="57" t="s">
+      <c r="D1" s="57" t="s">
         <v>244</v>
       </c>
-      <c r="D1" s="57" t="s">
+      <c r="E1" s="57" t="s">
         <v>245</v>
       </c>
-      <c r="E1" s="57" t="s">
+      <c r="F1" s="57" t="s">
         <v>246</v>
       </c>
-      <c r="F1" s="57" t="s">
+      <c r="G1" s="57" t="s">
         <v>247</v>
       </c>
-      <c r="G1" s="57" t="s">
+      <c r="H1" s="57" t="s">
         <v>248</v>
       </c>
-      <c r="H1" s="57" t="s">
+      <c r="I1" s="57" t="s">
         <v>249</v>
       </c>
-      <c r="I1" s="57" t="s">
+      <c r="J1" s="57" t="s">
         <v>250</v>
       </c>
-      <c r="J1" s="57" t="s">
+      <c r="K1" s="57" t="s">
         <v>251</v>
       </c>
-      <c r="K1" s="57" t="s">
+      <c r="L1" s="57" t="s">
         <v>252</v>
       </c>
-      <c r="L1" s="57" t="s">
+      <c r="M1" s="57" t="s">
         <v>253</v>
-      </c>
-      <c r="M1" s="57" t="s">
-        <v>254</v>
       </c>
     </row>
     <row r="2" spans="1:13" s="92" customFormat="1" ht="408.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="37" t="s">
+        <v>254</v>
+      </c>
+      <c r="B2" s="103" t="s">
+        <v>311</v>
+      </c>
+      <c r="C2" s="37" t="s">
         <v>255</v>
       </c>
-      <c r="B2" s="103" t="s">
-        <v>312</v>
-      </c>
-      <c r="C2" s="37" t="s">
+      <c r="D2" s="83" t="s">
         <v>256</v>
       </c>
-      <c r="D2" s="83" t="s">
+      <c r="E2" s="105" t="s">
         <v>257</v>
       </c>
-      <c r="E2" s="113" t="s">
+      <c r="F2" s="105" t="s">
         <v>258</v>
       </c>
-      <c r="F2" s="113" t="s">
+      <c r="G2" s="105" t="s">
         <v>259</v>
       </c>
-      <c r="G2" s="113" t="s">
+      <c r="H2" s="105" t="s">
         <v>260</v>
       </c>
-      <c r="H2" s="113" t="s">
+      <c r="I2" s="105" t="s">
         <v>261</v>
       </c>
-      <c r="I2" s="113" t="s">
+      <c r="J2" s="105" t="s">
         <v>262</v>
       </c>
-      <c r="J2" s="113" t="s">
+      <c r="K2" s="105" t="s">
         <v>263</v>
       </c>
-      <c r="K2" s="113" t="s">
+      <c r="L2" s="105" t="s">
         <v>264</v>
       </c>
-      <c r="L2" s="113" t="s">
+      <c r="M2" s="105" t="s">
         <v>265</v>
-      </c>
-      <c r="M2" s="113" t="s">
-        <v>266</v>
       </c>
     </row>
   </sheetData>
@@ -26178,12 +29483,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{602DDA0F-7414-4588-9F19-658A1FAD18B6}">
   <dimension ref="A1:K18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -26199,177 +29504,177 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="26" t="s">
+        <v>266</v>
+      </c>
+      <c r="J1" s="26" t="s">
         <v>267</v>
-      </c>
-      <c r="J1" s="26" t="s">
-        <v>268</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="25" t="s">
+        <v>268</v>
+      </c>
+      <c r="J2" s="25" t="s">
         <v>269</v>
-      </c>
-      <c r="J2" s="25" t="s">
-        <v>270</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="25" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="J3" s="25"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" s="25" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="J4" s="25"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="25" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="J5" s="25"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="25" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B6" s="23"/>
       <c r="C6" s="23" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D6" s="23"/>
       <c r="E6" s="23" t="s">
+        <v>275</v>
+      </c>
+      <c r="F6" s="23" t="s">
         <v>276</v>
       </c>
-      <c r="F6" s="23" t="s">
+      <c r="G6" s="23" t="s">
         <v>277</v>
       </c>
-      <c r="G6" s="23" t="s">
+      <c r="H6" s="24" t="s">
         <v>278</v>
       </c>
-      <c r="H6" s="24" t="s">
+      <c r="J6" s="25" t="s">
         <v>279</v>
       </c>
-      <c r="J6" s="25" t="s">
+      <c r="K6" s="58" t="s">
         <v>280</v>
-      </c>
-      <c r="K6" s="58" t="s">
-        <v>281</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="25" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="J7" s="25"/>
       <c r="K7" s="58" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" s="25" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B8" s="89"/>
       <c r="C8" s="23" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D8" s="23"/>
       <c r="E8" s="23" t="s">
+        <v>283</v>
+      </c>
+      <c r="F8" s="23" t="s">
         <v>284</v>
       </c>
-      <c r="F8" s="23" t="s">
+      <c r="G8" s="23" t="s">
         <v>285</v>
       </c>
-      <c r="G8" s="23" t="s">
+      <c r="H8" s="24" t="s">
         <v>286</v>
-      </c>
-      <c r="H8" s="24" t="s">
-        <v>287</v>
       </c>
       <c r="J8" s="25"/>
       <c r="K8" s="58"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="25" t="s">
+        <v>287</v>
+      </c>
+      <c r="J9" s="25" t="s">
         <v>288</v>
-      </c>
-      <c r="J9" s="25" t="s">
-        <v>289</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="25" t="s">
+        <v>289</v>
+      </c>
+      <c r="J10" s="25" t="s">
         <v>290</v>
-      </c>
-      <c r="J10" s="25" t="s">
-        <v>291</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="25" t="s">
+        <v>291</v>
+      </c>
+      <c r="J11" s="25" t="s">
         <v>292</v>
-      </c>
-      <c r="J11" s="25" t="s">
-        <v>293</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="25" t="s">
+        <v>293</v>
+      </c>
+      <c r="J12" s="25" t="s">
         <v>294</v>
-      </c>
-      <c r="J12" s="25" t="s">
-        <v>295</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="25" t="s">
+        <v>295</v>
+      </c>
+      <c r="J13" s="25" t="s">
         <v>296</v>
-      </c>
-      <c r="J13" s="25" t="s">
-        <v>297</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="25" t="s">
+        <v>297</v>
+      </c>
+      <c r="J14" s="25" t="s">
         <v>298</v>
-      </c>
-      <c r="J14" s="25" t="s">
-        <v>299</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="25" t="s">
+        <v>299</v>
+      </c>
+      <c r="J15" s="25" t="s">
         <v>300</v>
-      </c>
-      <c r="J15" s="25" t="s">
-        <v>301</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="25" t="s">
+        <v>301</v>
+      </c>
+      <c r="J16" s="25" t="s">
         <v>302</v>
-      </c>
-      <c r="J16" s="25" t="s">
-        <v>303</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" s="25" t="s">
+        <v>303</v>
+      </c>
+      <c r="J17" s="25" t="s">
         <v>304</v>
-      </c>
-      <c r="J17" s="25" t="s">
-        <v>305</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" s="25" t="s">
+        <v>305</v>
+      </c>
+      <c r="J18" s="25" t="s">
         <v>306</v>
-      </c>
-      <c r="J18" s="25" t="s">
-        <v>307</v>
       </c>
     </row>
   </sheetData>
@@ -26378,26 +29683,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="e658002f-fdfe-4e4b-94aa-0526ee42a8ac">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="4ad8f8a2-17e7-49a9-8390-22f3c8f42b39" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100C9B53A5B1F235B4EBDF9F22062DFC34D" ma:contentTypeVersion="12" ma:contentTypeDescription="Creare un nuovo documento." ma:contentTypeScope="" ma:versionID="ad5b12d537450e73edf2af95672e184c">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="e658002f-fdfe-4e4b-94aa-0526ee42a8ac" xmlns:ns3="4ad8f8a2-17e7-49a9-8390-22f3c8f42b39" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="ac16958afaf1bb0d1dccad67078e8e2c" ns2:_="" ns3:_="">
     <xsd:import namespace="e658002f-fdfe-4e4b-94aa-0526ee42a8ac"/>
@@ -26614,10 +29899,41 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="e658002f-fdfe-4e4b-94aa-0526ee42a8ac">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="4ad8f8a2-17e7-49a9-8390-22f3c8f42b39" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BA99F9FA-472B-49CB-8CD8-32BE0FD0DC5E}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{31D0029D-E8A7-4DC9-B140-19D450DFB7E0}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="e658002f-fdfe-4e4b-94aa-0526ee42a8ac"/>
+    <ds:schemaRef ds:uri="4ad8f8a2-17e7-49a9-8390-22f3c8f42b39"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -26640,20 +29956,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{31D0029D-E8A7-4DC9-B140-19D450DFB7E0}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BA99F9FA-472B-49CB-8CD8-32BE0FD0DC5E}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="e658002f-fdfe-4e4b-94aa-0526ee42a8ac"/>
-    <ds:schemaRef ds:uri="4ad8f8a2-17e7-49a9-8390-22f3c8f42b39"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/raw_data/IVM6311_Testing_scripts.xlsx
+++ b/raw_data/IVM6311_Testing_scripts.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\harkum\Documents\6311\Software\raw_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F67A20A-DCF4-4F60-8310-7CCBB285A1F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11E3733C-D6AA-4CF4-AA60-44DF3DEB71AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30612" yWindow="-108" windowWidth="30936" windowHeight="16776" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="30612" yWindow="-108" windowWidth="30936" windowHeight="16776" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Revision" sheetId="3" r:id="rId1"/>
@@ -18140,6 +18140,24 @@
     <xf numFmtId="0" fontId="68" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="23" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="4" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="23" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -18164,24 +18182,6 @@
     <xf numFmtId="0" fontId="29" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="4" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="23" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -18578,8 +18578,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40D91B9C-5E8C-479A-83F9-A38D53329BF0}">
   <dimension ref="A1:E104"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -18590,10 +18590,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="21" x14ac:dyDescent="0.4">
-      <c r="A1" s="107" t="s">
+      <c r="A1" s="117" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="107"/>
+      <c r="B1" s="117"/>
       <c r="C1" s="17" t="s">
         <v>5</v>
       </c>
@@ -18618,10 +18618,10 @@
       </c>
     </row>
     <row r="3" spans="1:5" ht="21" x14ac:dyDescent="0.4">
-      <c r="A3" s="107" t="s">
+      <c r="A3" s="117" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="107"/>
+      <c r="B3" s="117"/>
       <c r="C3" s="15" t="s">
         <v>8</v>
       </c>
@@ -18633,10 +18633,10 @@
       </c>
     </row>
     <row r="4" spans="1:5" ht="21" x14ac:dyDescent="0.4">
-      <c r="A4" s="107" t="s">
+      <c r="A4" s="117" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="107"/>
+      <c r="B4" s="117"/>
       <c r="C4" s="9" t="s">
         <v>10</v>
       </c>
@@ -18648,8 +18648,8 @@
       </c>
     </row>
     <row r="5" spans="1:5" ht="273" x14ac:dyDescent="0.3">
-      <c r="A5" s="108"/>
-      <c r="B5" s="109"/>
+      <c r="A5" s="118"/>
+      <c r="B5" s="119"/>
       <c r="C5" s="37" t="s">
         <v>13</v>
       </c>
@@ -18661,7 +18661,7 @@
       </c>
     </row>
     <row r="6" spans="1:5" ht="22.2" x14ac:dyDescent="0.35">
-      <c r="A6" s="110" t="s">
+      <c r="A6" s="120" t="s">
         <v>15</v>
       </c>
       <c r="B6" s="13" t="s">
@@ -18678,7 +18678,7 @@
       </c>
     </row>
     <row r="7" spans="1:5" ht="22.2" x14ac:dyDescent="0.35">
-      <c r="A7" s="110"/>
+      <c r="A7" s="120"/>
       <c r="B7" s="14" t="s">
         <v>17</v>
       </c>
@@ -18693,7 +18693,7 @@
       </c>
     </row>
     <row r="8" spans="1:5" ht="22.2" x14ac:dyDescent="0.35">
-      <c r="A8" s="110"/>
+      <c r="A8" s="120"/>
       <c r="B8" s="10" t="s">
         <v>19</v>
       </c>
@@ -18708,7 +18708,7 @@
       </c>
     </row>
     <row r="9" spans="1:5" ht="22.2" x14ac:dyDescent="0.35">
-      <c r="A9" s="110"/>
+      <c r="A9" s="120"/>
       <c r="B9" s="12" t="s">
         <v>21</v>
       </c>
@@ -18723,7 +18723,7 @@
       </c>
     </row>
     <row r="10" spans="1:5" ht="22.2" x14ac:dyDescent="0.35">
-      <c r="A10" s="110"/>
+      <c r="A10" s="120"/>
       <c r="B10" s="14" t="s">
         <v>22</v>
       </c>
@@ -19375,7 +19375,7 @@
   <dimension ref="A1:I104"/>
   <sheetViews>
     <sheetView topLeftCell="B1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -19388,10 +19388,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="21" x14ac:dyDescent="0.4">
-      <c r="A1" s="107" t="s">
+      <c r="A1" s="117" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="107"/>
+      <c r="B1" s="117"/>
       <c r="C1" s="17" t="s">
         <v>5</v>
       </c>
@@ -19438,10 +19438,10 @@
       </c>
     </row>
     <row r="3" spans="1:9" s="1" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="107" t="s">
+      <c r="A3" s="117" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="107"/>
+      <c r="B3" s="117"/>
       <c r="C3" s="15" t="s">
         <v>64</v>
       </c>
@@ -19465,10 +19465,10 @@
       </c>
     </row>
     <row r="4" spans="1:9" s="1" customFormat="1" ht="74.400000000000006" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="107" t="s">
+      <c r="A4" s="117" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="107"/>
+      <c r="B4" s="117"/>
       <c r="C4" s="9" t="s">
         <v>69</v>
       </c>
@@ -19492,8 +19492,8 @@
       </c>
     </row>
     <row r="5" spans="1:9" s="1" customFormat="1" ht="409.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="108"/>
-      <c r="B5" s="109"/>
+      <c r="A5" s="118"/>
+      <c r="B5" s="119"/>
       <c r="C5" s="37" t="s">
         <v>312</v>
       </c>
@@ -19517,7 +19517,7 @@
       </c>
     </row>
     <row r="6" spans="1:9" ht="27.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="110" t="s">
+      <c r="A6" s="120" t="s">
         <v>15</v>
       </c>
       <c r="B6" s="13" t="s">
@@ -19538,7 +19538,7 @@
       </c>
     </row>
     <row r="7" spans="1:9" ht="27.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="110"/>
+      <c r="A7" s="120"/>
       <c r="B7" s="14" t="s">
         <v>17</v>
       </c>
@@ -19553,7 +19553,7 @@
       <c r="I7" s="8"/>
     </row>
     <row r="8" spans="1:9" ht="27.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="110"/>
+      <c r="A8" s="120"/>
       <c r="B8" s="10" t="s">
         <v>19</v>
       </c>
@@ -19580,7 +19580,7 @@
       </c>
     </row>
     <row r="9" spans="1:9" ht="27.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="110"/>
+      <c r="A9" s="120"/>
       <c r="B9" s="12" t="s">
         <v>21</v>
       </c>
@@ -19599,7 +19599,7 @@
       </c>
     </row>
     <row r="10" spans="1:9" ht="27.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="110"/>
+      <c r="A10" s="120"/>
       <c r="B10" s="14" t="s">
         <v>22</v>
       </c>
@@ -20850,10 +20850,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:28" ht="21" x14ac:dyDescent="0.4">
-      <c r="A1" s="111" t="s">
+      <c r="A1" s="121" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="111"/>
+      <c r="B1" s="121"/>
       <c r="C1" s="17" t="s">
         <v>95</v>
       </c>
@@ -21014,10 +21014,10 @@
       </c>
     </row>
     <row r="3" spans="1:28" s="1" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="111" t="s">
+      <c r="A3" s="121" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="111"/>
+      <c r="B3" s="121"/>
       <c r="C3" s="64" t="s">
         <v>64</v>
       </c>
@@ -21098,10 +21098,10 @@
       </c>
     </row>
     <row r="4" spans="1:28" s="1" customFormat="1" ht="74.400000000000006" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="111" t="s">
+      <c r="A4" s="121" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="111"/>
+      <c r="B4" s="121"/>
       <c r="C4" s="65" t="s">
         <v>115</v>
       </c>
@@ -21182,8 +21182,8 @@
       </c>
     </row>
     <row r="5" spans="1:28" s="1" customFormat="1" ht="409.6" x14ac:dyDescent="0.3">
-      <c r="A5" s="112"/>
-      <c r="B5" s="113"/>
+      <c r="A5" s="122"/>
+      <c r="B5" s="123"/>
       <c r="C5" s="102" t="s">
         <v>141</v>
       </c>
@@ -21264,7 +21264,7 @@
       </c>
     </row>
     <row r="6" spans="1:28" ht="27.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="114" t="s">
+      <c r="A6" s="124" t="s">
         <v>15</v>
       </c>
       <c r="B6" s="59" t="s">
@@ -21342,7 +21342,7 @@
       </c>
     </row>
     <row r="7" spans="1:28" ht="27.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="114"/>
+      <c r="A7" s="124"/>
       <c r="B7" s="60" t="s">
         <v>17</v>
       </c>
@@ -21374,7 +21374,7 @@
       <c r="AB7" s="68"/>
     </row>
     <row r="8" spans="1:28" ht="27.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="114"/>
+      <c r="A8" s="124"/>
       <c r="B8" s="61" t="s">
         <v>19</v>
       </c>
@@ -21424,7 +21424,7 @@
       <c r="AB8" s="69"/>
     </row>
     <row r="9" spans="1:28" ht="27.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="114"/>
+      <c r="A9" s="124"/>
       <c r="B9" s="62" t="s">
         <v>21</v>
       </c>
@@ -21500,7 +21500,7 @@
       </c>
     </row>
     <row r="10" spans="1:28" ht="27.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="114"/>
+      <c r="A10" s="124"/>
       <c r="B10" s="60" t="s">
         <v>22</v>
       </c>
@@ -24906,8 +24906,8 @@
   </sheetPr>
   <dimension ref="A1:Q104"/>
   <sheetViews>
-    <sheetView topLeftCell="E4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -24927,10 +24927,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="21" x14ac:dyDescent="0.4">
-      <c r="A1" s="111" t="s">
+      <c r="A1" s="121" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="111"/>
+      <c r="B1" s="121"/>
       <c r="C1" s="17" t="s">
         <v>5</v>
       </c>
@@ -25025,10 +25025,10 @@
       </c>
     </row>
     <row r="3" spans="1:17" s="1" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="111" t="s">
+      <c r="A3" s="121" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="111"/>
+      <c r="B3" s="121"/>
       <c r="C3" s="15" t="s">
         <v>68</v>
       </c>
@@ -25076,10 +25076,10 @@
       </c>
     </row>
     <row r="4" spans="1:17" s="1" customFormat="1" ht="97.2" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="111" t="s">
+      <c r="A4" s="121" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="111"/>
+      <c r="B4" s="121"/>
       <c r="C4" s="65" t="s">
         <v>183</v>
       </c>
@@ -25127,8 +25127,8 @@
       </c>
     </row>
     <row r="5" spans="1:17" s="1" customFormat="1" ht="409.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="112"/>
-      <c r="B5" s="113"/>
+      <c r="A5" s="122"/>
+      <c r="B5" s="123"/>
       <c r="C5" s="104" t="s">
         <v>198</v>
       </c>
@@ -25176,7 +25176,7 @@
       </c>
     </row>
     <row r="6" spans="1:17" ht="27.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="114" t="s">
+      <c r="A6" s="124" t="s">
         <v>15</v>
       </c>
       <c r="B6" s="59" t="s">
@@ -25199,7 +25199,7 @@
       <c r="Q6" s="38"/>
     </row>
     <row r="7" spans="1:17" ht="27.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="114"/>
+      <c r="A7" s="124"/>
       <c r="B7" s="60" t="s">
         <v>17</v>
       </c>
@@ -25220,7 +25220,7 @@
       <c r="Q7" s="8"/>
     </row>
     <row r="8" spans="1:17" ht="27.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="114"/>
+      <c r="A8" s="124"/>
       <c r="B8" s="61" t="s">
         <v>19</v>
       </c>
@@ -25265,7 +25265,7 @@
       </c>
     </row>
     <row r="9" spans="1:17" ht="27.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="114"/>
+      <c r="A9" s="124"/>
       <c r="B9" s="62" t="s">
         <v>21</v>
       </c>
@@ -25290,7 +25290,7 @@
       <c r="Q9" s="39"/>
     </row>
     <row r="10" spans="1:17" ht="27.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="114"/>
+      <c r="A10" s="124"/>
       <c r="B10" s="60" t="s">
         <v>22</v>
       </c>
@@ -27441,7 +27441,7 @@
   </sheetPr>
   <dimension ref="A1:M106"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+    <sheetView topLeftCell="E1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
@@ -27455,10 +27455,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="21" x14ac:dyDescent="0.4">
-      <c r="A1" s="107" t="s">
+      <c r="A1" s="117" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="107"/>
+      <c r="B1" s="117"/>
       <c r="C1" s="17" t="s">
         <v>95</v>
       </c>
@@ -27525,10 +27525,10 @@
       </c>
     </row>
     <row r="3" spans="1:13" s="1" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="107" t="s">
+      <c r="A3" s="117" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="107"/>
+      <c r="B3" s="117"/>
       <c r="C3" s="15" t="s">
         <v>65</v>
       </c>
@@ -27562,10 +27562,10 @@
       </c>
     </row>
     <row r="4" spans="1:13" s="1" customFormat="1" ht="74.400000000000006" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="107" t="s">
+      <c r="A4" s="117" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="107"/>
+      <c r="B4" s="117"/>
       <c r="C4" s="9" t="s">
         <v>321</v>
       </c>
@@ -27591,12 +27591,12 @@
       <c r="M4" s="9"/>
     </row>
     <row r="5" spans="1:13" s="1" customFormat="1" ht="409.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="108"/>
-      <c r="B5" s="108"/>
+      <c r="A5" s="118"/>
+      <c r="B5" s="118"/>
       <c r="C5" s="56" t="s">
         <v>327</v>
       </c>
-      <c r="D5" s="115" t="str">
+      <c r="D5" s="107" t="str">
         <f>TRIM(SUBSTITUTE(C5,CHAR(32),""))</f>
         <v xml:space="preserve">DAC-PAANALOG_IN_DC_COUPLED
 ForceANA__-6_00x03_0x04"EnabledigitaltestFSYN"0x04_0x112"Enabledigitaltestana_azcomp_out"0x17_0x01"force_dig_azcomp_en"0x17_0x00"force_dig_azcomp_az"0xFE_0x00"Returnpage0"Measure__Voltage__FSYN
@@ -27631,7 +27631,7 @@
       </c>
     </row>
     <row r="6" spans="1:13" ht="27.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="110" t="s">
+      <c r="A6" s="120" t="s">
         <v>15</v>
       </c>
       <c r="B6" s="13" t="s">
@@ -27650,7 +27650,7 @@
       <c r="M6" s="38"/>
     </row>
     <row r="7" spans="1:13" ht="27.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="110"/>
+      <c r="A7" s="120"/>
       <c r="B7" s="14" t="s">
         <v>17</v>
       </c>
@@ -27667,7 +27667,7 @@
       <c r="M7" s="8"/>
     </row>
     <row r="8" spans="1:13" ht="27.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="110"/>
+      <c r="A8" s="120"/>
       <c r="B8" s="10" t="s">
         <v>19</v>
       </c>
@@ -27704,12 +27704,12 @@
       </c>
     </row>
     <row r="9" spans="1:13" ht="27.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="110"/>
+      <c r="A9" s="120"/>
       <c r="B9" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="C9" s="116"/>
-      <c r="D9" s="116"/>
+      <c r="C9" s="108"/>
+      <c r="D9" s="108"/>
       <c r="E9" s="39"/>
       <c r="F9" s="39"/>
       <c r="G9" s="39"/>
@@ -27721,7 +27721,7 @@
       <c r="M9" s="39"/>
     </row>
     <row r="10" spans="1:13" ht="27.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="110"/>
+      <c r="A10" s="120"/>
       <c r="B10" s="14" t="s">
         <v>22</v>
       </c>
@@ -27956,14 +27956,14 @@
       <c r="B17" s="46" t="s">
         <v>40</v>
       </c>
-      <c r="C17" s="117" t="s">
+      <c r="C17" s="109" t="s">
         <v>341</v>
       </c>
-      <c r="D17" s="117"/>
+      <c r="D17" s="109"/>
       <c r="E17" s="50" t="s">
         <v>93</v>
       </c>
-      <c r="F17" s="118" t="s">
+      <c r="F17" s="110" t="s">
         <v>93</v>
       </c>
       <c r="G17" s="50" t="s">
@@ -28222,8 +28222,8 @@
     <row r="29" spans="1:13" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="43"/>
       <c r="B29" s="40"/>
-      <c r="C29" s="119"/>
-      <c r="D29" s="119"/>
+      <c r="C29" s="111"/>
+      <c r="D29" s="111"/>
       <c r="E29" s="50"/>
       <c r="F29" s="50"/>
       <c r="G29" s="50"/>
@@ -28237,8 +28237,8 @@
     <row r="30" spans="1:13" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="52"/>
       <c r="B30" s="40"/>
-      <c r="C30" s="120"/>
-      <c r="D30" s="120"/>
+      <c r="C30" s="112"/>
+      <c r="D30" s="112"/>
       <c r="E30" s="50"/>
       <c r="F30" s="50"/>
       <c r="G30" s="50"/>
@@ -28252,8 +28252,8 @@
     <row r="31" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="53"/>
       <c r="B31" s="42"/>
-      <c r="C31" s="121"/>
-      <c r="D31" s="122"/>
+      <c r="C31" s="113"/>
+      <c r="D31" s="114"/>
       <c r="E31" s="51"/>
       <c r="F31" s="51"/>
       <c r="G31" s="51"/>
@@ -28267,8 +28267,8 @@
     <row r="32" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="47"/>
       <c r="B32" s="55"/>
-      <c r="C32" s="123"/>
-      <c r="D32" s="122"/>
+      <c r="C32" s="115"/>
+      <c r="D32" s="114"/>
       <c r="E32" s="51"/>
       <c r="F32" s="51"/>
       <c r="G32" s="51"/>
@@ -28282,8 +28282,8 @@
     <row r="33" spans="1:13" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="47"/>
       <c r="B33" s="40"/>
-      <c r="C33" s="123"/>
-      <c r="D33" s="122"/>
+      <c r="C33" s="115"/>
+      <c r="D33" s="114"/>
       <c r="E33" s="51"/>
       <c r="F33" s="51"/>
       <c r="G33" s="51"/>
@@ -28297,8 +28297,8 @@
     <row r="34" spans="1:13" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="47"/>
       <c r="B34" s="40"/>
-      <c r="C34" s="123"/>
-      <c r="D34" s="122"/>
+      <c r="C34" s="115"/>
+      <c r="D34" s="114"/>
       <c r="E34" s="51"/>
       <c r="F34" s="51"/>
       <c r="G34" s="51"/>
@@ -28312,8 +28312,8 @@
     <row r="35" spans="1:13" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="47"/>
       <c r="B35" s="40"/>
-      <c r="C35" s="123"/>
-      <c r="D35" s="122"/>
+      <c r="C35" s="115"/>
+      <c r="D35" s="114"/>
       <c r="E35" s="51"/>
       <c r="F35" s="51"/>
       <c r="G35" s="51"/>
@@ -28327,8 +28327,8 @@
     <row r="36" spans="1:13" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="47"/>
       <c r="B36" s="40"/>
-      <c r="C36" s="123"/>
-      <c r="D36" s="122"/>
+      <c r="C36" s="115"/>
+      <c r="D36" s="114"/>
       <c r="E36" s="51"/>
       <c r="F36" s="51"/>
       <c r="G36" s="51"/>
@@ -28342,8 +28342,8 @@
     <row r="37" spans="1:13" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="47"/>
       <c r="B37" s="40"/>
-      <c r="C37" s="123"/>
-      <c r="D37" s="122"/>
+      <c r="C37" s="115"/>
+      <c r="D37" s="114"/>
       <c r="E37" s="51"/>
       <c r="F37" s="51"/>
       <c r="G37" s="51"/>
@@ -28357,8 +28357,8 @@
     <row r="38" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="47"/>
       <c r="B38" s="42"/>
-      <c r="C38" s="123"/>
-      <c r="D38" s="122"/>
+      <c r="C38" s="115"/>
+      <c r="D38" s="114"/>
       <c r="E38" s="51"/>
       <c r="F38" s="51"/>
       <c r="G38" s="51"/>
@@ -28372,8 +28372,8 @@
     <row r="39" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="47"/>
       <c r="B39" s="42"/>
-      <c r="C39" s="123"/>
-      <c r="D39" s="122"/>
+      <c r="C39" s="115"/>
+      <c r="D39" s="114"/>
       <c r="E39" s="51"/>
       <c r="F39" s="51"/>
       <c r="G39" s="51"/>
@@ -28387,8 +28387,8 @@
     <row r="40" spans="1:13" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="47"/>
       <c r="B40" s="40"/>
-      <c r="C40" s="123"/>
-      <c r="D40" s="122"/>
+      <c r="C40" s="115"/>
+      <c r="D40" s="114"/>
       <c r="E40" s="51"/>
       <c r="F40" s="51"/>
       <c r="G40" s="51"/>
@@ -28402,8 +28402,8 @@
     <row r="41" spans="1:13" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="47"/>
       <c r="B41" s="40"/>
-      <c r="C41" s="123"/>
-      <c r="D41" s="122"/>
+      <c r="C41" s="115"/>
+      <c r="D41" s="114"/>
       <c r="E41" s="51"/>
       <c r="F41" s="51"/>
       <c r="G41" s="51"/>
@@ -28417,8 +28417,8 @@
     <row r="42" spans="1:13" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="47"/>
       <c r="B42" s="40"/>
-      <c r="C42" s="123"/>
-      <c r="D42" s="122"/>
+      <c r="C42" s="115"/>
+      <c r="D42" s="114"/>
       <c r="E42" s="51"/>
       <c r="F42" s="51"/>
       <c r="G42" s="51"/>
@@ -28432,8 +28432,8 @@
     <row r="43" spans="1:13" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="47"/>
       <c r="B43" s="40"/>
-      <c r="C43" s="123"/>
-      <c r="D43" s="122"/>
+      <c r="C43" s="115"/>
+      <c r="D43" s="114"/>
       <c r="E43" s="51"/>
       <c r="F43" s="51"/>
       <c r="G43" s="51"/>
@@ -28447,8 +28447,8 @@
     <row r="44" spans="1:13" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="47"/>
       <c r="B44" s="40"/>
-      <c r="C44" s="123"/>
-      <c r="D44" s="122"/>
+      <c r="C44" s="115"/>
+      <c r="D44" s="114"/>
       <c r="E44" s="51"/>
       <c r="F44" s="51"/>
       <c r="G44" s="51"/>
@@ -28462,8 +28462,8 @@
     <row r="45" spans="1:13" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="47"/>
       <c r="B45" s="41"/>
-      <c r="C45" s="123"/>
-      <c r="D45" s="122"/>
+      <c r="C45" s="115"/>
+      <c r="D45" s="114"/>
       <c r="E45" s="51"/>
       <c r="F45" s="51"/>
       <c r="G45" s="51"/>
@@ -28477,8 +28477,8 @@
     <row r="46" spans="1:13" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A46" s="47"/>
       <c r="B46" s="41"/>
-      <c r="C46" s="123"/>
-      <c r="D46" s="122"/>
+      <c r="C46" s="115"/>
+      <c r="D46" s="114"/>
       <c r="E46" s="51"/>
       <c r="F46" s="51"/>
       <c r="G46" s="51"/>
@@ -28492,8 +28492,8 @@
     <row r="47" spans="1:13" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A47" s="47"/>
       <c r="B47" s="41"/>
-      <c r="C47" s="123"/>
-      <c r="D47" s="122"/>
+      <c r="C47" s="115"/>
+      <c r="D47" s="114"/>
       <c r="E47" s="51"/>
       <c r="F47" s="51"/>
       <c r="G47" s="51"/>
@@ -28507,8 +28507,8 @@
     <row r="48" spans="1:13" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A48" s="47"/>
       <c r="B48" s="41"/>
-      <c r="C48" s="123"/>
-      <c r="D48" s="122"/>
+      <c r="C48" s="115"/>
+      <c r="D48" s="114"/>
       <c r="E48" s="51"/>
       <c r="F48" s="51"/>
       <c r="G48" s="51"/>
@@ -28522,8 +28522,8 @@
     <row r="49" spans="1:13" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A49" s="47"/>
       <c r="B49" s="41"/>
-      <c r="C49" s="123"/>
-      <c r="D49" s="122"/>
+      <c r="C49" s="115"/>
+      <c r="D49" s="114"/>
       <c r="E49" s="51"/>
       <c r="F49" s="51"/>
       <c r="G49" s="51"/>
@@ -28537,8 +28537,8 @@
     <row r="50" spans="1:13" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A50" s="47"/>
       <c r="B50" s="41"/>
-      <c r="C50" s="123"/>
-      <c r="D50" s="122"/>
+      <c r="C50" s="115"/>
+      <c r="D50" s="114"/>
       <c r="E50" s="51"/>
       <c r="F50" s="51"/>
       <c r="G50" s="51"/>
@@ -28552,8 +28552,8 @@
     <row r="51" spans="1:13" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A51" s="48"/>
       <c r="B51" s="44"/>
-      <c r="C51" s="124"/>
-      <c r="D51" s="124"/>
+      <c r="C51" s="116"/>
+      <c r="D51" s="116"/>
       <c r="E51" s="50"/>
       <c r="F51" s="50"/>
       <c r="G51" s="50"/>
@@ -29683,6 +29683,17 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="e658002f-fdfe-4e4b-94aa-0526ee42a8ac">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="4ad8f8a2-17e7-49a9-8390-22f3c8f42b39" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100C9B53A5B1F235B4EBDF9F22062DFC34D" ma:contentTypeVersion="12" ma:contentTypeDescription="Creare un nuovo documento." ma:contentTypeScope="" ma:versionID="ad5b12d537450e73edf2af95672e184c">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="e658002f-fdfe-4e4b-94aa-0526ee42a8ac" xmlns:ns3="4ad8f8a2-17e7-49a9-8390-22f3c8f42b39" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="ac16958afaf1bb0d1dccad67078e8e2c" ns2:_="" ns3:_="">
     <xsd:import namespace="e658002f-fdfe-4e4b-94aa-0526ee42a8ac"/>
@@ -29899,17 +29910,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="e658002f-fdfe-4e4b-94aa-0526ee42a8ac">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="4ad8f8a2-17e7-49a9-8390-22f3c8f42b39" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -29920,6 +29920,23 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7CBF6B91-9305-4674-87E0-A56D6B941238}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="4ad8f8a2-17e7-49a9-8390-22f3c8f42b39"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="e658002f-fdfe-4e4b-94aa-0526ee42a8ac"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{31D0029D-E8A7-4DC9-B140-19D450DFB7E0}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -29938,23 +29955,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7CBF6B91-9305-4674-87E0-A56D6B941238}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="4ad8f8a2-17e7-49a9-8390-22f3c8f42b39"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="e658002f-fdfe-4e4b-94aa-0526ee42a8ac"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BA99F9FA-472B-49CB-8CD8-32BE0FD0DC5E}">
   <ds:schemaRefs>

--- a/raw_data/IVM6311_Testing_scripts.xlsx
+++ b/raw_data/IVM6311_Testing_scripts.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\harkum\Documents\6311\Software\raw_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11E3733C-D6AA-4CF4-AA60-44DF3DEB71AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8669AE72-9270-425A-A939-AE08AC1FE37E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30612" yWindow="-108" windowWidth="30936" windowHeight="16776" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="61332" yWindow="-108" windowWidth="23256" windowHeight="13896" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Revision" sheetId="3" r:id="rId1"/>
@@ -18578,7 +18578,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40D91B9C-5E8C-479A-83F9-A38D53329BF0}">
   <dimension ref="A1:E104"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
@@ -20836,7 +20836,7 @@
   <dimension ref="A1:AB104"/>
   <sheetViews>
     <sheetView topLeftCell="R4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="T5" sqref="T5"/>
+      <selection activeCell="S5" sqref="S5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -24906,8 +24906,8 @@
   </sheetPr>
   <dimension ref="A1:Q104"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" topLeftCell="D4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -25132,7 +25132,7 @@
       <c r="C5" s="104" t="s">
         <v>198</v>
       </c>
-      <c r="D5" s="37" t="s">
+      <c r="D5" s="56" t="s">
         <v>199</v>
       </c>
       <c r="E5" s="88" t="s">
@@ -29488,7 +29488,7 @@
   <dimension ref="A1:K18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -29683,17 +29683,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="e658002f-fdfe-4e4b-94aa-0526ee42a8ac">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="4ad8f8a2-17e7-49a9-8390-22f3c8f42b39" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100C9B53A5B1F235B4EBDF9F22062DFC34D" ma:contentTypeVersion="12" ma:contentTypeDescription="Creare un nuovo documento." ma:contentTypeScope="" ma:versionID="ad5b12d537450e73edf2af95672e184c">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="e658002f-fdfe-4e4b-94aa-0526ee42a8ac" xmlns:ns3="4ad8f8a2-17e7-49a9-8390-22f3c8f42b39" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="ac16958afaf1bb0d1dccad67078e8e2c" ns2:_="" ns3:_="">
     <xsd:import namespace="e658002f-fdfe-4e4b-94aa-0526ee42a8ac"/>
@@ -29910,6 +29899,17 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="e658002f-fdfe-4e4b-94aa-0526ee42a8ac">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="4ad8f8a2-17e7-49a9-8390-22f3c8f42b39" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -29920,23 +29920,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7CBF6B91-9305-4674-87E0-A56D6B941238}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="4ad8f8a2-17e7-49a9-8390-22f3c8f42b39"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="e658002f-fdfe-4e4b-94aa-0526ee42a8ac"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{31D0029D-E8A7-4DC9-B140-19D450DFB7E0}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -29955,6 +29938,23 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7CBF6B91-9305-4674-87E0-A56D6B941238}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="4ad8f8a2-17e7-49a9-8390-22f3c8f42b39"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="e658002f-fdfe-4e4b-94aa-0526ee42a8ac"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BA99F9FA-472B-49CB-8CD8-32BE0FD0DC5E}">
   <ds:schemaRefs>

--- a/raw_data/IVM6311_Testing_scripts.xlsx
+++ b/raw_data/IVM6311_Testing_scripts.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\harkum\Documents\6311\Software\raw_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8669AE72-9270-425A-A939-AE08AC1FE37E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{801D9AD1-FADA-4F8F-9AF5-3BD818041DDA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="61332" yWindow="-108" windowWidth="23256" windowHeight="13896" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="30612" yWindow="-108" windowWidth="30936" windowHeight="16776" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Revision" sheetId="3" r:id="rId1"/>
@@ -8002,374 +8002,6 @@
     </r>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color rgb="FFFF3399"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Run_Startup
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">0xFE_0x00 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">"in base page"
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0x11[1:0]_2b00</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> "Input mode: TDM"
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color rgb="FF4472C4"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0x32_0x41</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> "setting FSYN rate=384kHz and OSR=20"
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0xE0[1:0]_2b00</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> "Calibration time 600us, change in case of issues"
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0xE0[3:2]_2b00</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> "AZ mode time 300us, change in case of issues"
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0xE2[0]_1b1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> "Internal calibration start"
-Wait__delay__20ms
-Read__E5 "bit[4] =1 indicates end of calibration"
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">0xFE_0x01 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">"in test page"
-Read__CA-CC "OTP cal registers CA-CC in page 1 are written, not possible to measure analog value"
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0xFE_0x00</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> "in base page"
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">0xE2_0x00 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">"Reset internal calibration bit"
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0xE2[0]_0x02</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> "External calibration start"
-Wait__delay__20ms
-Read__E5 "bit[4] =1 indicates end of calibration"
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color rgb="FF4472C4"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0xFE_0x01</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color rgb="FFFF3399"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">"in test page"
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color rgb="FF4472C4"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Read__CD-CF</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> "OTP cal registers CD-CF in page 1 are written, (difference btw ext-int values), it is possible to measure analog value"
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color rgb="FF4472C4"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0xFE_0x00</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> "in base page"
-0x50[0]_1b0 "noise gate disabling"
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color rgb="FFFF33CC"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">DACPA_tourn _on_wo_calibration
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Wait__delay__10ms
-Read__17 "check result 0x0A to be in playback mode"
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-Measure__EXT_IDLE_OFFSET__diff__OUTP__OUTM
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">" we've measured the offset when the part will be in idle mode"
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color rgb="FF4472C4"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0xFE_0x01</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> "in test page"
-Save_CB_varCB "int offset idle"
-Save_CC_varCC "int offset idle"
-Save_CE_varCE "diff. ext-int in idle"
-Save_CF_varCF "diff. ext-int in idle"
-Copy__0xCB[7:4]__0xCC[3:0] "int/ext zero copied in int/ext idle"
-Copy__0xCA[7:4]__0xCB[3:0] "int/ext zero copied in int/ext idle"
-Copy__0xCA[3:0]__0xCC[7:4] "int/ext zero copied in int/ext idle"
-"This work-around has to be done because there is not the possibility to block idle offset ramp when we wont to measure zero register offset"
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-Measure__EXT_ZERO_OFFSET__diff__OUTP__OUTM
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">" we've measured the offset when the part will has zero signal"
-Restore_varCB_CB "int offset idle"
-Restore_varCC_CC "int offset idle"
-Restore_varCE_CE "diff. ext-int in idle"
-Restore_varCF_CF "diff. ext-int in idle"
-</t>
-    </r>
-  </si>
-  <si>
     <t xml:space="preserve">DAC-PA TDM_768_IN
 ForceTDM__-6_1000
 Measure__THD__AP
@@ -17099,6 +16731,374 @@
   </si>
   <si>
     <t>Measure Current/Mid/Low</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FFFF3399"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Run_Startup
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">0xFE_0x00 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">"in base page"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0x11[1:0]_2b00</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> "Input mode: TDM"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF4472C4"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0x32_0x41</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> "setting FSYN rate=384kHz and OSR=20"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0xE0[1:0]_2b00</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> "Calibration time 600us, change in case of issues"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0xE0[3:2]_2b00</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> "AZ mode time 300us, change in case of issues"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0xE2[0]_1b1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> "Internal calibration start"
+Wait__delay__20ms
+Read__E5 "bit[4] =1 indicates end of calibration"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">0xFE_0x01 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">"in test page"
+Read__CA-CC "OTP cal registers CA-CC in page 1 are written, not possible to measure analog value"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0xFE_0x00</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> "in base page"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">0xE2_0x00 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">"Reset internal calibration bit"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0xE2[0]_0x02</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> "External calibration start"
+Wait__delay__20ms
+Read__E5 "bit[4] =1 indicates end of calibration"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF4472C4"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0xFE_0x01</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FFFF3399"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">"in test page"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF4472C4"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Read__CD-CF</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> "OTP cal registers CD-CF in page 1 are written, (difference btw ext-int values), it is possible to measure analog value"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF4472C4"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0xFE_0x00</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> "in base page"
+0x50[0]_1b0 "noise gate disabling"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FFFF33CC"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">DACPA_tourn _on_wo_calibration
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Wait__delay__10ms
+Read__17 "check result 0x0A to be in playback mode"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Measure__EXT_IDLE_OFFSET__diff__OUTP__OUTM
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">" we've measured the offset when the part will be in idle mode"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF4472C4"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0xFE_0x01</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> "in test page"
+Save__0xCB__varCB "int offset idle"
+Save__0xCC__varCC "int offset idle"
+Save__0xCE__varCE "diff. ext-int in idle"
+Save__0xCF__varCF "diff. ext-int in idle"
+Copy__0xCB[7:4]__0xCC[3:0] "int/ext zero copied in int/ext idle"
+Copy__0xCA[7:4]__0xCB[3:0] "int/ext zero copied in int/ext idle"
+Copy__0xCA[3:0]__0xCC[7:4] "int/ext zero copied in int/ext idle"
+"This work-around has to be done because there is not the possibility to block idle offset ramp when we wont to measure zero register offset"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Measure__EXT_ZERO_OFFSET__diff__OUTP__OUTM
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">" we've measured the offset when the part will has zero signal"
+Restore_varCB_CB "int offset idle"
+Restore_varCC_CC "int offset idle"
+Restore_varCE_CE "diff. ext-int in idle"
+Restore_varCF_CF "diff. ext-int in idle"
+</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -18654,7 +18654,7 @@
         <v>13</v>
       </c>
       <c r="D5" s="37" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="E5" s="56" t="s">
         <v>14</v>
@@ -19495,7 +19495,7 @@
       <c r="A5" s="118"/>
       <c r="B5" s="119"/>
       <c r="C5" s="37" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="D5" s="37" t="s">
         <v>76</v>
@@ -21191,25 +21191,25 @@
         <v>142</v>
       </c>
       <c r="E5" s="102" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="F5" s="102" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="G5" s="102" t="s">
         <v>143</v>
       </c>
       <c r="H5" s="95" t="s">
+        <v>306</v>
+      </c>
+      <c r="I5" s="95" t="s">
         <v>307</v>
       </c>
-      <c r="I5" s="95" t="s">
-        <v>308</v>
-      </c>
       <c r="J5" s="95" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="K5" s="95" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="L5" s="102" t="s">
         <v>144</v>
@@ -21233,7 +21233,7 @@
         <v>150</v>
       </c>
       <c r="S5" s="95" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="T5" s="95" t="s">
         <v>151</v>
@@ -21245,7 +21245,7 @@
         <v>153</v>
       </c>
       <c r="W5" s="96" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="X5" s="97" t="s">
         <v>154</v>
@@ -21254,13 +21254,13 @@
         <v>155</v>
       </c>
       <c r="Z5" s="97" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="AA5" s="106" t="s">
+        <v>314</v>
+      </c>
+      <c r="AB5" s="106" t="s">
         <v>315</v>
-      </c>
-      <c r="AB5" s="106" t="s">
-        <v>316</v>
       </c>
     </row>
     <row r="6" spans="1:28" ht="27.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -25132,47 +25132,47 @@
       <c r="C5" s="104" t="s">
         <v>198</v>
       </c>
-      <c r="D5" s="56" t="s">
+      <c r="D5" s="37" t="s">
+        <v>341</v>
+      </c>
+      <c r="E5" s="88" t="s">
         <v>199</v>
       </c>
-      <c r="E5" s="88" t="s">
+      <c r="F5" s="88" t="s">
         <v>200</v>
       </c>
-      <c r="F5" s="88" t="s">
+      <c r="G5" s="88" t="s">
         <v>201</v>
       </c>
-      <c r="G5" s="88" t="s">
+      <c r="H5" s="88" t="s">
         <v>202</v>
       </c>
-      <c r="H5" s="88" t="s">
+      <c r="I5" s="88" t="s">
         <v>203</v>
       </c>
-      <c r="I5" s="88" t="s">
+      <c r="J5" s="88" t="s">
         <v>204</v>
       </c>
-      <c r="J5" s="88" t="s">
+      <c r="K5" s="88" t="s">
         <v>205</v>
       </c>
-      <c r="K5" s="88" t="s">
+      <c r="L5" s="88" t="s">
         <v>206</v>
       </c>
-      <c r="L5" s="88" t="s">
+      <c r="M5" s="56" t="s">
         <v>207</v>
       </c>
-      <c r="M5" s="56" t="s">
+      <c r="N5" s="56" t="s">
         <v>208</v>
       </c>
-      <c r="N5" s="56" t="s">
+      <c r="O5" s="56" t="s">
         <v>209</v>
       </c>
-      <c r="O5" s="56" t="s">
+      <c r="P5" s="56" t="s">
         <v>210</v>
       </c>
-      <c r="P5" s="56" t="s">
+      <c r="Q5" s="56" t="s">
         <v>211</v>
-      </c>
-      <c r="Q5" s="56" t="s">
-        <v>212</v>
       </c>
     </row>
     <row r="6" spans="1:17" ht="27.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -25227,41 +25227,41 @@
       <c r="C8" s="11"/>
       <c r="D8" s="11"/>
       <c r="E8" s="11" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F8" s="11" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="G8" s="11" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="H8" s="11" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="I8" s="11" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="J8" s="11" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="K8" s="11" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="L8" s="11"/>
       <c r="M8" s="11" t="s">
+        <v>213</v>
+      </c>
+      <c r="N8" s="11" t="s">
         <v>214</v>
       </c>
-      <c r="N8" s="11" t="s">
+      <c r="O8" s="11" t="s">
+        <v>214</v>
+      </c>
+      <c r="P8" s="11" t="s">
         <v>215</v>
       </c>
-      <c r="O8" s="11" t="s">
-        <v>215</v>
-      </c>
-      <c r="P8" s="11" t="s">
+      <c r="Q8" s="11" t="s">
         <v>216</v>
-      </c>
-      <c r="Q8" s="11" t="s">
-        <v>217</v>
       </c>
     </row>
     <row r="9" spans="1:17" ht="27.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -25273,7 +25273,7 @@
         <v>1</v>
       </c>
       <c r="D9" s="39" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E9" s="71"/>
       <c r="F9" s="71"/>
@@ -25316,47 +25316,47 @@
         <v>24</v>
       </c>
       <c r="C11" s="5" t="s">
+        <v>218</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>218</v>
+      </c>
+      <c r="E11" s="5" t="s">
         <v>219</v>
       </c>
-      <c r="D11" s="5" t="s">
+      <c r="F11" s="5" t="s">
         <v>219</v>
       </c>
-      <c r="E11" s="5" t="s">
-        <v>220</v>
-      </c>
-      <c r="F11" s="5" t="s">
-        <v>220</v>
-      </c>
       <c r="G11" s="5" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="H11" s="5" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="I11" s="5" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="J11" s="5" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="K11" s="5" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="L11" s="5"/>
       <c r="M11" s="5" t="s">
+        <v>220</v>
+      </c>
+      <c r="N11" s="5" t="s">
         <v>221</v>
       </c>
-      <c r="N11" s="5" t="s">
-        <v>222</v>
-      </c>
       <c r="O11" s="5" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="P11" s="5" t="s">
         <v>25</v>
       </c>
       <c r="Q11" s="5" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="12" spans="1:17" ht="20.25" customHeight="1" x14ac:dyDescent="0.4">
@@ -25676,13 +25676,13 @@
       </c>
       <c r="C20" s="50"/>
       <c r="D20" s="50" t="s">
+        <v>223</v>
+      </c>
+      <c r="E20" s="50" t="s">
         <v>224</v>
       </c>
-      <c r="E20" s="50" t="s">
-        <v>225</v>
-      </c>
       <c r="F20" s="50" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="G20" s="90"/>
       <c r="I20" s="76"/>
@@ -25703,29 +25703,29 @@
         <v>48</v>
       </c>
       <c r="C21" s="50" t="s">
+        <v>225</v>
+      </c>
+      <c r="D21" s="50" t="s">
         <v>226</v>
       </c>
-      <c r="D21" s="50" t="s">
+      <c r="E21" s="50" t="s">
         <v>227</v>
-      </c>
-      <c r="E21" s="50" t="s">
-        <v>228</v>
       </c>
       <c r="F21" s="50"/>
       <c r="G21" s="50" t="s">
+        <v>228</v>
+      </c>
+      <c r="H21" s="50" t="s">
         <v>229</v>
       </c>
-      <c r="H21" s="50" t="s">
+      <c r="I21" s="76" t="s">
         <v>230</v>
       </c>
-      <c r="I21" s="76" t="s">
-        <v>231</v>
-      </c>
       <c r="J21" s="76" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="K21" s="76" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="L21" s="76"/>
       <c r="M21" s="50"/>
@@ -25742,31 +25742,31 @@
         <v>50</v>
       </c>
       <c r="C22" s="50" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D22" s="50" t="s">
+        <v>231</v>
+      </c>
+      <c r="E22" s="50" t="s">
         <v>232</v>
       </c>
-      <c r="E22" s="50" t="s">
+      <c r="F22" s="50" t="s">
+        <v>232</v>
+      </c>
+      <c r="G22" s="50" t="s">
         <v>233</v>
       </c>
-      <c r="F22" s="50" t="s">
-        <v>233</v>
-      </c>
-      <c r="G22" s="50" t="s">
+      <c r="H22" s="50" t="s">
         <v>234</v>
       </c>
-      <c r="H22" s="50" t="s">
+      <c r="I22" s="76" t="s">
         <v>235</v>
       </c>
-      <c r="I22" s="76" t="s">
+      <c r="J22" s="76" t="s">
         <v>236</v>
       </c>
-      <c r="J22" s="76" t="s">
+      <c r="K22" s="76" t="s">
         <v>237</v>
-      </c>
-      <c r="K22" s="76" t="s">
-        <v>238</v>
       </c>
       <c r="L22" s="76"/>
       <c r="M22" s="50"/>
@@ -25852,31 +25852,31 @@
         <v>58</v>
       </c>
       <c r="C26" s="50" t="s">
+        <v>238</v>
+      </c>
+      <c r="D26" s="50" t="s">
+        <v>238</v>
+      </c>
+      <c r="E26" s="50" t="s">
         <v>239</v>
       </c>
-      <c r="D26" s="50" t="s">
+      <c r="F26" s="50" t="s">
         <v>239</v>
       </c>
-      <c r="E26" s="50" t="s">
-        <v>240</v>
-      </c>
-      <c r="F26" s="50" t="s">
-        <v>240</v>
-      </c>
       <c r="G26" s="50" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="H26" s="50" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="I26" s="50" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="J26" s="50" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="K26" s="50" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="L26" s="50"/>
       <c r="M26" s="50"/>
@@ -25893,31 +25893,31 @@
         <v>60</v>
       </c>
       <c r="C27" s="50" t="s">
+        <v>238</v>
+      </c>
+      <c r="D27" s="50" t="s">
+        <v>238</v>
+      </c>
+      <c r="E27" s="50" t="s">
         <v>239</v>
       </c>
-      <c r="D27" s="50" t="s">
+      <c r="F27" s="50" t="s">
         <v>239</v>
       </c>
-      <c r="E27" s="50" t="s">
-        <v>240</v>
-      </c>
-      <c r="F27" s="50" t="s">
-        <v>240</v>
-      </c>
       <c r="G27" s="50" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="H27" s="50" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="I27" s="50" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="J27" s="50" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="K27" s="50" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="L27" s="50"/>
       <c r="M27" s="50"/>
@@ -27567,23 +27567,23 @@
       </c>
       <c r="B4" s="117"/>
       <c r="C4" s="9" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="D4" s="9"/>
       <c r="E4" s="9" t="s">
+        <v>321</v>
+      </c>
+      <c r="F4" s="9" t="s">
         <v>322</v>
       </c>
-      <c r="F4" s="9" t="s">
+      <c r="G4" s="9" t="s">
         <v>323</v>
       </c>
-      <c r="G4" s="9" t="s">
+      <c r="H4" s="9" t="s">
         <v>324</v>
       </c>
-      <c r="H4" s="9" t="s">
+      <c r="I4" s="9" t="s">
         <v>325</v>
-      </c>
-      <c r="I4" s="9" t="s">
-        <v>326</v>
       </c>
       <c r="J4" s="9"/>
       <c r="K4" s="9"/>
@@ -27594,7 +27594,7 @@
       <c r="A5" s="118"/>
       <c r="B5" s="118"/>
       <c r="C5" s="56" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="D5" s="107" t="str">
         <f>TRIM(SUBSTITUTE(C5,CHAR(32),""))</f>
@@ -27603,31 +27603,31 @@
 </v>
       </c>
       <c r="E5" s="56" t="s">
+        <v>327</v>
+      </c>
+      <c r="F5" s="56" t="s">
         <v>328</v>
       </c>
-      <c r="F5" s="56" t="s">
+      <c r="G5" s="56" t="s">
         <v>329</v>
       </c>
-      <c r="G5" s="56" t="s">
+      <c r="H5" s="56" t="s">
         <v>330</v>
       </c>
-      <c r="H5" s="56" t="s">
+      <c r="I5" s="56" t="s">
         <v>331</v>
       </c>
-      <c r="I5" s="56" t="s">
+      <c r="J5" s="56" t="s">
         <v>332</v>
       </c>
-      <c r="J5" s="56" t="s">
+      <c r="K5" s="56" t="s">
         <v>333</v>
       </c>
-      <c r="K5" s="56" t="s">
+      <c r="L5" s="56" t="s">
         <v>334</v>
       </c>
-      <c r="L5" s="56" t="s">
+      <c r="M5" s="56" t="s">
         <v>335</v>
-      </c>
-      <c r="M5" s="56" t="s">
-        <v>336</v>
       </c>
     </row>
     <row r="6" spans="1:13" ht="27.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -27676,31 +27676,31 @@
       </c>
       <c r="D8" s="11"/>
       <c r="E8" s="11" t="s">
+        <v>336</v>
+      </c>
+      <c r="F8" s="11" t="s">
         <v>337</v>
       </c>
-      <c r="F8" s="11" t="s">
-        <v>338</v>
-      </c>
       <c r="G8" s="11" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="H8" s="11" t="s">
         <v>64</v>
       </c>
       <c r="I8" s="11" t="s">
+        <v>338</v>
+      </c>
+      <c r="J8" s="11" t="s">
+        <v>338</v>
+      </c>
+      <c r="K8" s="11" t="s">
+        <v>338</v>
+      </c>
+      <c r="L8" s="11" t="s">
+        <v>338</v>
+      </c>
+      <c r="M8" s="11" t="s">
         <v>339</v>
-      </c>
-      <c r="J8" s="11" t="s">
-        <v>339</v>
-      </c>
-      <c r="K8" s="11" t="s">
-        <v>339</v>
-      </c>
-      <c r="L8" s="11" t="s">
-        <v>339</v>
-      </c>
-      <c r="M8" s="11" t="s">
-        <v>340</v>
       </c>
     </row>
     <row r="9" spans="1:13" ht="27.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -27957,7 +27957,7 @@
         <v>40</v>
       </c>
       <c r="C17" s="109" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="D17" s="109"/>
       <c r="E17" s="50" t="s">
@@ -29398,84 +29398,84 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" s="57" t="s">
+        <v>240</v>
+      </c>
+      <c r="B1" s="57" t="s">
         <v>241</v>
       </c>
-      <c r="B1" s="57" t="s">
+      <c r="C1" s="57" t="s">
         <v>242</v>
       </c>
-      <c r="C1" s="57" t="s">
+      <c r="D1" s="57" t="s">
         <v>243</v>
       </c>
-      <c r="D1" s="57" t="s">
+      <c r="E1" s="57" t="s">
         <v>244</v>
       </c>
-      <c r="E1" s="57" t="s">
+      <c r="F1" s="57" t="s">
         <v>245</v>
       </c>
-      <c r="F1" s="57" t="s">
+      <c r="G1" s="57" t="s">
         <v>246</v>
       </c>
-      <c r="G1" s="57" t="s">
+      <c r="H1" s="57" t="s">
         <v>247</v>
       </c>
-      <c r="H1" s="57" t="s">
+      <c r="I1" s="57" t="s">
         <v>248</v>
       </c>
-      <c r="I1" s="57" t="s">
+      <c r="J1" s="57" t="s">
         <v>249</v>
       </c>
-      <c r="J1" s="57" t="s">
+      <c r="K1" s="57" t="s">
         <v>250</v>
       </c>
-      <c r="K1" s="57" t="s">
+      <c r="L1" s="57" t="s">
         <v>251</v>
       </c>
-      <c r="L1" s="57" t="s">
+      <c r="M1" s="57" t="s">
         <v>252</v>
-      </c>
-      <c r="M1" s="57" t="s">
-        <v>253</v>
       </c>
     </row>
     <row r="2" spans="1:13" s="92" customFormat="1" ht="408.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="37" t="s">
+        <v>253</v>
+      </c>
+      <c r="B2" s="103" t="s">
+        <v>310</v>
+      </c>
+      <c r="C2" s="37" t="s">
         <v>254</v>
       </c>
-      <c r="B2" s="103" t="s">
-        <v>311</v>
-      </c>
-      <c r="C2" s="37" t="s">
+      <c r="D2" s="83" t="s">
         <v>255</v>
       </c>
-      <c r="D2" s="83" t="s">
+      <c r="E2" s="105" t="s">
         <v>256</v>
       </c>
-      <c r="E2" s="105" t="s">
+      <c r="F2" s="105" t="s">
         <v>257</v>
       </c>
-      <c r="F2" s="105" t="s">
+      <c r="G2" s="105" t="s">
         <v>258</v>
       </c>
-      <c r="G2" s="105" t="s">
+      <c r="H2" s="105" t="s">
         <v>259</v>
       </c>
-      <c r="H2" s="105" t="s">
+      <c r="I2" s="105" t="s">
         <v>260</v>
       </c>
-      <c r="I2" s="105" t="s">
+      <c r="J2" s="105" t="s">
         <v>261</v>
       </c>
-      <c r="J2" s="105" t="s">
+      <c r="K2" s="105" t="s">
         <v>262</v>
       </c>
-      <c r="K2" s="105" t="s">
+      <c r="L2" s="105" t="s">
         <v>263</v>
       </c>
-      <c r="L2" s="105" t="s">
+      <c r="M2" s="105" t="s">
         <v>264</v>
-      </c>
-      <c r="M2" s="105" t="s">
-        <v>265</v>
       </c>
     </row>
   </sheetData>
@@ -29488,7 +29488,7 @@
   <dimension ref="A1:K18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -29504,177 +29504,177 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="26" t="s">
+        <v>265</v>
+      </c>
+      <c r="J1" s="26" t="s">
         <v>266</v>
-      </c>
-      <c r="J1" s="26" t="s">
-        <v>267</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="25" t="s">
+        <v>267</v>
+      </c>
+      <c r="J2" s="25" t="s">
         <v>268</v>
-      </c>
-      <c r="J2" s="25" t="s">
-        <v>269</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="25" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="J3" s="25"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" s="25" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="J4" s="25"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="25" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="J5" s="25"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="25" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B6" s="23"/>
       <c r="C6" s="23" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D6" s="23"/>
       <c r="E6" s="23" t="s">
+        <v>274</v>
+      </c>
+      <c r="F6" s="23" t="s">
         <v>275</v>
       </c>
-      <c r="F6" s="23" t="s">
+      <c r="G6" s="23" t="s">
         <v>276</v>
       </c>
-      <c r="G6" s="23" t="s">
+      <c r="H6" s="24" t="s">
         <v>277</v>
       </c>
-      <c r="H6" s="24" t="s">
+      <c r="J6" s="25" t="s">
         <v>278</v>
       </c>
-      <c r="J6" s="25" t="s">
+      <c r="K6" s="58" t="s">
         <v>279</v>
-      </c>
-      <c r="K6" s="58" t="s">
-        <v>280</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="25" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="J7" s="25"/>
       <c r="K7" s="58" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" s="25" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B8" s="89"/>
       <c r="C8" s="23" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D8" s="23"/>
       <c r="E8" s="23" t="s">
+        <v>282</v>
+      </c>
+      <c r="F8" s="23" t="s">
         <v>283</v>
       </c>
-      <c r="F8" s="23" t="s">
+      <c r="G8" s="23" t="s">
         <v>284</v>
       </c>
-      <c r="G8" s="23" t="s">
+      <c r="H8" s="24" t="s">
         <v>285</v>
-      </c>
-      <c r="H8" s="24" t="s">
-        <v>286</v>
       </c>
       <c r="J8" s="25"/>
       <c r="K8" s="58"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="25" t="s">
+        <v>286</v>
+      </c>
+      <c r="J9" s="25" t="s">
         <v>287</v>
-      </c>
-      <c r="J9" s="25" t="s">
-        <v>288</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="25" t="s">
+        <v>288</v>
+      </c>
+      <c r="J10" s="25" t="s">
         <v>289</v>
-      </c>
-      <c r="J10" s="25" t="s">
-        <v>290</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="25" t="s">
+        <v>290</v>
+      </c>
+      <c r="J11" s="25" t="s">
         <v>291</v>
-      </c>
-      <c r="J11" s="25" t="s">
-        <v>292</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="25" t="s">
+        <v>292</v>
+      </c>
+      <c r="J12" s="25" t="s">
         <v>293</v>
-      </c>
-      <c r="J12" s="25" t="s">
-        <v>294</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="25" t="s">
+        <v>294</v>
+      </c>
+      <c r="J13" s="25" t="s">
         <v>295</v>
-      </c>
-      <c r="J13" s="25" t="s">
-        <v>296</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="25" t="s">
+        <v>296</v>
+      </c>
+      <c r="J14" s="25" t="s">
         <v>297</v>
-      </c>
-      <c r="J14" s="25" t="s">
-        <v>298</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="25" t="s">
+        <v>298</v>
+      </c>
+      <c r="J15" s="25" t="s">
         <v>299</v>
-      </c>
-      <c r="J15" s="25" t="s">
-        <v>300</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="25" t="s">
+        <v>300</v>
+      </c>
+      <c r="J16" s="25" t="s">
         <v>301</v>
-      </c>
-      <c r="J16" s="25" t="s">
-        <v>302</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" s="25" t="s">
+        <v>302</v>
+      </c>
+      <c r="J17" s="25" t="s">
         <v>303</v>
-      </c>
-      <c r="J17" s="25" t="s">
-        <v>304</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" s="25" t="s">
+        <v>304</v>
+      </c>
+      <c r="J18" s="25" t="s">
         <v>305</v>
-      </c>
-      <c r="J18" s="25" t="s">
-        <v>306</v>
       </c>
     </row>
   </sheetData>
@@ -29683,6 +29683,17 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="e658002f-fdfe-4e4b-94aa-0526ee42a8ac">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="4ad8f8a2-17e7-49a9-8390-22f3c8f42b39" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100C9B53A5B1F235B4EBDF9F22062DFC34D" ma:contentTypeVersion="12" ma:contentTypeDescription="Creare un nuovo documento." ma:contentTypeScope="" ma:versionID="ad5b12d537450e73edf2af95672e184c">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="e658002f-fdfe-4e4b-94aa-0526ee42a8ac" xmlns:ns3="4ad8f8a2-17e7-49a9-8390-22f3c8f42b39" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="ac16958afaf1bb0d1dccad67078e8e2c" ns2:_="" ns3:_="">
     <xsd:import namespace="e658002f-fdfe-4e4b-94aa-0526ee42a8ac"/>
@@ -29899,17 +29910,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="e658002f-fdfe-4e4b-94aa-0526ee42a8ac">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="4ad8f8a2-17e7-49a9-8390-22f3c8f42b39" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -29920,6 +29920,23 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7CBF6B91-9305-4674-87E0-A56D6B941238}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="4ad8f8a2-17e7-49a9-8390-22f3c8f42b39"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="e658002f-fdfe-4e4b-94aa-0526ee42a8ac"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{31D0029D-E8A7-4DC9-B140-19D450DFB7E0}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -29938,23 +29955,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7CBF6B91-9305-4674-87E0-A56D6B941238}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="4ad8f8a2-17e7-49a9-8390-22f3c8f42b39"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="e658002f-fdfe-4e4b-94aa-0526ee42a8ac"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BA99F9FA-472B-49CB-8CD8-32BE0FD0DC5E}">
   <ds:schemaRefs>

--- a/raw_data/IVM6311_Testing_scripts.xlsx
+++ b/raw_data/IVM6311_Testing_scripts.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\harkum\Documents\6311\Software\raw_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{801D9AD1-FADA-4F8F-9AF5-3BD818041DDA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15BE12B7-4E3C-43D5-9E00-E6021F92587E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="30612" yWindow="-108" windowWidth="30936" windowHeight="16776" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17093,10 +17093,10 @@
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">" we've measured the offset when the part will has zero signal"
-Restore_varCB_CB "int offset idle"
-Restore_varCC_CC "int offset idle"
-Restore_varCE_CE "diff. ext-int in idle"
-Restore_varCF_CF "diff. ext-int in idle"
+Restore__varCB__0xCB "int offset idle"
+Restore__varCC__0x+D5CC "int offset idle"
+Restore__varCE__0xCE "diff. ext-int in idle"
+Restore__varCF__0xCF "diff. ext-int in idle"
 </t>
     </r>
   </si>
@@ -24906,7 +24906,7 @@
   </sheetPr>
   <dimension ref="A1:Q104"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
@@ -29683,17 +29683,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="e658002f-fdfe-4e4b-94aa-0526ee42a8ac">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="4ad8f8a2-17e7-49a9-8390-22f3c8f42b39" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100C9B53A5B1F235B4EBDF9F22062DFC34D" ma:contentTypeVersion="12" ma:contentTypeDescription="Creare un nuovo documento." ma:contentTypeScope="" ma:versionID="ad5b12d537450e73edf2af95672e184c">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="e658002f-fdfe-4e4b-94aa-0526ee42a8ac" xmlns:ns3="4ad8f8a2-17e7-49a9-8390-22f3c8f42b39" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="ac16958afaf1bb0d1dccad67078e8e2c" ns2:_="" ns3:_="">
     <xsd:import namespace="e658002f-fdfe-4e4b-94aa-0526ee42a8ac"/>
@@ -29910,6 +29899,17 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="e658002f-fdfe-4e4b-94aa-0526ee42a8ac">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="4ad8f8a2-17e7-49a9-8390-22f3c8f42b39" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -29920,23 +29920,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7CBF6B91-9305-4674-87E0-A56D6B941238}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="4ad8f8a2-17e7-49a9-8390-22f3c8f42b39"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="e658002f-fdfe-4e4b-94aa-0526ee42a8ac"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{31D0029D-E8A7-4DC9-B140-19D450DFB7E0}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -29955,6 +29938,23 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7CBF6B91-9305-4674-87E0-A56D6B941238}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="4ad8f8a2-17e7-49a9-8390-22f3c8f42b39"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="e658002f-fdfe-4e4b-94aa-0526ee42a8ac"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BA99F9FA-472B-49CB-8CD8-32BE0FD0DC5E}">
   <ds:schemaRefs>

--- a/raw_data/IVM6311_Testing_scripts.xlsx
+++ b/raw_data/IVM6311_Testing_scripts.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\harkum\Documents\6311\Software\raw_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15BE12B7-4E3C-43D5-9E00-E6021F92587E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18988359-38DD-4D94-9BD5-BA6291A16D0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30612" yWindow="-108" windowWidth="30936" windowHeight="16776" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="30612" yWindow="-108" windowWidth="30936" windowHeight="16776" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Revision" sheetId="3" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1170" uniqueCount="342">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1165" uniqueCount="338">
   <si>
     <t>Revision</t>
   </si>
@@ -1090,28 +1090,16 @@
     </r>
   </si>
   <si>
-    <t>12,5</t>
-  </si>
-  <si>
     <t>VBAT</t>
   </si>
   <si>
-    <t>1,799</t>
-  </si>
-  <si>
     <t>820m</t>
   </si>
   <si>
     <t>520n</t>
   </si>
   <si>
-    <t>0,542</t>
-  </si>
-  <si>
     <t>13</t>
-  </si>
-  <si>
-    <t>13,5</t>
   </si>
   <si>
     <t>A</t>
@@ -17105,6 +17093,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="3">
+    <numFmt numFmtId="167" formatCode="#,##0.0000"/>
+    <numFmt numFmtId="168" formatCode="0.000"/>
+    <numFmt numFmtId="169" formatCode="0.0000"/>
+  </numFmts>
   <fonts count="73" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -17890,7 +17883,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="125">
+  <cellXfs count="135">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -18181,6 +18174,36 @@
     </xf>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="4" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="4" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="29" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="169" fontId="4" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="169" fontId="4" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="168" fontId="4" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="169" fontId="4" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -18578,8 +18601,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40D91B9C-5E8C-479A-83F9-A38D53329BF0}">
   <dimension ref="A1:E104"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -18654,7 +18677,7 @@
         <v>13</v>
       </c>
       <c r="D5" s="37" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="E5" s="56" t="s">
         <v>14</v>
@@ -18667,14 +18690,14 @@
       <c r="B6" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="38">
-        <v>1793</v>
-      </c>
-      <c r="D6" s="38">
-        <v>1793</v>
-      </c>
-      <c r="E6" s="38">
-        <v>1793</v>
+      <c r="C6" s="126">
+        <v>1.7929999999999999</v>
+      </c>
+      <c r="D6" s="126">
+        <v>1.7929999999999999</v>
+      </c>
+      <c r="E6" s="126">
+        <v>1.7929999999999999</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="22.2" x14ac:dyDescent="0.35">
@@ -18712,14 +18735,14 @@
       <c r="B9" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="C9" s="39">
-        <v>1804</v>
-      </c>
-      <c r="D9" s="39">
-        <v>1804</v>
-      </c>
-      <c r="E9" s="39">
-        <v>1804</v>
+      <c r="C9" s="127">
+        <v>1.804</v>
+      </c>
+      <c r="D9" s="127">
+        <v>1.804</v>
+      </c>
+      <c r="E9" s="127">
+        <v>1.804</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="22.2" x14ac:dyDescent="0.35">
@@ -19375,7 +19398,7 @@
   <dimension ref="A1:I104"/>
   <sheetViews>
     <sheetView topLeftCell="B1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -19495,7 +19518,7 @@
       <c r="A5" s="118"/>
       <c r="B5" s="119"/>
       <c r="C5" s="37" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="D5" s="37" t="s">
         <v>76</v>
@@ -19523,18 +19546,18 @@
       <c r="B6" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="67"/>
-      <c r="D6" s="38">
-        <v>1793</v>
-      </c>
-      <c r="E6" s="38"/>
-      <c r="F6" s="38"/>
-      <c r="G6" s="38"/>
-      <c r="H6" s="38">
-        <v>1796</v>
-      </c>
-      <c r="I6" s="38" t="s">
-        <v>82</v>
+      <c r="C6" s="129"/>
+      <c r="D6" s="134">
+        <v>1.7929999999999999</v>
+      </c>
+      <c r="E6" s="125"/>
+      <c r="F6" s="125"/>
+      <c r="G6" s="125"/>
+      <c r="H6" s="134">
+        <v>1.796</v>
+      </c>
+      <c r="I6" s="133">
+        <v>12.5</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="27.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -19558,25 +19581,25 @@
         <v>19</v>
       </c>
       <c r="C8" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="D8" s="131">
+        <v>1.7989999999999999</v>
+      </c>
+      <c r="E8" s="128" t="s">
         <v>83</v>
       </c>
-      <c r="D8" s="11" t="s">
+      <c r="F8" s="128" t="s">
         <v>84</v>
       </c>
-      <c r="E8" s="11" t="s">
+      <c r="G8" s="131">
+        <v>0.54200000000000004</v>
+      </c>
+      <c r="H8" s="131">
+        <v>1.7989999999999999</v>
+      </c>
+      <c r="I8" s="128" t="s">
         <v>85</v>
-      </c>
-      <c r="F8" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="G8" s="11" t="s">
-        <v>87</v>
-      </c>
-      <c r="H8" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="I8" s="11" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="27.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -19585,17 +19608,17 @@
         <v>21</v>
       </c>
       <c r="C9" s="39"/>
-      <c r="D9" s="39">
-        <v>1804</v>
-      </c>
-      <c r="E9" s="39"/>
-      <c r="F9" s="39"/>
-      <c r="G9" s="39"/>
-      <c r="H9" s="39">
-        <v>1802</v>
-      </c>
-      <c r="I9" s="39" t="s">
-        <v>89</v>
+      <c r="D9" s="132">
+        <v>1.804</v>
+      </c>
+      <c r="E9" s="130"/>
+      <c r="F9" s="130"/>
+      <c r="G9" s="130"/>
+      <c r="H9" s="132">
+        <v>1.802</v>
+      </c>
+      <c r="I9" s="130">
+        <v>13.5</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="27.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -19628,7 +19651,7 @@
         <v>25</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="G11" s="5" t="s">
         <v>25</v>
@@ -19637,7 +19660,7 @@
         <v>25</v>
       </c>
       <c r="I11" s="5" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.4">
@@ -19783,22 +19806,22 @@
         <v>40</v>
       </c>
       <c r="C17" s="50" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="D17" s="50" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="E17" s="50" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="F17" s="50" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="G17" s="50" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="H17" s="50" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="I17" s="50"/>
     </row>
@@ -19846,7 +19869,7 @@
       <c r="G20" s="50"/>
       <c r="H20" s="50"/>
       <c r="I20" s="50" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
     </row>
     <row r="21" spans="1:9" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -20835,7 +20858,7 @@
   </sheetPr>
   <dimension ref="A1:AB104"/>
   <sheetViews>
-    <sheetView topLeftCell="R4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A5" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="S5" sqref="S5"/>
     </sheetView>
   </sheetViews>
@@ -20855,7 +20878,7 @@
       </c>
       <c r="B1" s="121"/>
       <c r="C1" s="17" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="D1" s="17" t="s">
         <v>5</v>
@@ -21037,64 +21060,64 @@
         <v>68</v>
       </c>
       <c r="I3" s="64" t="s">
+        <v>92</v>
+      </c>
+      <c r="J3" s="64" t="s">
+        <v>93</v>
+      </c>
+      <c r="K3" s="64" t="s">
+        <v>94</v>
+      </c>
+      <c r="L3" s="64" t="s">
+        <v>95</v>
+      </c>
+      <c r="M3" s="64" t="s">
         <v>96</v>
       </c>
-      <c r="J3" s="64" t="s">
+      <c r="N3" s="64" t="s">
         <v>97</v>
       </c>
-      <c r="K3" s="64" t="s">
+      <c r="O3" s="64" t="s">
         <v>98</v>
       </c>
-      <c r="L3" s="64" t="s">
+      <c r="P3" s="64" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q3" s="64" t="s">
         <v>99</v>
       </c>
-      <c r="M3" s="64" t="s">
+      <c r="R3" s="64" t="s">
         <v>100</v>
       </c>
-      <c r="N3" s="64" t="s">
+      <c r="S3" s="64" t="s">
         <v>101</v>
       </c>
-      <c r="O3" s="64" t="s">
+      <c r="T3" s="64" t="s">
         <v>102</v>
       </c>
-      <c r="P3" s="64" t="s">
-        <v>88</v>
-      </c>
-      <c r="Q3" s="64" t="s">
+      <c r="U3" s="64" t="s">
         <v>103</v>
       </c>
-      <c r="R3" s="64" t="s">
+      <c r="V3" s="64" t="s">
         <v>104</v>
       </c>
-      <c r="S3" s="64" t="s">
+      <c r="W3" s="64" t="s">
         <v>105</v>
       </c>
-      <c r="T3" s="64" t="s">
+      <c r="X3" s="64" t="s">
         <v>106</v>
       </c>
-      <c r="U3" s="64" t="s">
+      <c r="Y3" s="64" t="s">
         <v>107</v>
       </c>
-      <c r="V3" s="64" t="s">
+      <c r="Z3" s="64" t="s">
         <v>108</v>
       </c>
-      <c r="W3" s="64" t="s">
+      <c r="AA3" s="64" t="s">
         <v>109</v>
       </c>
-      <c r="X3" s="64" t="s">
+      <c r="AB3" s="64" t="s">
         <v>110</v>
-      </c>
-      <c r="Y3" s="64" t="s">
-        <v>111</v>
-      </c>
-      <c r="Z3" s="64" t="s">
-        <v>112</v>
-      </c>
-      <c r="AA3" s="64" t="s">
-        <v>113</v>
-      </c>
-      <c r="AB3" s="64" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="4" spans="1:28" s="1" customFormat="1" ht="74.400000000000006" customHeight="1" x14ac:dyDescent="0.4">
@@ -21103,164 +21126,164 @@
       </c>
       <c r="B4" s="121"/>
       <c r="C4" s="65" t="s">
+        <v>111</v>
+      </c>
+      <c r="D4" s="65" t="s">
+        <v>112</v>
+      </c>
+      <c r="E4" s="65" t="s">
+        <v>113</v>
+      </c>
+      <c r="F4" s="65" t="s">
+        <v>114</v>
+      </c>
+      <c r="G4" s="65" t="s">
         <v>115</v>
       </c>
-      <c r="D4" s="65" t="s">
+      <c r="H4" s="65" t="s">
         <v>116</v>
       </c>
-      <c r="E4" s="65" t="s">
+      <c r="I4" s="65" t="s">
         <v>117</v>
       </c>
-      <c r="F4" s="65" t="s">
+      <c r="J4" s="65" t="s">
         <v>118</v>
       </c>
-      <c r="G4" s="65" t="s">
+      <c r="K4" s="65" t="s">
         <v>119</v>
       </c>
-      <c r="H4" s="65" t="s">
+      <c r="L4" s="65" t="s">
         <v>120</v>
       </c>
-      <c r="I4" s="65" t="s">
+      <c r="M4" s="65" t="s">
         <v>121</v>
       </c>
-      <c r="J4" s="65" t="s">
+      <c r="N4" s="65" t="s">
         <v>122</v>
       </c>
-      <c r="K4" s="65" t="s">
+      <c r="O4" s="65" t="s">
         <v>123</v>
       </c>
-      <c r="L4" s="65" t="s">
+      <c r="P4" s="9" t="s">
         <v>124</v>
       </c>
-      <c r="M4" s="65" t="s">
+      <c r="Q4" s="65" t="s">
         <v>125</v>
       </c>
-      <c r="N4" s="65" t="s">
+      <c r="R4" s="65" t="s">
         <v>126</v>
       </c>
-      <c r="O4" s="65" t="s">
+      <c r="S4" s="65" t="s">
         <v>127</v>
       </c>
-      <c r="P4" s="9" t="s">
+      <c r="T4" s="65" t="s">
         <v>128</v>
       </c>
-      <c r="Q4" s="65" t="s">
+      <c r="U4" s="65" t="s">
         <v>129</v>
       </c>
-      <c r="R4" s="65" t="s">
+      <c r="V4" s="65" t="s">
         <v>130</v>
       </c>
-      <c r="S4" s="65" t="s">
+      <c r="W4" s="65" t="s">
         <v>131</v>
       </c>
-      <c r="T4" s="65" t="s">
+      <c r="X4" s="9" t="s">
         <v>132</v>
       </c>
-      <c r="U4" s="65" t="s">
+      <c r="Y4" s="9" t="s">
         <v>133</v>
       </c>
-      <c r="V4" s="65" t="s">
+      <c r="Z4" s="65" t="s">
         <v>134</v>
       </c>
-      <c r="W4" s="65" t="s">
+      <c r="AA4" s="65" t="s">
         <v>135</v>
       </c>
-      <c r="X4" s="9" t="s">
+      <c r="AB4" s="9" t="s">
         <v>136</v>
-      </c>
-      <c r="Y4" s="9" t="s">
-        <v>137</v>
-      </c>
-      <c r="Z4" s="65" t="s">
-        <v>138</v>
-      </c>
-      <c r="AA4" s="65" t="s">
-        <v>139</v>
-      </c>
-      <c r="AB4" s="9" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="5" spans="1:28" s="1" customFormat="1" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A5" s="122"/>
       <c r="B5" s="123"/>
       <c r="C5" s="102" t="s">
+        <v>137</v>
+      </c>
+      <c r="D5" s="102" t="s">
+        <v>138</v>
+      </c>
+      <c r="E5" s="102" t="s">
+        <v>305</v>
+      </c>
+      <c r="F5" s="102" t="s">
+        <v>304</v>
+      </c>
+      <c r="G5" s="102" t="s">
+        <v>139</v>
+      </c>
+      <c r="H5" s="95" t="s">
+        <v>302</v>
+      </c>
+      <c r="I5" s="95" t="s">
+        <v>303</v>
+      </c>
+      <c r="J5" s="95" t="s">
+        <v>308</v>
+      </c>
+      <c r="K5" s="95" t="s">
+        <v>313</v>
+      </c>
+      <c r="L5" s="102" t="s">
+        <v>140</v>
+      </c>
+      <c r="M5" s="102" t="s">
         <v>141</v>
       </c>
-      <c r="D5" s="102" t="s">
+      <c r="N5" s="102" t="s">
         <v>142</v>
       </c>
-      <c r="E5" s="102" t="s">
+      <c r="O5" s="102" t="s">
+        <v>143</v>
+      </c>
+      <c r="P5" s="102" t="s">
+        <v>144</v>
+      </c>
+      <c r="Q5" s="102" t="s">
+        <v>145</v>
+      </c>
+      <c r="R5" s="102" t="s">
+        <v>146</v>
+      </c>
+      <c r="S5" s="95" t="s">
+        <v>315</v>
+      </c>
+      <c r="T5" s="95" t="s">
+        <v>147</v>
+      </c>
+      <c r="U5" s="95" t="s">
+        <v>148</v>
+      </c>
+      <c r="V5" s="95" t="s">
+        <v>149</v>
+      </c>
+      <c r="W5" s="96" t="s">
         <v>309</v>
       </c>
-      <c r="F5" s="102" t="s">
-        <v>308</v>
-      </c>
-      <c r="G5" s="102" t="s">
-        <v>143</v>
-      </c>
-      <c r="H5" s="95" t="s">
-        <v>306</v>
-      </c>
-      <c r="I5" s="95" t="s">
-        <v>307</v>
-      </c>
-      <c r="J5" s="95" t="s">
-        <v>312</v>
-      </c>
-      <c r="K5" s="95" t="s">
-        <v>317</v>
-      </c>
-      <c r="L5" s="102" t="s">
-        <v>144</v>
-      </c>
-      <c r="M5" s="102" t="s">
-        <v>145</v>
-      </c>
-      <c r="N5" s="102" t="s">
-        <v>146</v>
-      </c>
-      <c r="O5" s="102" t="s">
-        <v>147</v>
-      </c>
-      <c r="P5" s="102" t="s">
-        <v>148</v>
-      </c>
-      <c r="Q5" s="102" t="s">
-        <v>149</v>
-      </c>
-      <c r="R5" s="102" t="s">
+      <c r="X5" s="97" t="s">
         <v>150</v>
       </c>
-      <c r="S5" s="95" t="s">
-        <v>319</v>
-      </c>
-      <c r="T5" s="95" t="s">
+      <c r="Y5" s="97" t="s">
         <v>151</v>
       </c>
-      <c r="U5" s="95" t="s">
-        <v>152</v>
-      </c>
-      <c r="V5" s="95" t="s">
-        <v>153</v>
-      </c>
-      <c r="W5" s="96" t="s">
-        <v>313</v>
-      </c>
-      <c r="X5" s="97" t="s">
-        <v>154</v>
-      </c>
-      <c r="Y5" s="97" t="s">
-        <v>155</v>
-      </c>
       <c r="Z5" s="97" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="AA5" s="106" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="AB5" s="106" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
     </row>
     <row r="6" spans="1:28" ht="27.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -21272,7 +21295,7 @@
       </c>
       <c r="C6" s="66"/>
       <c r="D6" s="67" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="E6" s="67">
         <v>2</v>
@@ -21292,16 +21315,16 @@
       </c>
       <c r="K6" s="67"/>
       <c r="L6" s="67" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="M6" s="67" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="N6" s="67" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="O6" s="67" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="P6" s="67">
         <v>0</v>
@@ -21310,7 +21333,7 @@
         <v>0</v>
       </c>
       <c r="R6" s="67" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="S6" s="67"/>
       <c r="T6" s="67">
@@ -21329,7 +21352,7 @@
         <v>9075</v>
       </c>
       <c r="Y6" s="67" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="Z6" s="67">
         <v>0</v>
@@ -21379,36 +21402,36 @@
         <v>19</v>
       </c>
       <c r="C8" s="69" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="D8" s="69" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="E8" s="69" t="s">
         <v>67</v>
       </c>
       <c r="F8" s="69"/>
       <c r="G8" s="69" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="H8" s="69" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="I8" s="69" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="J8" s="69" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="K8" s="69" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="L8" s="69"/>
       <c r="M8" s="69"/>
       <c r="N8" s="69"/>
       <c r="O8" s="69"/>
       <c r="P8" s="69" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="Q8" s="69"/>
       <c r="R8" s="69"/>
@@ -21430,23 +21453,23 @@
       </c>
       <c r="C9" s="70"/>
       <c r="D9" s="71" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="E9" s="71">
         <v>6</v>
       </c>
       <c r="F9" s="71"/>
       <c r="G9" s="71" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="H9" s="71" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="I9" s="71" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="J9" s="71" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="K9" s="71"/>
       <c r="L9" s="71">
@@ -21462,41 +21485,41 @@
         <v>4</v>
       </c>
       <c r="P9" s="71" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="Q9" s="71" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="R9" s="71" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="S9" s="71"/>
       <c r="T9" s="71" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="U9" s="71" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="V9" s="71" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="W9" s="71" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="X9" s="71">
         <v>20075</v>
       </c>
       <c r="Y9" s="71" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="Z9" s="71" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="AA9" s="39" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="AB9" s="39" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
     </row>
     <row r="10" spans="1:28" ht="27.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -21537,13 +21560,13 @@
         <v>24</v>
       </c>
       <c r="C11" s="72" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="D11" s="72" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="E11" s="72" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="F11" s="72"/>
       <c r="G11" s="72" t="s">
@@ -21653,82 +21676,82 @@
         <v>30</v>
       </c>
       <c r="C13" s="84" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="D13" s="85" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="E13" s="85" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="F13" s="85" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="G13" s="85" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="H13" s="85" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="I13" s="85" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="J13" s="85" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="K13" s="85" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="L13" s="85" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="M13" s="85" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="N13" s="85" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="O13" s="85" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="P13" s="85" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="Q13" s="85" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="R13" s="85" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="S13" s="85" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="T13" s="85" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="U13" s="85" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="V13" s="85" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="W13" s="85" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="X13" s="85" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="Y13" s="85" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="Z13" s="85" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="AA13" s="85" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="AB13" s="85" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
     </row>
     <row r="14" spans="1:28" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.35">
@@ -21739,76 +21762,76 @@
         <v>33</v>
       </c>
       <c r="C14" s="84" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="D14" s="86" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="E14" s="86" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="F14" s="85" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="G14" s="85" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="H14" s="85" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="I14" s="85" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="J14" s="85" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="K14" s="85" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="L14" s="85" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="M14" s="85" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="N14" s="85" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="O14" s="85" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="P14" s="85" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="Q14" s="85" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="R14" s="85" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="S14" s="85" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="T14" s="85" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="U14" s="85" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="V14" s="85" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="W14" s="85"/>
       <c r="X14" s="85"/>
       <c r="Y14" s="85"/>
       <c r="Z14" s="84" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="AA14" s="84" t="s">
+        <v>166</v>
+      </c>
+      <c r="AB14" s="84" t="s">
         <v>170</v>
-      </c>
-      <c r="AB14" s="84" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="15" spans="1:28" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -21905,82 +21928,82 @@
         <v>38</v>
       </c>
       <c r="C16" s="84" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="D16" s="85" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="E16" s="85" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="F16" s="85" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="G16" s="85" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="H16" s="85" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="I16" s="85" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="J16" s="85" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="K16" s="85" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="L16" s="85" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="M16" s="85" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="N16" s="85" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="O16" s="85" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="P16" s="85" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="Q16" s="85" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="R16" s="85" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="S16" s="85" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="T16" s="85" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="U16" s="85" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="V16" s="85" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="W16" s="85" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="X16" s="85" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="Y16" s="85" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="Z16" s="85" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="AA16" s="85" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="AB16" s="85" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
     </row>
     <row r="17" spans="1:28" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -21991,60 +22014,60 @@
         <v>40</v>
       </c>
       <c r="C17" s="84" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="D17" s="85" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="E17" s="85" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="F17" s="85" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="G17" s="85"/>
       <c r="H17" s="85"/>
       <c r="I17" s="85"/>
       <c r="J17" s="85"/>
       <c r="K17" s="85" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="L17" s="85" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="M17" s="85" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="N17" s="85" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="O17" s="85" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="P17" s="85"/>
       <c r="Q17" s="85" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="R17" s="85" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="S17" s="85" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="T17" s="85" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="U17" s="85" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="V17" s="85" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="W17" s="85"/>
       <c r="X17" s="85"/>
       <c r="Y17" s="85"/>
       <c r="Z17" s="85" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="AA17" s="85"/>
       <c r="AB17" s="85"/>
@@ -22129,16 +22152,16 @@
       <c r="E20" s="85"/>
       <c r="F20" s="85"/>
       <c r="G20" s="85" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="H20" s="85" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="I20" s="85" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="J20" s="85" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="K20" s="85"/>
       <c r="L20" s="85"/>
@@ -22146,7 +22169,7 @@
       <c r="N20" s="85"/>
       <c r="O20" s="85"/>
       <c r="P20" s="85" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="Q20" s="85"/>
       <c r="R20" s="85"/>
@@ -22155,18 +22178,18 @@
       <c r="U20" s="85"/>
       <c r="V20" s="85"/>
       <c r="W20" s="85" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="X20" s="85"/>
       <c r="Y20" s="85"/>
       <c r="Z20" s="85" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="AA20" s="85" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="AB20" s="85" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
     </row>
     <row r="21" spans="1:28" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -22182,13 +22205,13 @@
       <c r="F21" s="85"/>
       <c r="G21" s="85"/>
       <c r="H21" s="85" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="I21" s="85" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="J21" s="85" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="K21" s="85"/>
       <c r="L21" s="85"/>
@@ -22206,7 +22229,7 @@
       <c r="X21" s="85"/>
       <c r="Y21" s="85"/>
       <c r="Z21" s="85" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="AA21" s="85"/>
       <c r="AB21" s="85"/>
@@ -22253,80 +22276,80 @@
         <v>52</v>
       </c>
       <c r="C23" s="84" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="D23" s="84" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="E23" s="84" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="F23" s="100" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="G23" s="84" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="H23" s="84" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="I23" s="84" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="J23" s="84" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="K23" s="84" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="L23" s="84" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="M23" s="84" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="N23" s="84" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="O23" s="84" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="P23" s="84" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="Q23" s="84" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="R23" s="84" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="S23" s="84" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="T23" s="84" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="U23" s="84" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="V23" s="84" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="W23" s="84" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="X23" s="84" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="Y23" s="101"/>
       <c r="Z23" s="101" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="AA23" s="101" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="AB23" s="101" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
     </row>
     <row r="24" spans="1:28" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -22337,80 +22360,80 @@
         <v>54</v>
       </c>
       <c r="C24" s="84" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="D24" s="85" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="E24" s="85" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="F24" s="85" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="G24" s="85" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="H24" s="85" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="I24" s="85" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="J24" s="85" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="K24" s="85" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="L24" s="85" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="M24" s="85" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="N24" s="85" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="O24" s="85" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="P24" s="85" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="Q24" s="85" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="R24" s="85" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="S24" s="85" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="T24" s="85" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="U24" s="85" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="V24" s="85" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="W24" s="85" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="X24" s="85"/>
       <c r="Y24" s="85" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="Z24" s="85" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="AA24" s="85" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="AB24" s="85" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
     </row>
     <row r="25" spans="1:28" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -22479,7 +22502,7 @@
       <c r="Y26" s="85"/>
       <c r="Z26" s="85"/>
       <c r="AA26" s="84" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="AB26" s="84"/>
     </row>
@@ -22515,7 +22538,7 @@
       <c r="Y27" s="85"/>
       <c r="Z27" s="85"/>
       <c r="AA27" s="84" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="AB27" s="85"/>
     </row>
@@ -24906,7 +24929,7 @@
   </sheetPr>
   <dimension ref="A1:Q104"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView topLeftCell="D1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
@@ -25081,98 +25104,98 @@
       </c>
       <c r="B4" s="121"/>
       <c r="C4" s="65" t="s">
+        <v>179</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>180</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>181</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>182</v>
+      </c>
+      <c r="G4" s="65" t="s">
         <v>183</v>
       </c>
-      <c r="D4" s="9" t="s">
+      <c r="H4" s="9" t="s">
         <v>184</v>
       </c>
-      <c r="E4" s="9" t="s">
+      <c r="I4" s="91" t="s">
         <v>185</v>
       </c>
-      <c r="F4" s="9" t="s">
+      <c r="J4" s="91" t="s">
         <v>186</v>
       </c>
-      <c r="G4" s="65" t="s">
+      <c r="K4" s="91" t="s">
         <v>187</v>
       </c>
-      <c r="H4" s="9" t="s">
+      <c r="L4" s="93" t="s">
         <v>188</v>
       </c>
-      <c r="I4" s="91" t="s">
+      <c r="M4" s="93" t="s">
         <v>189</v>
       </c>
-      <c r="J4" s="91" t="s">
+      <c r="N4" s="93" t="s">
         <v>190</v>
       </c>
-      <c r="K4" s="91" t="s">
+      <c r="O4" s="93" t="s">
         <v>191</v>
       </c>
-      <c r="L4" s="93" t="s">
+      <c r="P4" s="93" t="s">
         <v>192</v>
       </c>
-      <c r="M4" s="93" t="s">
+      <c r="Q4" s="93" t="s">
         <v>193</v>
-      </c>
-      <c r="N4" s="93" t="s">
-        <v>194</v>
-      </c>
-      <c r="O4" s="93" t="s">
-        <v>195</v>
-      </c>
-      <c r="P4" s="93" t="s">
-        <v>196</v>
-      </c>
-      <c r="Q4" s="93" t="s">
-        <v>197</v>
       </c>
     </row>
     <row r="5" spans="1:17" s="1" customFormat="1" ht="409.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="122"/>
       <c r="B5" s="123"/>
       <c r="C5" s="104" t="s">
+        <v>194</v>
+      </c>
+      <c r="D5" s="37" t="s">
+        <v>337</v>
+      </c>
+      <c r="E5" s="88" t="s">
+        <v>195</v>
+      </c>
+      <c r="F5" s="88" t="s">
+        <v>196</v>
+      </c>
+      <c r="G5" s="88" t="s">
+        <v>197</v>
+      </c>
+      <c r="H5" s="88" t="s">
         <v>198</v>
       </c>
-      <c r="D5" s="37" t="s">
-        <v>341</v>
-      </c>
-      <c r="E5" s="88" t="s">
+      <c r="I5" s="88" t="s">
         <v>199</v>
       </c>
-      <c r="F5" s="88" t="s">
+      <c r="J5" s="88" t="s">
         <v>200</v>
       </c>
-      <c r="G5" s="88" t="s">
+      <c r="K5" s="88" t="s">
         <v>201</v>
       </c>
-      <c r="H5" s="88" t="s">
+      <c r="L5" s="88" t="s">
         <v>202</v>
       </c>
-      <c r="I5" s="88" t="s">
+      <c r="M5" s="56" t="s">
         <v>203</v>
       </c>
-      <c r="J5" s="88" t="s">
+      <c r="N5" s="56" t="s">
         <v>204</v>
       </c>
-      <c r="K5" s="88" t="s">
+      <c r="O5" s="56" t="s">
         <v>205</v>
       </c>
-      <c r="L5" s="88" t="s">
+      <c r="P5" s="56" t="s">
         <v>206</v>
       </c>
-      <c r="M5" s="56" t="s">
+      <c r="Q5" s="56" t="s">
         <v>207</v>
-      </c>
-      <c r="N5" s="56" t="s">
-        <v>208</v>
-      </c>
-      <c r="O5" s="56" t="s">
-        <v>209</v>
-      </c>
-      <c r="P5" s="56" t="s">
-        <v>210</v>
-      </c>
-      <c r="Q5" s="56" t="s">
-        <v>211</v>
       </c>
     </row>
     <row r="6" spans="1:17" ht="27.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -25227,41 +25250,41 @@
       <c r="C8" s="11"/>
       <c r="D8" s="11"/>
       <c r="E8" s="11" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="F8" s="11" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="G8" s="11" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="H8" s="11" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="I8" s="11" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="J8" s="11" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="K8" s="11" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="L8" s="11"/>
       <c r="M8" s="11" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="N8" s="11" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="O8" s="11" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="P8" s="11" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="Q8" s="11" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
     </row>
     <row r="9" spans="1:17" ht="27.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -25273,7 +25296,7 @@
         <v>1</v>
       </c>
       <c r="D9" s="39" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="E9" s="71"/>
       <c r="F9" s="71"/>
@@ -25316,47 +25339,47 @@
         <v>24</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="H11" s="5" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="I11" s="5" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="J11" s="5" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="K11" s="5" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="L11" s="5"/>
       <c r="M11" s="5" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="N11" s="5" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="O11" s="5" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="P11" s="5" t="s">
         <v>25</v>
       </c>
       <c r="Q11" s="5" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
     </row>
     <row r="12" spans="1:17" ht="20.25" customHeight="1" x14ac:dyDescent="0.4">
@@ -25606,19 +25629,19 @@
       <c r="K17" s="76"/>
       <c r="L17" s="76"/>
       <c r="M17" s="50" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="N17" s="50" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="O17" s="50" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="P17" s="50" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="Q17" s="50" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
     </row>
     <row r="18" spans="1:17" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
@@ -25676,13 +25699,13 @@
       </c>
       <c r="C20" s="50"/>
       <c r="D20" s="50" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="E20" s="50" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="F20" s="50" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="G20" s="90"/>
       <c r="I20" s="76"/>
@@ -25703,29 +25726,29 @@
         <v>48</v>
       </c>
       <c r="C21" s="50" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="D21" s="50" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="E21" s="50" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="F21" s="50"/>
       <c r="G21" s="50" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="H21" s="50" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="I21" s="76" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="J21" s="76" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="K21" s="76" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="L21" s="76"/>
       <c r="M21" s="50"/>
@@ -25742,31 +25765,31 @@
         <v>50</v>
       </c>
       <c r="C22" s="50" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="D22" s="50" t="s">
+        <v>227</v>
+      </c>
+      <c r="E22" s="50" t="s">
+        <v>228</v>
+      </c>
+      <c r="F22" s="50" t="s">
+        <v>228</v>
+      </c>
+      <c r="G22" s="50" t="s">
+        <v>229</v>
+      </c>
+      <c r="H22" s="50" t="s">
+        <v>230</v>
+      </c>
+      <c r="I22" s="76" t="s">
         <v>231</v>
       </c>
-      <c r="E22" s="50" t="s">
+      <c r="J22" s="76" t="s">
         <v>232</v>
       </c>
-      <c r="F22" s="50" t="s">
-        <v>232</v>
-      </c>
-      <c r="G22" s="50" t="s">
+      <c r="K22" s="76" t="s">
         <v>233</v>
-      </c>
-      <c r="H22" s="50" t="s">
-        <v>234</v>
-      </c>
-      <c r="I22" s="76" t="s">
-        <v>235</v>
-      </c>
-      <c r="J22" s="76" t="s">
-        <v>236</v>
-      </c>
-      <c r="K22" s="76" t="s">
-        <v>237</v>
       </c>
       <c r="L22" s="76"/>
       <c r="M22" s="50"/>
@@ -25852,31 +25875,31 @@
         <v>58</v>
       </c>
       <c r="C26" s="50" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="D26" s="50" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="E26" s="50" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="F26" s="50" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="G26" s="50" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="H26" s="50" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="I26" s="50" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="J26" s="50" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="K26" s="50" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="L26" s="50"/>
       <c r="M26" s="50"/>
@@ -25893,31 +25916,31 @@
         <v>60</v>
       </c>
       <c r="C27" s="50" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="D27" s="50" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="E27" s="50" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="F27" s="50" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="G27" s="50" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="H27" s="50" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="I27" s="50" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="J27" s="50" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="K27" s="50" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="L27" s="50"/>
       <c r="M27" s="50"/>
@@ -27460,7 +27483,7 @@
       </c>
       <c r="B1" s="117"/>
       <c r="C1" s="17" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="D1" s="17"/>
       <c r="E1" s="17" t="s">
@@ -27546,19 +27569,19 @@
         <v>8</v>
       </c>
       <c r="I3" s="15" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="J3" s="15" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="K3" s="15" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="L3" s="15" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="M3" s="15" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="4" spans="1:13" s="1" customFormat="1" ht="74.400000000000006" customHeight="1" x14ac:dyDescent="0.4">
@@ -27567,23 +27590,23 @@
       </c>
       <c r="B4" s="117"/>
       <c r="C4" s="9" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="D4" s="9"/>
       <c r="E4" s="9" t="s">
+        <v>317</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>318</v>
+      </c>
+      <c r="G4" s="9" t="s">
+        <v>319</v>
+      </c>
+      <c r="H4" s="9" t="s">
+        <v>320</v>
+      </c>
+      <c r="I4" s="9" t="s">
         <v>321</v>
-      </c>
-      <c r="F4" s="9" t="s">
-        <v>322</v>
-      </c>
-      <c r="G4" s="9" t="s">
-        <v>323</v>
-      </c>
-      <c r="H4" s="9" t="s">
-        <v>324</v>
-      </c>
-      <c r="I4" s="9" t="s">
-        <v>325</v>
       </c>
       <c r="J4" s="9"/>
       <c r="K4" s="9"/>
@@ -27594,7 +27617,7 @@
       <c r="A5" s="118"/>
       <c r="B5" s="118"/>
       <c r="C5" s="56" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="D5" s="107" t="str">
         <f>TRIM(SUBSTITUTE(C5,CHAR(32),""))</f>
@@ -27603,31 +27626,31 @@
 </v>
       </c>
       <c r="E5" s="56" t="s">
+        <v>323</v>
+      </c>
+      <c r="F5" s="56" t="s">
+        <v>324</v>
+      </c>
+      <c r="G5" s="56" t="s">
+        <v>325</v>
+      </c>
+      <c r="H5" s="56" t="s">
+        <v>326</v>
+      </c>
+      <c r="I5" s="56" t="s">
         <v>327</v>
       </c>
-      <c r="F5" s="56" t="s">
+      <c r="J5" s="56" t="s">
         <v>328</v>
       </c>
-      <c r="G5" s="56" t="s">
+      <c r="K5" s="56" t="s">
         <v>329</v>
       </c>
-      <c r="H5" s="56" t="s">
+      <c r="L5" s="56" t="s">
         <v>330</v>
       </c>
-      <c r="I5" s="56" t="s">
+      <c r="M5" s="56" t="s">
         <v>331</v>
-      </c>
-      <c r="J5" s="56" t="s">
-        <v>332</v>
-      </c>
-      <c r="K5" s="56" t="s">
-        <v>333</v>
-      </c>
-      <c r="L5" s="56" t="s">
-        <v>334</v>
-      </c>
-      <c r="M5" s="56" t="s">
-        <v>335</v>
       </c>
     </row>
     <row r="6" spans="1:13" ht="27.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -27672,35 +27695,35 @@
         <v>19</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="D8" s="11"/>
       <c r="E8" s="11" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="F8" s="11" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="G8" s="11" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="H8" s="11" t="s">
         <v>64</v>
       </c>
       <c r="I8" s="11" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="J8" s="11" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="K8" s="11" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="L8" s="11" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="M8" s="11" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
     </row>
     <row r="9" spans="1:13" ht="27.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -27747,13 +27770,13 @@
       </c>
       <c r="D11" s="5"/>
       <c r="E11" s="5" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="H11" s="5" t="s">
         <v>25</v>
@@ -27957,35 +27980,35 @@
         <v>40</v>
       </c>
       <c r="C17" s="109" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="D17" s="109"/>
       <c r="E17" s="50" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="F17" s="110" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="G17" s="50" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="H17" s="50" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="I17" s="50" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="J17" s="50" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="K17" s="50" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="L17" s="50" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="M17" s="50" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
     </row>
     <row r="18" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
@@ -28034,7 +28057,7 @@
         <v>46</v>
       </c>
       <c r="C20" s="50" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="D20" s="50"/>
       <c r="E20" s="50"/>
@@ -29398,84 +29421,84 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" s="57" t="s">
+        <v>236</v>
+      </c>
+      <c r="B1" s="57" t="s">
+        <v>237</v>
+      </c>
+      <c r="C1" s="57" t="s">
+        <v>238</v>
+      </c>
+      <c r="D1" s="57" t="s">
+        <v>239</v>
+      </c>
+      <c r="E1" s="57" t="s">
         <v>240</v>
       </c>
-      <c r="B1" s="57" t="s">
+      <c r="F1" s="57" t="s">
         <v>241</v>
       </c>
-      <c r="C1" s="57" t="s">
+      <c r="G1" s="57" t="s">
         <v>242</v>
       </c>
-      <c r="D1" s="57" t="s">
+      <c r="H1" s="57" t="s">
         <v>243</v>
       </c>
-      <c r="E1" s="57" t="s">
+      <c r="I1" s="57" t="s">
         <v>244</v>
       </c>
-      <c r="F1" s="57" t="s">
+      <c r="J1" s="57" t="s">
         <v>245</v>
       </c>
-      <c r="G1" s="57" t="s">
+      <c r="K1" s="57" t="s">
         <v>246</v>
       </c>
-      <c r="H1" s="57" t="s">
+      <c r="L1" s="57" t="s">
         <v>247</v>
       </c>
-      <c r="I1" s="57" t="s">
+      <c r="M1" s="57" t="s">
         <v>248</v>
-      </c>
-      <c r="J1" s="57" t="s">
-        <v>249</v>
-      </c>
-      <c r="K1" s="57" t="s">
-        <v>250</v>
-      </c>
-      <c r="L1" s="57" t="s">
-        <v>251</v>
-      </c>
-      <c r="M1" s="57" t="s">
-        <v>252</v>
       </c>
     </row>
     <row r="2" spans="1:13" s="92" customFormat="1" ht="408.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="37" t="s">
+        <v>249</v>
+      </c>
+      <c r="B2" s="103" t="s">
+        <v>306</v>
+      </c>
+      <c r="C2" s="37" t="s">
+        <v>250</v>
+      </c>
+      <c r="D2" s="83" t="s">
+        <v>251</v>
+      </c>
+      <c r="E2" s="105" t="s">
+        <v>252</v>
+      </c>
+      <c r="F2" s="105" t="s">
         <v>253</v>
       </c>
-      <c r="B2" s="103" t="s">
-        <v>310</v>
-      </c>
-      <c r="C2" s="37" t="s">
+      <c r="G2" s="105" t="s">
         <v>254</v>
       </c>
-      <c r="D2" s="83" t="s">
+      <c r="H2" s="105" t="s">
         <v>255</v>
       </c>
-      <c r="E2" s="105" t="s">
+      <c r="I2" s="105" t="s">
         <v>256</v>
       </c>
-      <c r="F2" s="105" t="s">
+      <c r="J2" s="105" t="s">
         <v>257</v>
       </c>
-      <c r="G2" s="105" t="s">
+      <c r="K2" s="105" t="s">
         <v>258</v>
       </c>
-      <c r="H2" s="105" t="s">
+      <c r="L2" s="105" t="s">
         <v>259</v>
       </c>
-      <c r="I2" s="105" t="s">
+      <c r="M2" s="105" t="s">
         <v>260</v>
-      </c>
-      <c r="J2" s="105" t="s">
-        <v>261</v>
-      </c>
-      <c r="K2" s="105" t="s">
-        <v>262</v>
-      </c>
-      <c r="L2" s="105" t="s">
-        <v>263</v>
-      </c>
-      <c r="M2" s="105" t="s">
-        <v>264</v>
       </c>
     </row>
   </sheetData>
@@ -29504,177 +29527,177 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="26" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="J1" s="26" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="25" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="J2" s="25" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="25" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="J3" s="25"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" s="25" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="J4" s="25"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="25" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="J5" s="25"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="25" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="B6" s="23"/>
       <c r="C6" s="23" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="D6" s="23"/>
       <c r="E6" s="23" t="s">
+        <v>270</v>
+      </c>
+      <c r="F6" s="23" t="s">
+        <v>271</v>
+      </c>
+      <c r="G6" s="23" t="s">
+        <v>272</v>
+      </c>
+      <c r="H6" s="24" t="s">
+        <v>273</v>
+      </c>
+      <c r="J6" s="25" t="s">
         <v>274</v>
       </c>
-      <c r="F6" s="23" t="s">
+      <c r="K6" s="58" t="s">
         <v>275</v>
-      </c>
-      <c r="G6" s="23" t="s">
-        <v>276</v>
-      </c>
-      <c r="H6" s="24" t="s">
-        <v>277</v>
-      </c>
-      <c r="J6" s="25" t="s">
-        <v>278</v>
-      </c>
-      <c r="K6" s="58" t="s">
-        <v>279</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="25" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="J7" s="25"/>
       <c r="K7" s="58" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" s="25" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="B8" s="89"/>
       <c r="C8" s="23" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="D8" s="23"/>
       <c r="E8" s="23" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="F8" s="23" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="G8" s="23" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="H8" s="24" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="J8" s="25"/>
       <c r="K8" s="58"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="25" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="J9" s="25" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="25" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="J10" s="25" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="25" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="J11" s="25" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="25" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="J12" s="25" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="25" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="J13" s="25" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="25" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="J14" s="25" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="25" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="J15" s="25" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="25" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="J16" s="25" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" s="25" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="J17" s="25" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" s="25" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="J18" s="25" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
     </row>
   </sheetData>
@@ -29683,6 +29706,26 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="e658002f-fdfe-4e4b-94aa-0526ee42a8ac">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="4ad8f8a2-17e7-49a9-8390-22f3c8f42b39" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100C9B53A5B1F235B4EBDF9F22062DFC34D" ma:contentTypeVersion="12" ma:contentTypeDescription="Creare un nuovo documento." ma:contentTypeScope="" ma:versionID="ad5b12d537450e73edf2af95672e184c">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="e658002f-fdfe-4e4b-94aa-0526ee42a8ac" xmlns:ns3="4ad8f8a2-17e7-49a9-8390-22f3c8f42b39" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="ac16958afaf1bb0d1dccad67078e8e2c" ns2:_="" ns3:_="">
     <xsd:import namespace="e658002f-fdfe-4e4b-94aa-0526ee42a8ac"/>
@@ -29899,41 +29942,10 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="e658002f-fdfe-4e4b-94aa-0526ee42a8ac">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="4ad8f8a2-17e7-49a9-8390-22f3c8f42b39" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{31D0029D-E8A7-4DC9-B140-19D450DFB7E0}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BA99F9FA-472B-49CB-8CD8-32BE0FD0DC5E}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="e658002f-fdfe-4e4b-94aa-0526ee42a8ac"/>
-    <ds:schemaRef ds:uri="4ad8f8a2-17e7-49a9-8390-22f3c8f42b39"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -29956,9 +29968,20 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BA99F9FA-472B-49CB-8CD8-32BE0FD0DC5E}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{31D0029D-E8A7-4DC9-B140-19D450DFB7E0}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="e658002f-fdfe-4e4b-94aa-0526ee42a8ac"/>
+    <ds:schemaRef ds:uri="4ad8f8a2-17e7-49a9-8390-22f3c8f42b39"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/raw_data/IVM6311_Testing_scripts.xlsx
+++ b/raw_data/IVM6311_Testing_scripts.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\harkum\Documents\6311\Software\raw_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18988359-38DD-4D94-9BD5-BA6291A16D0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F21988EA-C4CA-4422-B61C-D6F1C6030BAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30612" yWindow="-108" windowWidth="30936" windowHeight="16776" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="30612" yWindow="-108" windowWidth="30936" windowHeight="16776" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Revision" sheetId="3" r:id="rId1"/>
@@ -17094,9 +17094,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
-    <numFmt numFmtId="167" formatCode="#,##0.0000"/>
-    <numFmt numFmtId="168" formatCode="0.000"/>
-    <numFmt numFmtId="169" formatCode="0.0000"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0000"/>
+    <numFmt numFmtId="165" formatCode="0.000"/>
+    <numFmt numFmtId="166" formatCode="0.0000"/>
   </numFmts>
   <fonts count="73" x14ac:knownFonts="1">
     <font>
@@ -18151,6 +18151,36 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="4" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="29" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="4" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="4" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="4" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -18174,36 +18204,6 @@
     </xf>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="4" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="4" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="29" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="169" fontId="4" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="169" fontId="4" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="168" fontId="4" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="169" fontId="4" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -18601,7 +18601,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40D91B9C-5E8C-479A-83F9-A38D53329BF0}">
   <dimension ref="A1:E104"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
@@ -18613,10 +18613,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="21" x14ac:dyDescent="0.4">
-      <c r="A1" s="117" t="s">
+      <c r="A1" s="127" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="117"/>
+      <c r="B1" s="127"/>
       <c r="C1" s="17" t="s">
         <v>5</v>
       </c>
@@ -18641,10 +18641,10 @@
       </c>
     </row>
     <row r="3" spans="1:5" ht="21" x14ac:dyDescent="0.4">
-      <c r="A3" s="117" t="s">
+      <c r="A3" s="127" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="117"/>
+      <c r="B3" s="127"/>
       <c r="C3" s="15" t="s">
         <v>8</v>
       </c>
@@ -18656,10 +18656,10 @@
       </c>
     </row>
     <row r="4" spans="1:5" ht="21" x14ac:dyDescent="0.4">
-      <c r="A4" s="117" t="s">
+      <c r="A4" s="127" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="117"/>
+      <c r="B4" s="127"/>
       <c r="C4" s="9" t="s">
         <v>10</v>
       </c>
@@ -18671,8 +18671,8 @@
       </c>
     </row>
     <row r="5" spans="1:5" ht="273" x14ac:dyDescent="0.3">
-      <c r="A5" s="118"/>
-      <c r="B5" s="119"/>
+      <c r="A5" s="128"/>
+      <c r="B5" s="129"/>
       <c r="C5" s="37" t="s">
         <v>13</v>
       </c>
@@ -18684,24 +18684,24 @@
       </c>
     </row>
     <row r="6" spans="1:5" ht="22.2" x14ac:dyDescent="0.35">
-      <c r="A6" s="120" t="s">
+      <c r="A6" s="130" t="s">
         <v>15</v>
       </c>
       <c r="B6" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="126">
+      <c r="C6" s="118">
         <v>1.7929999999999999</v>
       </c>
-      <c r="D6" s="126">
+      <c r="D6" s="118">
         <v>1.7929999999999999</v>
       </c>
-      <c r="E6" s="126">
+      <c r="E6" s="118">
         <v>1.7929999999999999</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="22.2" x14ac:dyDescent="0.35">
-      <c r="A7" s="120"/>
+      <c r="A7" s="130"/>
       <c r="B7" s="14" t="s">
         <v>17</v>
       </c>
@@ -18716,7 +18716,7 @@
       </c>
     </row>
     <row r="8" spans="1:5" ht="22.2" x14ac:dyDescent="0.35">
-      <c r="A8" s="120"/>
+      <c r="A8" s="130"/>
       <c r="B8" s="10" t="s">
         <v>19</v>
       </c>
@@ -18731,22 +18731,22 @@
       </c>
     </row>
     <row r="9" spans="1:5" ht="22.2" x14ac:dyDescent="0.35">
-      <c r="A9" s="120"/>
+      <c r="A9" s="130"/>
       <c r="B9" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="C9" s="127">
+      <c r="C9" s="119">
         <v>1.804</v>
       </c>
-      <c r="D9" s="127">
+      <c r="D9" s="119">
         <v>1.804</v>
       </c>
-      <c r="E9" s="127">
+      <c r="E9" s="119">
         <v>1.804</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="22.2" x14ac:dyDescent="0.35">
-      <c r="A10" s="120"/>
+      <c r="A10" s="130"/>
       <c r="B10" s="14" t="s">
         <v>22</v>
       </c>
@@ -19397,8 +19397,8 @@
   </sheetPr>
   <dimension ref="A1:I104"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -19411,10 +19411,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="21" x14ac:dyDescent="0.4">
-      <c r="A1" s="117" t="s">
+      <c r="A1" s="127" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="117"/>
+      <c r="B1" s="127"/>
       <c r="C1" s="17" t="s">
         <v>5</v>
       </c>
@@ -19461,10 +19461,10 @@
       </c>
     </row>
     <row r="3" spans="1:9" s="1" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="117" t="s">
+      <c r="A3" s="127" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="117"/>
+      <c r="B3" s="127"/>
       <c r="C3" s="15" t="s">
         <v>64</v>
       </c>
@@ -19488,10 +19488,10 @@
       </c>
     </row>
     <row r="4" spans="1:9" s="1" customFormat="1" ht="74.400000000000006" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="117" t="s">
+      <c r="A4" s="127" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="117"/>
+      <c r="B4" s="127"/>
       <c r="C4" s="9" t="s">
         <v>69</v>
       </c>
@@ -19515,8 +19515,8 @@
       </c>
     </row>
     <row r="5" spans="1:9" s="1" customFormat="1" ht="409.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="118"/>
-      <c r="B5" s="119"/>
+      <c r="A5" s="128"/>
+      <c r="B5" s="129"/>
       <c r="C5" s="37" t="s">
         <v>307</v>
       </c>
@@ -19540,28 +19540,28 @@
       </c>
     </row>
     <row r="6" spans="1:9" ht="27.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="120" t="s">
+      <c r="A6" s="130" t="s">
         <v>15</v>
       </c>
       <c r="B6" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="129"/>
-      <c r="D6" s="134">
+      <c r="C6" s="121"/>
+      <c r="D6" s="126">
         <v>1.7929999999999999</v>
       </c>
-      <c r="E6" s="125"/>
-      <c r="F6" s="125"/>
-      <c r="G6" s="125"/>
-      <c r="H6" s="134">
+      <c r="E6" s="117"/>
+      <c r="F6" s="117"/>
+      <c r="G6" s="117"/>
+      <c r="H6" s="126">
         <v>1.796</v>
       </c>
-      <c r="I6" s="133">
+      <c r="I6" s="125">
         <v>12.5</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="27.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="120"/>
+      <c r="A7" s="130"/>
       <c r="B7" s="14" t="s">
         <v>17</v>
       </c>
@@ -19576,53 +19576,53 @@
       <c r="I7" s="8"/>
     </row>
     <row r="8" spans="1:9" ht="27.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="120"/>
+      <c r="A8" s="130"/>
       <c r="B8" s="10" t="s">
         <v>19</v>
       </c>
       <c r="C8" s="11" t="s">
         <v>82</v>
       </c>
-      <c r="D8" s="131">
+      <c r="D8" s="123">
         <v>1.7989999999999999</v>
       </c>
-      <c r="E8" s="128" t="s">
+      <c r="E8" s="120" t="s">
         <v>83</v>
       </c>
-      <c r="F8" s="128" t="s">
+      <c r="F8" s="120" t="s">
         <v>84</v>
       </c>
-      <c r="G8" s="131">
+      <c r="G8" s="123">
         <v>0.54200000000000004</v>
       </c>
-      <c r="H8" s="131">
+      <c r="H8" s="123">
         <v>1.7989999999999999</v>
       </c>
-      <c r="I8" s="128" t="s">
+      <c r="I8" s="120" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="27.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="120"/>
+      <c r="A9" s="130"/>
       <c r="B9" s="12" t="s">
         <v>21</v>
       </c>
       <c r="C9" s="39"/>
-      <c r="D9" s="132">
+      <c r="D9" s="124">
         <v>1.804</v>
       </c>
-      <c r="E9" s="130"/>
-      <c r="F9" s="130"/>
-      <c r="G9" s="130"/>
-      <c r="H9" s="132">
+      <c r="E9" s="122"/>
+      <c r="F9" s="122"/>
+      <c r="G9" s="122"/>
+      <c r="H9" s="124">
         <v>1.802</v>
       </c>
-      <c r="I9" s="130">
+      <c r="I9" s="122">
         <v>13.5</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="27.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="120"/>
+      <c r="A10" s="130"/>
       <c r="B10" s="14" t="s">
         <v>22</v>
       </c>
@@ -20858,7 +20858,7 @@
   </sheetPr>
   <dimension ref="A1:AB104"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="S5" sqref="S5"/>
     </sheetView>
   </sheetViews>
@@ -20873,10 +20873,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:28" ht="21" x14ac:dyDescent="0.4">
-      <c r="A1" s="121" t="s">
+      <c r="A1" s="131" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="121"/>
+      <c r="B1" s="131"/>
       <c r="C1" s="17" t="s">
         <v>91</v>
       </c>
@@ -21037,10 +21037,10 @@
       </c>
     </row>
     <row r="3" spans="1:28" s="1" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="121" t="s">
+      <c r="A3" s="131" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="121"/>
+      <c r="B3" s="131"/>
       <c r="C3" s="64" t="s">
         <v>64</v>
       </c>
@@ -21121,10 +21121,10 @@
       </c>
     </row>
     <row r="4" spans="1:28" s="1" customFormat="1" ht="74.400000000000006" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="121" t="s">
+      <c r="A4" s="131" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="121"/>
+      <c r="B4" s="131"/>
       <c r="C4" s="65" t="s">
         <v>111</v>
       </c>
@@ -21205,8 +21205,8 @@
       </c>
     </row>
     <row r="5" spans="1:28" s="1" customFormat="1" ht="409.6" x14ac:dyDescent="0.3">
-      <c r="A5" s="122"/>
-      <c r="B5" s="123"/>
+      <c r="A5" s="132"/>
+      <c r="B5" s="133"/>
       <c r="C5" s="102" t="s">
         <v>137</v>
       </c>
@@ -21287,7 +21287,7 @@
       </c>
     </row>
     <row r="6" spans="1:28" ht="27.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="124" t="s">
+      <c r="A6" s="134" t="s">
         <v>15</v>
       </c>
       <c r="B6" s="59" t="s">
@@ -21365,7 +21365,7 @@
       </c>
     </row>
     <row r="7" spans="1:28" ht="27.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="124"/>
+      <c r="A7" s="134"/>
       <c r="B7" s="60" t="s">
         <v>17</v>
       </c>
@@ -21397,7 +21397,7 @@
       <c r="AB7" s="68"/>
     </row>
     <row r="8" spans="1:28" ht="27.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="124"/>
+      <c r="A8" s="134"/>
       <c r="B8" s="61" t="s">
         <v>19</v>
       </c>
@@ -21447,7 +21447,7 @@
       <c r="AB8" s="69"/>
     </row>
     <row r="9" spans="1:28" ht="27.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="124"/>
+      <c r="A9" s="134"/>
       <c r="B9" s="62" t="s">
         <v>21</v>
       </c>
@@ -21523,7 +21523,7 @@
       </c>
     </row>
     <row r="10" spans="1:28" ht="27.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="124"/>
+      <c r="A10" s="134"/>
       <c r="B10" s="60" t="s">
         <v>22</v>
       </c>
@@ -24950,10 +24950,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="21" x14ac:dyDescent="0.4">
-      <c r="A1" s="121" t="s">
+      <c r="A1" s="131" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="121"/>
+      <c r="B1" s="131"/>
       <c r="C1" s="17" t="s">
         <v>5</v>
       </c>
@@ -25048,10 +25048,10 @@
       </c>
     </row>
     <row r="3" spans="1:17" s="1" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="121" t="s">
+      <c r="A3" s="131" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="121"/>
+      <c r="B3" s="131"/>
       <c r="C3" s="15" t="s">
         <v>68</v>
       </c>
@@ -25099,10 +25099,10 @@
       </c>
     </row>
     <row r="4" spans="1:17" s="1" customFormat="1" ht="97.2" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="121" t="s">
+      <c r="A4" s="131" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="121"/>
+      <c r="B4" s="131"/>
       <c r="C4" s="65" t="s">
         <v>179</v>
       </c>
@@ -25150,8 +25150,8 @@
       </c>
     </row>
     <row r="5" spans="1:17" s="1" customFormat="1" ht="409.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="122"/>
-      <c r="B5" s="123"/>
+      <c r="A5" s="132"/>
+      <c r="B5" s="133"/>
       <c r="C5" s="104" t="s">
         <v>194</v>
       </c>
@@ -25199,7 +25199,7 @@
       </c>
     </row>
     <row r="6" spans="1:17" ht="27.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="124" t="s">
+      <c r="A6" s="134" t="s">
         <v>15</v>
       </c>
       <c r="B6" s="59" t="s">
@@ -25222,7 +25222,7 @@
       <c r="Q6" s="38"/>
     </row>
     <row r="7" spans="1:17" ht="27.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="124"/>
+      <c r="A7" s="134"/>
       <c r="B7" s="60" t="s">
         <v>17</v>
       </c>
@@ -25243,7 +25243,7 @@
       <c r="Q7" s="8"/>
     </row>
     <row r="8" spans="1:17" ht="27.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="124"/>
+      <c r="A8" s="134"/>
       <c r="B8" s="61" t="s">
         <v>19</v>
       </c>
@@ -25288,7 +25288,7 @@
       </c>
     </row>
     <row r="9" spans="1:17" ht="27.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="124"/>
+      <c r="A9" s="134"/>
       <c r="B9" s="62" t="s">
         <v>21</v>
       </c>
@@ -25313,7 +25313,7 @@
       <c r="Q9" s="39"/>
     </row>
     <row r="10" spans="1:17" ht="27.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="124"/>
+      <c r="A10" s="134"/>
       <c r="B10" s="60" t="s">
         <v>22</v>
       </c>
@@ -27478,10 +27478,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="21" x14ac:dyDescent="0.4">
-      <c r="A1" s="117" t="s">
+      <c r="A1" s="127" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="117"/>
+      <c r="B1" s="127"/>
       <c r="C1" s="17" t="s">
         <v>91</v>
       </c>
@@ -27548,10 +27548,10 @@
       </c>
     </row>
     <row r="3" spans="1:13" s="1" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="117" t="s">
+      <c r="A3" s="127" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="117"/>
+      <c r="B3" s="127"/>
       <c r="C3" s="15" t="s">
         <v>65</v>
       </c>
@@ -27585,10 +27585,10 @@
       </c>
     </row>
     <row r="4" spans="1:13" s="1" customFormat="1" ht="74.400000000000006" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="117" t="s">
+      <c r="A4" s="127" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="117"/>
+      <c r="B4" s="127"/>
       <c r="C4" s="9" t="s">
         <v>316</v>
       </c>
@@ -27614,8 +27614,8 @@
       <c r="M4" s="9"/>
     </row>
     <row r="5" spans="1:13" s="1" customFormat="1" ht="409.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="118"/>
-      <c r="B5" s="118"/>
+      <c r="A5" s="128"/>
+      <c r="B5" s="128"/>
       <c r="C5" s="56" t="s">
         <v>322</v>
       </c>
@@ -27654,7 +27654,7 @@
       </c>
     </row>
     <row r="6" spans="1:13" ht="27.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="120" t="s">
+      <c r="A6" s="130" t="s">
         <v>15</v>
       </c>
       <c r="B6" s="13" t="s">
@@ -27673,7 +27673,7 @@
       <c r="M6" s="38"/>
     </row>
     <row r="7" spans="1:13" ht="27.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="120"/>
+      <c r="A7" s="130"/>
       <c r="B7" s="14" t="s">
         <v>17</v>
       </c>
@@ -27690,7 +27690,7 @@
       <c r="M7" s="8"/>
     </row>
     <row r="8" spans="1:13" ht="27.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="120"/>
+      <c r="A8" s="130"/>
       <c r="B8" s="10" t="s">
         <v>19</v>
       </c>
@@ -27727,7 +27727,7 @@
       </c>
     </row>
     <row r="9" spans="1:13" ht="27.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="120"/>
+      <c r="A9" s="130"/>
       <c r="B9" s="12" t="s">
         <v>21</v>
       </c>
@@ -27744,7 +27744,7 @@
       <c r="M9" s="39"/>
     </row>
     <row r="10" spans="1:13" ht="27.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="120"/>
+      <c r="A10" s="130"/>
       <c r="B10" s="14" t="s">
         <v>22</v>
       </c>
@@ -29706,15 +29706,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <lcf76f155ced4ddcb4097134ff3c332f xmlns="e658002f-fdfe-4e4b-94aa-0526ee42a8ac">
@@ -29723,6 +29714,15 @@
     <TaxCatchAll xmlns="4ad8f8a2-17e7-49a9-8390-22f3c8f42b39" xsi:nil="true"/>
   </documentManagement>
 </p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -29943,14 +29943,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BA99F9FA-472B-49CB-8CD8-32BE0FD0DC5E}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7CBF6B91-9305-4674-87E0-A56D6B941238}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
@@ -29963,6 +29955,14 @@
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BA99F9FA-472B-49CB-8CD8-32BE0FD0DC5E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
